--- a/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3">
-        <v>0.001235041311195652</v>
+        <v>0.001203480338736523</v>
       </c>
       <c r="F3">
         <v>0.5089414762504474</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.002452976096086383</v>
+        <v>0.002441559040994274</v>
       </c>
       <c r="F4">
         <v>0.513309864817528</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.001983201556613504</v>
+        <v>0.001968006532582884</v>
       </c>
       <c r="F5">
         <v>0.5588002806500086</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.002283492482420664</v>
+        <v>0.002282691105768451</v>
       </c>
       <c r="F6">
         <v>0.5409319324520249</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>0.001235041311195652</v>
+        <v>0.001203480338736523</v>
       </c>
       <c r="F3">
         <v>0.702142299609495</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>119</v>
       </c>
       <c r="E4">
-        <v>0.002452976096086383</v>
+        <v>0.002441559040994274</v>
       </c>
       <c r="F4">
         <v>0.7567385172814384</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
       <c r="E5">
-        <v>0.001983201556613504</v>
+        <v>0.001968006532582884</v>
       </c>
       <c r="F5">
         <v>0.715396063538689</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0.002283492482420664</v>
+        <v>0.002282691105768451</v>
       </c>
       <c r="F6">
         <v>0.7026034083191994</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.001235041311195652</v>
+        <v>0.001203480338736523</v>
       </c>
       <c r="F3">
         <v>0.802718356785887</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.002452976096086383</v>
+        <v>0.002441559040994274</v>
       </c>
       <c r="F4">
         <v>0.8132543821923915</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.001983201556613504</v>
+        <v>0.001968006532582884</v>
       </c>
       <c r="F5">
         <v>0.8101323451279613</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.002283492482420664</v>
+        <v>0.002282691105768451</v>
       </c>
       <c r="F6">
         <v>0.8027247961126018</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>145</v>
       </c>
       <c r="E3">
-        <v>0.001235041311195652</v>
+        <v>0.001203480338736523</v>
       </c>
       <c r="F3">
         <v>0.9038604818625779</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>144</v>
       </c>
       <c r="E4">
-        <v>0.002452976096086383</v>
+        <v>0.002441559040994274</v>
       </c>
       <c r="F4">
         <v>0.9023811699284399</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.001983201556613504</v>
+        <v>0.001968006532582884</v>
       </c>
       <c r="F5">
         <v>0.9001763104443453</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>144</v>
       </c>
       <c r="E6">
-        <v>0.002283492482420664</v>
+        <v>0.002282691105768451</v>
       </c>
       <c r="F6">
         <v>0.9007202014438863</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>55</v>

--- a/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.951427875223671E-06</v>
+        <v>7.16595830422834E-06</v>
       </c>
       <c r="C2">
-        <v>6.261364301744686E-06</v>
+        <v>5.475639030928303E-06</v>
       </c>
       <c r="D2">
-        <v>4.02093833690216E-06</v>
+        <v>3.234874098648529E-06</v>
       </c>
       <c r="E2">
-        <v>1.877217370542109E-06</v>
+        <v>1.090828795928542E-06</v>
       </c>
       <c r="F2">
-        <v>2.401272662318467E-06</v>
+        <v>1.61496337516274E-06</v>
       </c>
       <c r="G2">
-        <v>7.865535876571517E-07</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.662490111142409E-08</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.864602755047745E-07</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.014044458548755E-07</v>
+        <v>1.148682346706268E-07</v>
       </c>
       <c r="K2">
-        <v>5.822288908634795E-06</v>
+        <v>5.036497207477443E-06</v>
       </c>
       <c r="L2">
-        <v>7.157073887688926E-06</v>
+        <v>6.371484134130257E-06</v>
       </c>
       <c r="M2">
-        <v>8.792488862025474E-06</v>
+        <v>8.007146540174609E-06</v>
       </c>
       <c r="N2">
-        <v>1.023954233931785E-05</v>
+        <v>9.454418950837899E-06</v>
       </c>
       <c r="O2">
-        <v>2.426326961925308E-05</v>
+        <v>2.348026796430565E-05</v>
       </c>
       <c r="P2">
-        <v>3.342917247541882E-05</v>
+        <v>3.26475575847073E-05</v>
       </c>
       <c r="Q2">
-        <v>4.535301128830616E-05</v>
+        <v>4.457320042644807E-05</v>
       </c>
       <c r="R2">
-        <v>4.973099121960551E-05</v>
+        <v>4.895184272850233E-05</v>
       </c>
       <c r="S2">
-        <v>4.856946423783256E-05</v>
+        <v>4.779014001236882E-05</v>
       </c>
       <c r="T2">
-        <v>4.424409930570756E-05</v>
+        <v>4.346412066992666E-05</v>
       </c>
       <c r="U2">
-        <v>3.839041439756544E-05</v>
+        <v>3.760955012280209E-05</v>
       </c>
       <c r="V2">
-        <v>4.099971135661952E-05</v>
+        <v>4.021924185799121E-05</v>
       </c>
       <c r="W2">
-        <v>3.873336339218377E-05</v>
+        <v>3.795255100422394E-05</v>
       </c>
       <c r="X2">
-        <v>3.061712751954632E-05</v>
+        <v>2.983508717774331E-05</v>
       </c>
       <c r="Y2">
-        <v>2.0105889684492E-05</v>
+        <v>1.932225903468187E-05</v>
       </c>
       <c r="Z2">
-        <v>1.132732982224795E-05</v>
+        <v>1.054237101163896E-05</v>
       </c>
       <c r="AA2">
-        <v>3.111778351168987E-06</v>
+        <v>2.325576560666253E-06</v>
       </c>
       <c r="AB2">
-        <v>1.149390681963397E-08</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.619988658886307E-06</v>
+        <v>1.833712462581161E-06</v>
       </c>
       <c r="AD2">
-        <v>4.593716227913948E-06</v>
+        <v>3.807738648651453E-06</v>
       </c>
       <c r="AE2">
-        <v>1.77604297212977E-05</v>
+        <v>1.697644421282883E-05</v>
       </c>
       <c r="AF2">
-        <v>2.446362661610901E-05</v>
+        <v>2.368065527436935E-05</v>
       </c>
       <c r="AG2">
-        <v>2.962750953507572E-05</v>
+        <v>2.884531946805201E-05</v>
       </c>
       <c r="AH2">
-        <v>3.933199638278983E-05</v>
+        <v>3.855127456559371E-05</v>
       </c>
       <c r="AI2">
-        <v>4.469893129857019E-05</v>
+        <v>4.391902147704044E-05</v>
       </c>
       <c r="AJ2">
-        <v>5.708638410418235E-05</v>
+        <v>5.630834845443843E-05</v>
       </c>
       <c r="AK2">
-        <v>5.319111916530809E-05</v>
+        <v>5.241249417764608E-05</v>
       </c>
       <c r="AL2">
-        <v>5.792397909103854E-05</v>
+        <v>5.714607016604724E-05</v>
       </c>
       <c r="AM2">
-        <v>6.068828504766018E-05</v>
+        <v>5.991079435104177E-05</v>
       </c>
       <c r="AN2">
-        <v>4.923953622731758E-05</v>
+        <v>4.846031338105075E-05</v>
       </c>
       <c r="AO2">
-        <v>4.126003435253445E-05</v>
+        <v>4.047960423972837E-05</v>
       </c>
       <c r="AP2">
-        <v>2.487507660965241E-05</v>
+        <v>2.409216751864187E-05</v>
       </c>
       <c r="AQ2">
-        <v>9.414770852260429E-06</v>
+        <v>8.629522679171801E-06</v>
       </c>
       <c r="AR2">
-        <v>3.695571942007912E-06</v>
+        <v>2.909458477127392E-06</v>
       </c>
       <c r="AS2">
-        <v>1.292742679713872E-08</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.71871575733705E-07</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>3.777236740726403E-06</v>
+        <v>2.991135631401464E-06</v>
       </c>
       <c r="AV2">
-        <v>9.039844858143886E-06</v>
+        <v>8.254539960260341E-06</v>
       </c>
       <c r="AW2">
-        <v>1.439155477416316E-05</v>
+        <v>1.360705956846476E-05</v>
       </c>
       <c r="AX2">
-        <v>3.061712751954632E-05</v>
+        <v>2.983508717774331E-05</v>
       </c>
       <c r="AY2">
-        <v>3.031230152432975E-05</v>
+        <v>2.953021506357971E-05</v>
       </c>
       <c r="AZ2">
-        <v>2.77828695640224E-05</v>
+        <v>2.700040041039041E-05</v>
       </c>
       <c r="BA2">
-        <v>3.169602450261593E-05</v>
+        <v>3.091414739358702E-05</v>
       </c>
       <c r="BB2">
-        <v>3.216412349527037E-05</v>
+        <v>3.138231720773631E-05</v>
       </c>
       <c r="BC2">
-        <v>3.471861945518441E-05</v>
+        <v>3.393719965261463E-05</v>
       </c>
       <c r="BD2">
-        <v>3.031230152432975E-05</v>
+        <v>2.953021506357971E-05</v>
       </c>
       <c r="BE2">
-        <v>2.822123255714347E-05</v>
+        <v>2.743882972606919E-05</v>
       </c>
       <c r="BF2">
-        <v>1.701548373298763E-05</v>
+        <v>1.623138551718698E-05</v>
       </c>
       <c r="BG2">
-        <v>9.630352848877448E-06</v>
+        <v>8.845137292477814E-06</v>
       </c>
       <c r="BH2">
-        <v>6.023894405471138E-06</v>
+        <v>5.238133206414579E-06</v>
       </c>
       <c r="BI2">
-        <v>4.332972332005623E-06</v>
+        <v>3.546955303240417E-06</v>
       </c>
       <c r="BJ2">
-        <v>4.168949934579515E-07</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>2.406196062241208E-08</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1.728932372869045E-06</v>
+        <v>9.425213633317477E-07</v>
       </c>
       <c r="BM2">
-        <v>3.283100548480545E-06</v>
+        <v>2.496924678337188E-06</v>
       </c>
       <c r="BN2">
-        <v>8.995896858833533E-06</v>
+        <v>8.210585311794455E-06</v>
       </c>
       <c r="BO2">
-        <v>1.137105182156185E-05</v>
+        <v>1.058609962591551E-05</v>
       </c>
       <c r="BP2">
-        <v>1.684165173571546E-05</v>
+        <v>1.605752721983279E-05</v>
       </c>
       <c r="BQ2">
-        <v>1.361355278637181E-05</v>
+        <v>1.282893987210186E-05</v>
       </c>
       <c r="BR2">
-        <v>8.186740871531065E-06</v>
+        <v>7.401306902445621E-06</v>
       </c>
       <c r="BS2">
-        <v>7.4910988824473E-06</v>
+        <v>6.705559665526854E-06</v>
       </c>
       <c r="BT2">
-        <v>7.719547878862406E-06</v>
+        <v>6.934043225356271E-06</v>
       </c>
       <c r="BU2">
-        <v>3.695571942007912E-06</v>
+        <v>2.909458477127392E-06</v>
       </c>
       <c r="BV2">
-        <v>2.710143957471561E-06</v>
+        <v>1.923881401300477E-06</v>
       </c>
       <c r="BW2">
-        <v>1.586747375100257E-06</v>
+        <v>8.003148535446805E-07</v>
       </c>
       <c r="BX2">
-        <v>3.400398946639861E-07</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>9.030299858293669E-08</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>1.065568883278755E-06</v>
+        <v>2.790575095136017E-07</v>
       </c>
       <c r="CA2">
-        <v>1.435072877480381E-06</v>
+        <v>6.486174081833661E-07</v>
       </c>
       <c r="CB2">
-        <v>6.091858604404622E-06</v>
+        <v>5.306107688058002E-06</v>
       </c>
       <c r="CC2">
-        <v>6.507650897879877E-06</v>
+        <v>5.721962889234899E-06</v>
       </c>
       <c r="CD2">
-        <v>8.228669870873101E-06</v>
+        <v>7.443242245476614E-06</v>
       </c>
       <c r="CE2">
-        <v>1.198722581189265E-05</v>
+        <v>1.120236684089273E-05</v>
       </c>
       <c r="CF2">
-        <v>1.336306379030256E-05</v>
+        <v>1.257841297805501E-05</v>
       </c>
       <c r="CG2">
-        <v>1.256772180278332E-05</v>
+        <v>1.1782950658492E-05</v>
       </c>
       <c r="CH2">
-        <v>1.227575680736493E-05</v>
+        <v>1.149094148994412E-05</v>
       </c>
       <c r="CI2">
-        <v>9.802499846176062E-06</v>
+        <v>9.017310334924727E-06</v>
       </c>
       <c r="CJ2">
-        <v>9.290631854208457E-06</v>
+        <v>8.505364899388724E-06</v>
       </c>
       <c r="CK2">
-        <v>7.231138486526681E-06</v>
+        <v>6.44555993864392E-06</v>
       </c>
       <c r="CL2">
-        <v>6.023894405471138E-06</v>
+        <v>5.238133206414579E-06</v>
       </c>
       <c r="CM2">
-        <v>8.679404863800025E-05</v>
+        <v>8.602050763841291E-05</v>
       </c>
       <c r="CN2">
-        <v>0.04966590522062686</v>
+        <v>0.04967263279973512</v>
       </c>
       <c r="CO2">
-        <v>0.003836620739794531</v>
+        <v>0.003836414532491112</v>
       </c>
       <c r="CP2">
-        <v>0.1280006979913724</v>
+        <v>0.128019277309556</v>
       </c>
       <c r="CQ2">
-        <v>0.0235963366297188</v>
+        <v>0.02359911998795384</v>
       </c>
       <c r="CR2">
-        <v>0.001238809780560204</v>
+        <v>0.001238210534907326</v>
       </c>
       <c r="CS2">
-        <v>2.522473960416538E-05</v>
+        <v>2.444188341575954E-05</v>
       </c>
       <c r="CT2">
-        <v>0.02470109961238251</v>
+        <v>0.02470405011681336</v>
       </c>
       <c r="CU2">
-        <v>0.004646782927081208</v>
+        <v>0.004646699294058167</v>
       </c>
       <c r="CV2">
-        <v>0.05618396711834336</v>
+        <v>0.05619168085400041</v>
       </c>
       <c r="CW2">
-        <v>0.02206529065374446</v>
+        <v>0.02206784237088137</v>
       </c>
       <c r="CX2">
-        <v>0.04123318935295572</v>
+        <v>0.04123864109607048</v>
       </c>
       <c r="CY2">
-        <v>0.07044298889458626</v>
+        <v>0.07045285996288676</v>
       </c>
       <c r="CZ2">
-        <v>0.005454666314403646</v>
+        <v>0.005454704910887714</v>
       </c>
       <c r="DA2">
-        <v>0.0148705187666471</v>
+        <v>0.01487198194373563</v>
       </c>
       <c r="DB2">
-        <v>8.665774864013912E-05</v>
+        <v>8.588418701891031E-05</v>
       </c>
       <c r="DC2">
-        <v>0.05664964311103583</v>
+        <v>0.05665742730159757</v>
       </c>
       <c r="DD2">
-        <v>0.01363950778596452</v>
+        <v>0.01364078471604293</v>
       </c>
       <c r="DE2">
-        <v>0.01000667484297208</v>
+        <v>0.01000740214003786</v>
       </c>
       <c r="DF2">
-        <v>0.0006639226895815146</v>
+        <v>0.000663236465824029</v>
       </c>
       <c r="DG2">
-        <v>0.004994767221620529</v>
+        <v>0.004994736237221622</v>
       </c>
       <c r="DH2">
-        <v>0.002021232868282173</v>
+        <v>0.002020752000095479</v>
       </c>
       <c r="DI2">
-        <v>0.0007726339278755833</v>
+        <v>0.0007719641516912034</v>
       </c>
       <c r="DJ2">
-        <v>0.03496226245136109</v>
+        <v>0.03496676542845798</v>
       </c>
       <c r="DK2">
-        <v>0.0337036394711118</v>
+        <v>0.03370795202361409</v>
       </c>
       <c r="DL2">
-        <v>0.01552751275633734</v>
+        <v>0.01552907533397401</v>
       </c>
       <c r="DM2">
-        <v>0.0203543616805929</v>
+        <v>0.02035665454105771</v>
       </c>
       <c r="DN2">
-        <v>0.04175929334469992</v>
+        <v>0.04176482468523259</v>
       </c>
       <c r="DO2">
-        <v>0.0007761149178209585</v>
+        <v>0.0007754456682963564</v>
       </c>
       <c r="DP2">
-        <v>0.06166877903227395</v>
+        <v>0.06167732259791308</v>
       </c>
       <c r="DQ2">
-        <v>0.004125799435256646</v>
+        <v>0.004125636979526744</v>
       </c>
       <c r="DR2">
-        <v>0.01421958777686172</v>
+        <v>0.01422095247070961</v>
       </c>
       <c r="DS2">
-        <v>6.688698895038816E-07</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.005436326914691434</v>
+        <v>0.005436362736498088</v>
       </c>
       <c r="DU2">
-        <v>0.0002056929767722006</v>
+        <v>0.0002049374247022158</v>
       </c>
       <c r="DV2">
-        <v>0.004805345924592988</v>
+        <v>0.004805286281513713</v>
       </c>
       <c r="DW2">
-        <v>0.0030123849527287</v>
+        <v>0.003012054041865863</v>
       </c>
       <c r="DX2">
-        <v>0.02345855663188089</v>
+        <v>0.02346131914455642</v>
       </c>
       <c r="DY2">
-        <v>9.108277857070013E-05</v>
+        <v>9.030988643870187E-05</v>
       </c>
       <c r="DZ2">
-        <v>0.005231698417902528</v>
+        <v>0.005231703280240656</v>
       </c>
       <c r="EA2">
-        <v>0.0005420271914943374</v>
+        <v>0.0005413225254382679</v>
       </c>
       <c r="EB2">
-        <v>0.00184641627102545</v>
+        <v>0.001845908953790722</v>
       </c>
       <c r="EC2">
-        <v>0.002429204261880156</v>
+        <v>0.002428785118124408</v>
       </c>
       <c r="ED2">
-        <v>0.01782815672023491</v>
+        <v>0.01783006737604988</v>
       </c>
       <c r="EE2">
-        <v>0.0001679958773637554</v>
+        <v>0.0001672346218742518</v>
       </c>
       <c r="EF2">
-        <v>0.01728473172876251</v>
+        <v>0.01728656016656198</v>
       </c>
       <c r="EG2">
-        <v>1.48136247675399E-05</v>
+        <v>1.402919341933389E-05</v>
       </c>
       <c r="EH2">
-        <v>0.02768764956551662</v>
+        <v>0.02769105192294315</v>
       </c>
       <c r="EI2">
-        <v>0.007582251281016908</v>
+        <v>0.00758261177254905</v>
       </c>
       <c r="EJ2">
-        <v>0.001558420175544776</v>
+        <v>0.001557869285659153</v>
       </c>
       <c r="EK2">
-        <v>0.002005125968534927</v>
+        <v>0.002004642663439085</v>
       </c>
       <c r="EL2">
-        <v>0.003507937444952333</v>
+        <v>0.003507681509188404</v>
       </c>
       <c r="EM2">
-        <v>0.0007692068379293623</v>
+        <v>0.0007685365432400578</v>
       </c>
       <c r="EN2">
-        <v>0.002134507766504627</v>
+        <v>0.00213404403635443</v>
       </c>
       <c r="EO2">
-        <v>0.007437404883289884</v>
+        <v>0.007437743460144639</v>
       </c>
       <c r="EP2">
-        <v>0.0003051597452113364</v>
+        <v>0.0003044192420633505</v>
       </c>
       <c r="EQ2">
-        <v>0.0002675772958010922</v>
+        <v>0.0002668311065796711</v>
       </c>
       <c r="ER2">
-        <v>0.0004961123922148469</v>
+        <v>0.0004954007794343207</v>
       </c>
       <c r="ES2">
-        <v>0.001617318974620518</v>
+        <v>0.001616776995886297</v>
       </c>
       <c r="ET2">
-        <v>1.165211381715133E-05</v>
+        <v>1.086720414505446E-05</v>
       </c>
       <c r="EU2">
-        <v>0.002480468661075699</v>
+        <v>0.002480057273417359</v>
       </c>
       <c r="EV2">
-        <v>0.003304050248151795</v>
+        <v>0.003303763465075047</v>
       </c>
       <c r="EW2">
-        <v>0.00550890661355249</v>
+        <v>0.005508953416375659</v>
       </c>
       <c r="EX2">
-        <v>0.003818734240075211</v>
+        <v>0.003818525326616327</v>
       </c>
       <c r="EY2">
-        <v>0.002655356358331306</v>
+        <v>0.002654971430478143</v>
       </c>
       <c r="EZ2">
-        <v>1.484111876710846E-06</v>
+        <v>6.976638268171741E-07</v>
       </c>
       <c r="FA2">
-        <v>0.001767227072268112</v>
+        <v>0.001766707774026119</v>
       </c>
       <c r="FB2">
-        <v>0.001590776675037028</v>
+        <v>0.001590230680559636</v>
       </c>
       <c r="FC2">
-        <v>0.001866642670708051</v>
+        <v>0.001866138413646242</v>
       </c>
       <c r="FD2">
-        <v>0.001935265069631207</v>
+        <v>0.001934771194862348</v>
       </c>
       <c r="FE2">
-        <v>0.006923941891347307</v>
+        <v>0.006924202783316583</v>
       </c>
       <c r="FF2">
-        <v>0.008944090859646488</v>
+        <v>0.008944657392029414</v>
       </c>
       <c r="FG2">
-        <v>0.001707915873198842</v>
+        <v>0.001707387601410986</v>
       </c>
       <c r="FH2">
-        <v>0.007633961880205448</v>
+        <v>0.007634330195343263</v>
       </c>
       <c r="FI2">
-        <v>0.002904251654425562</v>
+        <v>0.002903904383429615</v>
       </c>
       <c r="FJ2">
-        <v>0.00124854788040739</v>
+        <v>0.001247950108089852</v>
       </c>
       <c r="FK2">
-        <v>0.001194505381255443</v>
+        <v>0.001193899432525147</v>
       </c>
       <c r="FL2">
-        <v>2.016412268357819E-05</v>
+        <v>1.93805008441866E-05</v>
       </c>
       <c r="FM2">
-        <v>0.0002657735558293971</v>
+        <v>0.0002650270937093731</v>
       </c>
       <c r="FN2">
-        <v>0.0003514261544853093</v>
+        <v>0.0003506926512589581</v>
       </c>
       <c r="FO2">
-        <v>7.121987888239507E-05</v>
+        <v>7.044398157356466E-05</v>
       </c>
       <c r="FP2">
-        <v>0.0003217808749505124</v>
+        <v>0.0003210428865126041</v>
       </c>
       <c r="FQ2">
-        <v>0.000203717586803199</v>
+        <v>0.0002029617358646571</v>
       </c>
       <c r="FR2">
-        <v>0.0003921258238466372</v>
+        <v>0.0003913984783165619</v>
       </c>
       <c r="FS2">
-        <v>0.003142586150685541</v>
+        <v>0.003142274938740272</v>
       </c>
       <c r="FT2">
-        <v>0.0002443756661651795</v>
+        <v>0.000243625966630514</v>
       </c>
       <c r="FU2">
-        <v>0.003926994238376361</v>
+        <v>0.003926801704219786</v>
       </c>
       <c r="FV2">
-        <v>0.004589605527978454</v>
+        <v>0.004589513244244903</v>
       </c>
       <c r="FW2">
-        <v>9.122251356850738E-05</v>
+        <v>9.044964257785226E-05</v>
       </c>
       <c r="FX2">
-        <v>0.001356687878710423</v>
+        <v>0.001356106467539677</v>
       </c>
       <c r="FY2">
-        <v>0.003789780140529568</v>
+        <v>0.003789566846431879</v>
       </c>
       <c r="FZ2">
-        <v>0.0004123551435291923</v>
+        <v>0.0004116308586138205</v>
       </c>
       <c r="GA2">
-        <v>0.002299604663913874</v>
+        <v>0.002299165912260218</v>
       </c>
       <c r="GB2">
-        <v>0.003572786943934694</v>
+        <v>0.00357254081963913</v>
       </c>
       <c r="GC2">
-        <v>0.0001665672973861731</v>
+        <v>0.0001658058257582649</v>
       </c>
       <c r="GD2">
-        <v>0.001658668673971645</v>
+        <v>0.001658132951280623</v>
       </c>
       <c r="GE2">
-        <v>0.003371901247087056</v>
+        <v>0.003371624729593543</v>
       </c>
       <c r="GF2">
-        <v>0.001303317279547932</v>
+        <v>0.001302727793620195</v>
       </c>
       <c r="GG2">
-        <v>5.512770713491853E-05</v>
+        <v>5.434937514522716E-05</v>
       </c>
       <c r="GH2">
-        <v>0.0001846640771021927</v>
+        <v>0.0001839053434442683</v>
       </c>
       <c r="GI2">
-        <v>0.0003553036644244622</v>
+        <v>0.000354570747849769</v>
       </c>
       <c r="GJ2">
-        <v>2.536361660198608E-05</v>
+        <v>2.458078142511143E-05</v>
       </c>
       <c r="GK2">
-        <v>0.001919505369878513</v>
+        <v>0.001919009110730469</v>
       </c>
       <c r="GL2">
-        <v>0.003711094941764321</v>
+        <v>0.00371086974291254</v>
       </c>
       <c r="GM2">
-        <v>0.0003547833444326272</v>
+        <v>0.000354050349135612</v>
       </c>
       <c r="GN2">
-        <v>1.840979971110758E-05</v>
+        <v>1.762591244970633E-05</v>
       </c>
       <c r="GO2">
-        <v>0.0001379761678348342</v>
+        <v>0.0001372103704840214</v>
       </c>
       <c r="GP2">
-        <v>4.34914993175176E-07</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0006589514596595247</v>
+        <v>0.0006582644837749467</v>
       </c>
       <c r="GR2">
-        <v>0.002414894762104706</v>
+        <v>0.002414473453379196</v>
       </c>
       <c r="GS2">
-        <v>0.001897790670219267</v>
+        <v>0.001897291125724503</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.648615503197638E-06</v>
+        <v>4.731021697718321E-07</v>
       </c>
       <c r="C3">
-        <v>6.530666888081605E-08</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.072303430211467E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.385473839157747E-08</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.492078174429718E-05</v>
+        <v>9.753765894969543E-06</v>
       </c>
       <c r="G3">
-        <v>8.623374852218112E-08</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.072303430211467E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.94307564956345E-05</v>
+        <v>2.427703832416426E-05</v>
       </c>
       <c r="J3">
-        <v>9.617700435177997E-05</v>
+        <v>9.108445583204183E-05</v>
       </c>
       <c r="K3">
-        <v>4.482503523181719E-05</v>
+        <v>3.96854251592919E-05</v>
       </c>
       <c r="L3">
-        <v>1.256850178460905E-05</v>
+        <v>7.399330186448601E-06</v>
       </c>
       <c r="M3">
-        <v>3.812313634667006E-05</v>
+        <v>3.297738431360144E-05</v>
       </c>
       <c r="N3">
-        <v>1.715759770596406E-05</v>
+        <v>1.199263178839676E-05</v>
       </c>
       <c r="O3">
-        <v>4.297372626354375E-05</v>
+        <v>3.783241955744766E-05</v>
       </c>
       <c r="P3">
-        <v>1.822595568765522E-05</v>
+        <v>1.306196886760673E-05</v>
       </c>
       <c r="Q3">
-        <v>4.136116229117884E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.175946511297937E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2.027999465245442E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>5.40969990729202E-06</v>
+        <v>2.339676194790496E-07</v>
       </c>
       <c r="U3">
-        <v>7.242384375884646E-06</v>
+        <v>2.068331653204987E-06</v>
       </c>
       <c r="V3">
-        <v>3.746100535801724E-05</v>
+        <v>3.231464651447944E-05</v>
       </c>
       <c r="W3">
-        <v>1.100646681137821E-07</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>7.122564877938035E-06</v>
+        <v>1.948402346584549E-06</v>
       </c>
       <c r="Y3">
-        <v>1.383824676284897E-05</v>
+        <v>8.670238823479872E-06</v>
       </c>
       <c r="Z3">
-        <v>4.095961729806026E-05</v>
+        <v>3.581646476020693E-05</v>
       </c>
       <c r="AA3">
-        <v>5.573999904476353E-06</v>
+        <v>3.984181895259795E-07</v>
       </c>
       <c r="AB3">
-        <v>8.390988356200605E-07</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.5747640730127E-08</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>9.283029840913366E-06</v>
+        <v>4.110847269386976E-06</v>
       </c>
       <c r="AE3">
-        <v>1.609703572413929E-05</v>
+        <v>1.093109785370345E-05</v>
       </c>
       <c r="AF3">
-        <v>3.932046932615093E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.8924079332944E-07</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.479935674637808E-05</v>
+        <v>9.632229617014896E-06</v>
       </c>
       <c r="AI3">
-        <v>9.205793342236998E-06</v>
+        <v>4.0335399872602E-06</v>
       </c>
       <c r="AJ3">
-        <v>4.725167419023101E-07</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.342117525587565E-07</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>9.199628842342641E-08</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.492078174429718E-05</v>
+        <v>9.753765894969543E-06</v>
       </c>
       <c r="AN3">
-        <v>1.14156378043661E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>9.457208837928399E-06</v>
+        <v>4.285185892881828E-06</v>
       </c>
       <c r="AP3">
-        <v>3.907002133044294E-05</v>
+        <v>3.392513707086793E-05</v>
       </c>
       <c r="AQ3">
-        <v>6.268490892574609E-06</v>
+        <v>1.093545644440537E-06</v>
       </c>
       <c r="AR3">
-        <v>2.531367256619046E-05</v>
+        <v>2.015618128989104E-05</v>
       </c>
       <c r="AS3">
-        <v>4.56794432171749E-05</v>
+        <v>4.054061616752475E-05</v>
       </c>
       <c r="AT3">
-        <v>5.233900910304752E-06</v>
+        <v>5.800751136170295E-08</v>
       </c>
       <c r="AU3">
-        <v>2.989134548774123E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.367943259419702E-05</v>
+        <v>1.852044361738042E-05</v>
       </c>
       <c r="AW3">
-        <v>1.320681327367008E-05</v>
+        <v>8.038226656579524E-06</v>
       </c>
       <c r="AX3">
-        <v>7.535143470867527E-06</v>
+        <v>2.361359047492425E-06</v>
       </c>
       <c r="AY3">
-        <v>6.253236192836035E-06</v>
+        <v>1.078276964520301E-06</v>
       </c>
       <c r="AZ3">
-        <v>3.966932932017239E-05</v>
+        <v>3.452499429687941E-05</v>
       </c>
       <c r="BA3">
-        <v>1.398902976026495E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>3.247461544347079E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>4.68474291971587E-05</v>
+        <v>4.170967254918533E-05</v>
       </c>
       <c r="BD3">
-        <v>1.056268581898344E-05</v>
+        <v>5.391675989192049E-06</v>
       </c>
       <c r="BE3">
-        <v>5.784491900869075E-07</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>8.304128857689147E-06</v>
+        <v>3.131049171581079E-06</v>
       </c>
       <c r="BG3">
-        <v>7.106303878216707E-06</v>
+        <v>1.932126444457141E-06</v>
       </c>
       <c r="BH3">
-        <v>1.483056374584328E-06</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>4.461438923542711E-05</v>
+        <v>3.947458611621153E-05</v>
       </c>
       <c r="BJ3">
-        <v>1.650729171710858E-05</v>
+        <v>1.134172982610255E-05</v>
       </c>
       <c r="BK3">
-        <v>9.199628842342641E-08</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1.100646681137821E-07</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>2.679616954078437E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.750105252870454E-05</v>
+        <v>2.234556587850487E-05</v>
       </c>
       <c r="BO3">
-        <v>1.619911572238991E-05</v>
+        <v>1.103327140324934E-05</v>
       </c>
       <c r="BP3">
-        <v>2.289133060770301E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.429109475508835E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.424181675593285E-05</v>
+        <v>9.074178668603666E-06</v>
       </c>
       <c r="BS3">
-        <v>2.793436352127873E-05</v>
+        <v>2.277927397928152E-05</v>
       </c>
       <c r="BT3">
-        <v>7.816649366043258E-06</v>
+        <v>2.643122928968832E-06</v>
       </c>
       <c r="BU3">
-        <v>1.386093476246016E-05</v>
+        <v>8.692947615526283E-06</v>
       </c>
       <c r="BV3">
-        <v>2.355597759631271E-05</v>
+        <v>1.839687547906549E-05</v>
       </c>
       <c r="BW3">
-        <v>2.739990253043798E-05</v>
+        <v>2.224432318124225E-05</v>
       </c>
       <c r="BX3">
-        <v>1.414611275757296E-05</v>
+        <v>8.978386962238656E-06</v>
       </c>
       <c r="BY3">
-        <v>1.779473969504512E-05</v>
+        <v>1.263035768675854E-05</v>
       </c>
       <c r="BZ3">
-        <v>3.122343946491265E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>5.897627898930222E-08</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>9.851840831165449E-06</v>
+        <v>4.680179546921755E-06</v>
       </c>
       <c r="CC3">
-        <v>3.444458240971076E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>1.192493879563802E-05</v>
+        <v>6.755177403666423E-06</v>
       </c>
       <c r="CE3">
-        <v>5.219962910543612E-06</v>
+        <v>4.405673810963865E-08</v>
       </c>
       <c r="CF3">
-        <v>1.142501130420546E-05</v>
+        <v>6.254791753288234E-06</v>
       </c>
       <c r="CG3">
-        <v>6.396337890383649E-06</v>
+        <v>1.221509807732015E-06</v>
       </c>
       <c r="CH3">
-        <v>3.441596641020117E-05</v>
+        <v>2.9266816938307E-05</v>
       </c>
       <c r="CI3">
-        <v>2.528300956671594E-05</v>
+        <v>2.012549018928635E-05</v>
       </c>
       <c r="CJ3">
-        <v>6.378619890687289E-07</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>5.219402910553209E-07</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.96360336634902E-05</v>
+        <v>1.44733391105199E-05</v>
       </c>
       <c r="CM3">
-        <v>1.192493879563802E-05</v>
+        <v>6.755177403666423E-06</v>
       </c>
       <c r="CN3">
-        <v>0.007097508178367441</v>
+        <v>0.007098832005349418</v>
       </c>
       <c r="CO3">
-        <v>0.09380712839239339</v>
+        <v>0.09388791731952219</v>
       </c>
       <c r="CP3">
-        <v>0.06772487483937438</v>
+        <v>0.06778176066456905</v>
       </c>
       <c r="CQ3">
-        <v>0.1332257177168628</v>
+        <v>0.1333426318414101</v>
       </c>
       <c r="CR3">
-        <v>0.0005099252312612272</v>
+        <v>0.0005052118626318609</v>
       </c>
       <c r="CS3">
-        <v>0.002560437156120865</v>
+        <v>0.002557602980769695</v>
       </c>
       <c r="CT3">
-        <v>0.003833800234298782</v>
+        <v>0.003832133033549519</v>
       </c>
       <c r="CU3">
-        <v>0.01471287174786021</v>
+        <v>0.01472117468081924</v>
       </c>
       <c r="CV3">
-        <v>0.01446813675205432</v>
+        <v>0.01447621539743254</v>
       </c>
       <c r="CW3">
-        <v>0.05187002111108473</v>
+        <v>0.05191237674301802</v>
       </c>
       <c r="CX3">
-        <v>0.006093541495572781</v>
+        <v>0.006093945236492849</v>
       </c>
       <c r="CY3">
-        <v>0.0833481485716327</v>
+        <v>0.08341935235841792</v>
       </c>
       <c r="CZ3">
-        <v>0.008810009849019682</v>
+        <v>0.008812903099514576</v>
       </c>
       <c r="DA3">
-        <v>0.01964431366334831</v>
+        <v>0.01965713602015806</v>
       </c>
       <c r="DB3">
-        <v>0.005184371911153548</v>
+        <v>0.005183942442887622</v>
       </c>
       <c r="DC3">
-        <v>0.03295299943527256</v>
+        <v>0.03297801854770273</v>
       </c>
       <c r="DD3">
-        <v>0.03167446645718323</v>
+        <v>0.03169831385705262</v>
       </c>
       <c r="DE3">
-        <v>0.001825503168715694</v>
+        <v>0.001821995462529465</v>
       </c>
       <c r="DF3">
-        <v>0.004117253929441134</v>
+        <v>0.00411584650005537</v>
       </c>
       <c r="DG3">
-        <v>0.002417547158569622</v>
+        <v>0.002414582031566982</v>
       </c>
       <c r="DH3">
-        <v>0.0003377276942122386</v>
+        <v>0.0003328565150136083</v>
       </c>
       <c r="DI3">
-        <v>0.003401595341705633</v>
+        <v>0.003399532046440109</v>
       </c>
       <c r="DJ3">
-        <v>0.01797330769198494</v>
+        <v>0.01798459865404827</v>
       </c>
       <c r="DK3">
-        <v>0.04078518530104956</v>
+        <v>0.04081738222642201</v>
       </c>
       <c r="DL3">
-        <v>0.000691181158154979</v>
+        <v>0.0006866339016634271</v>
       </c>
       <c r="DM3">
-        <v>0.03741429335881775</v>
+        <v>0.03744340102759892</v>
       </c>
       <c r="DN3">
-        <v>0.01442539075278687</v>
+        <v>0.0144334302235602</v>
       </c>
       <c r="DO3">
-        <v>0.018109789689646</v>
+        <v>0.01812120573074423</v>
       </c>
       <c r="DP3">
-        <v>0.03844330434118322</v>
+        <v>0.03847335504789448</v>
       </c>
       <c r="DQ3">
-        <v>0.02790045352185986</v>
+        <v>0.02792084222458445</v>
       </c>
       <c r="DR3">
-        <v>0.009456253837944767</v>
+        <v>0.009459739339255343</v>
       </c>
       <c r="DS3">
-        <v>0.002562031356093544</v>
+        <v>0.002559198641748203</v>
       </c>
       <c r="DT3">
-        <v>0.004104224429664425</v>
+        <v>0.004102805059383267</v>
       </c>
       <c r="DU3">
-        <v>0.0001195602679510526</v>
+        <v>0.000114489149041767</v>
       </c>
       <c r="DV3">
-        <v>0.004545515322101863</v>
+        <v>0.004544500373208723</v>
       </c>
       <c r="DW3">
-        <v>0.000353786563937032</v>
+        <v>0.0003489301019022847</v>
       </c>
       <c r="DX3">
-        <v>0.01304955777636502</v>
+        <v>0.013056336363917</v>
       </c>
       <c r="DY3">
-        <v>0.004901185516006615</v>
+        <v>0.004900496521344482</v>
       </c>
       <c r="DZ3">
-        <v>0.00289766495034167</v>
+        <v>0.002895139827669706</v>
       </c>
       <c r="EA3">
-        <v>2.833859951435119E-05</v>
+        <v>2.318388043475011E-05</v>
       </c>
       <c r="EB3">
-        <v>0.0008392791856169698</v>
+        <v>0.0008348676536800261</v>
       </c>
       <c r="EC3">
-        <v>0.001385072476263513</v>
+        <v>0.001381161137020225</v>
       </c>
       <c r="ED3">
-        <v>0.01254166378506898</v>
+        <v>0.01254797691277023</v>
       </c>
       <c r="EE3">
-        <v>0.002111871963808088</v>
+        <v>0.002108626700531017</v>
       </c>
       <c r="EF3">
-        <v>0.005722601301929716</v>
+        <v>0.005722665094415417</v>
       </c>
       <c r="EG3">
-        <v>0.0009501631837167106</v>
+        <v>0.000945853271507681</v>
       </c>
       <c r="EH3">
-        <v>0.01413699975772913</v>
+        <v>0.01414477493234654</v>
       </c>
       <c r="EI3">
-        <v>0.018315480686121</v>
+        <v>0.01832708523289592</v>
       </c>
       <c r="EJ3">
-        <v>0.000773815586738843</v>
+        <v>0.0007693440606348395</v>
       </c>
       <c r="EK3">
-        <v>0.004047462630637172</v>
+        <v>0.004045991240960322</v>
       </c>
       <c r="EL3">
-        <v>0.0001697832170903637</v>
+        <v>0.0001647581250426094</v>
       </c>
       <c r="EM3">
-        <v>0.00115880448014115</v>
+        <v>0.001154685777413538</v>
       </c>
       <c r="EN3">
-        <v>0.0001212326479223924</v>
+        <v>0.0001161630616670566</v>
       </c>
       <c r="EO3">
-        <v>0.008807625849060538</v>
+        <v>0.00881051691473678</v>
       </c>
       <c r="EP3">
-        <v>0.00416465932862873</v>
+        <v>0.004163295343958612</v>
       </c>
       <c r="EQ3">
-        <v>2.057453064740684E-05</v>
+        <v>1.541269618074103E-05</v>
       </c>
       <c r="ER3">
-        <v>0.0006158818894454098</v>
+        <v>0.0006112656248793878</v>
       </c>
       <c r="ES3">
-        <v>1.029384682359063E-06</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0001692011571003387</v>
+        <v>0.0001641755316232454</v>
       </c>
       <c r="EU3">
-        <v>0.001082919481441618</v>
+        <v>0.001078731233846824</v>
       </c>
       <c r="EV3">
-        <v>0.005945726698105936</v>
+        <v>0.005945994974037748</v>
       </c>
       <c r="EW3">
-        <v>0.0003742569435862237</v>
+        <v>0.000369419241647125</v>
       </c>
       <c r="EX3">
-        <v>0.004834262917153492</v>
+        <v>0.004833512591222617</v>
       </c>
       <c r="EY3">
-        <v>1.492078174429718E-05</v>
+        <v>9.753765894969543E-06</v>
       </c>
       <c r="EZ3">
-        <v>0.0002630278754923964</v>
+        <v>0.0002580882375857142</v>
       </c>
       <c r="FA3">
-        <v>0.0007368167873729048</v>
+        <v>0.0007323113536899075</v>
       </c>
       <c r="FB3">
-        <v>0.001517620573991988</v>
+        <v>0.001513830708557884</v>
       </c>
       <c r="FC3">
-        <v>0.0002338126759930678</v>
+        <v>0.0002288462637936566</v>
       </c>
       <c r="FD3">
-        <v>0.003450662940864744</v>
+        <v>0.003448644613639346</v>
       </c>
       <c r="FE3">
-        <v>0.00278393915229063</v>
+        <v>0.002781309805520936</v>
       </c>
       <c r="FF3">
-        <v>0.01697276170913166</v>
+        <v>0.01698313572003625</v>
       </c>
       <c r="FG3">
-        <v>0.001505768474195102</v>
+        <v>0.001501967746894748</v>
       </c>
       <c r="FH3">
-        <v>0.004593182921284966</v>
+        <v>0.004592211657400865</v>
       </c>
       <c r="FI3">
-        <v>0.004918985415701571</v>
+        <v>0.004918312733771617</v>
       </c>
       <c r="FJ3">
-        <v>0.0004423431724194054</v>
+        <v>0.0004375678681586668</v>
       </c>
       <c r="FK3">
-        <v>0.0008334021357176868</v>
+        <v>0.0008289852177537064</v>
       </c>
       <c r="FL3">
-        <v>0.0001065993331731688</v>
+        <v>0.0001015163362049368</v>
       </c>
       <c r="FM3">
-        <v>0.000110100148113174</v>
+        <v>0.0001050203594695676</v>
       </c>
       <c r="FN3">
-        <v>0.0008284522858025143</v>
+        <v>0.0008240308315446574</v>
       </c>
       <c r="FO3">
-        <v>6.487009388829779E-05</v>
+        <v>5.974885412566031E-05</v>
       </c>
       <c r="FP3">
-        <v>0.0002646783954641108</v>
+        <v>0.0002597402701777644</v>
       </c>
       <c r="FQ3">
-        <v>0.0002573895255890228</v>
+        <v>0.0002524447204121043</v>
       </c>
       <c r="FR3">
-        <v>2.803649751952842E-05</v>
+        <v>2.288150157831483E-05</v>
       </c>
       <c r="FS3">
-        <v>0.003100408446867182</v>
+        <v>0.003098069128633247</v>
       </c>
       <c r="FT3">
-        <v>0.003048294447760278</v>
+        <v>0.00304590736961057</v>
       </c>
       <c r="FU3">
-        <v>0.0002002467965682984</v>
+        <v>0.0001952496228920935</v>
       </c>
       <c r="FV3">
-        <v>0.003946671232364471</v>
+        <v>0.003945107472330815</v>
       </c>
       <c r="FW3">
-        <v>0.0002884312950570488</v>
+        <v>0.0002835149381343542</v>
       </c>
       <c r="FX3">
-        <v>0.0005991273897325378</v>
+        <v>0.000594495770491979</v>
       </c>
       <c r="FY3">
-        <v>0.00423915392735209</v>
+        <v>0.004237858213315995</v>
       </c>
       <c r="FZ3">
-        <v>0.001213923379196557</v>
+        <v>0.001209855190227657</v>
       </c>
       <c r="GA3">
-        <v>0.001148243980322129</v>
+        <v>0.001144115599416091</v>
       </c>
       <c r="GB3">
-        <v>0.008929630846969695</v>
+        <v>0.008932633724222937</v>
       </c>
       <c r="GC3">
-        <v>0.001076242281556048</v>
+        <v>0.001072047914636128</v>
       </c>
       <c r="GD3">
-        <v>0.0001362843776644455</v>
+        <v>0.0001312285855787575</v>
       </c>
       <c r="GE3">
-        <v>0.002686954953952683</v>
+        <v>0.00268423672593758</v>
       </c>
       <c r="GF3">
-        <v>0.003347351342635232</v>
+        <v>0.003345238335413781</v>
       </c>
       <c r="GG3">
-        <v>0.0001204619079356008</v>
+        <v>0.0001153916153349934</v>
       </c>
       <c r="GH3">
-        <v>4.136116229117884E-06</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>4.93132291549014E-05</v>
+        <v>4.4177732291253E-05</v>
       </c>
       <c r="GJ3">
-        <v>0.0001906586767326135</v>
+        <v>0.0001856527160163883</v>
       </c>
       <c r="GK3">
-        <v>0.0002952705749398416</v>
+        <v>0.0002903604858806145</v>
       </c>
       <c r="GL3">
-        <v>0.002703782853664297</v>
+        <v>0.002701080047591218</v>
       </c>
       <c r="GM3">
-        <v>0.0009961217829291015</v>
+        <v>0.0009918539895147338</v>
       </c>
       <c r="GN3">
-        <v>8.248587858640973E-06</v>
+        <v>3.075457271940321E-06</v>
       </c>
       <c r="GO3">
-        <v>0.0002828500951526959</v>
+        <v>0.0002779286233349268</v>
       </c>
       <c r="GP3">
-        <v>0.0003194213145259617</v>
+        <v>0.0003145333584311634</v>
       </c>
       <c r="GQ3">
-        <v>7.369547373705408E-05</v>
+        <v>6.858232200077152E-05</v>
       </c>
       <c r="GR3">
-        <v>0.001917811467133773</v>
+        <v>0.001914388356960767</v>
       </c>
       <c r="GS3">
-        <v>0.002245557461517072</v>
+        <v>0.002242434714420298</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>7.768340062672662E-06</v>
+        <v>1.299976486625167E-06</v>
       </c>
       <c r="C4">
-        <v>1.036547008362554E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.233455718018858E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.493367728183454E-08</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.983530616002536E-05</v>
+        <v>1.338157902385659E-05</v>
       </c>
       <c r="G4">
-        <v>4.924595039730171E-05</v>
+        <v>4.282789644714346E-05</v>
       </c>
       <c r="H4">
-        <v>1.264750410203631E-05</v>
+        <v>6.185058632540572E-06</v>
       </c>
       <c r="I4">
-        <v>1.553078812529779E-05</v>
+        <v>9.071839890560095E-06</v>
       </c>
       <c r="J4">
-        <v>6.023414248595119E-05</v>
+        <v>5.382941649342403E-05</v>
       </c>
       <c r="K4">
-        <v>6.614286053362097E-05</v>
+        <v>5.974530142925504E-05</v>
       </c>
       <c r="L4">
-        <v>1.805039614562524E-05</v>
+        <v>1.159450403046308E-05</v>
       </c>
       <c r="M4">
-        <v>6.275773650631079E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.303813618586484E-05</v>
+        <v>1.658829387283528E-05</v>
       </c>
       <c r="O4">
-        <v>8.877205071618656E-06</v>
+        <v>2.410186476232093E-06</v>
       </c>
       <c r="P4">
-        <v>4.080670032921635E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.260841042442903E-07</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.740274614040019E-05</v>
+        <v>1.09460684681819E-05</v>
       </c>
       <c r="S4">
-        <v>6.469938452197543E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.167842709421808E-05</v>
+        <v>5.214806197755175E-06</v>
       </c>
       <c r="U4">
-        <v>1.906195815378622E-05</v>
+        <v>1.260729299711525E-05</v>
       </c>
       <c r="V4">
-        <v>2.232506418011199E-05</v>
+        <v>1.587435695742268E-05</v>
       </c>
       <c r="W4">
-        <v>2.148513217333567E-05</v>
+        <v>1.503340616811062E-05</v>
       </c>
       <c r="X4">
-        <v>2.90687572345181E-05</v>
+        <v>2.262622967000924E-05</v>
       </c>
       <c r="Y4">
-        <v>4.981614640190188E-05</v>
+        <v>4.339878406216774E-05</v>
       </c>
       <c r="Z4">
-        <v>2.783798122458857E-05</v>
+        <v>2.139396080935583E-05</v>
       </c>
       <c r="AA4">
-        <v>4.003541532299385E-05</v>
+        <v>3.360618959678366E-05</v>
       </c>
       <c r="AB4">
-        <v>1.626265513120227E-05</v>
+        <v>9.804594603229038E-06</v>
       </c>
       <c r="AC4">
-        <v>9.991828080611102E-06</v>
+        <v>3.526161449962564E-06</v>
       </c>
       <c r="AD4">
-        <v>7.769190062679519E-05</v>
+        <v>7.130834975197238E-05</v>
       </c>
       <c r="AE4">
-        <v>3.425808027638403E-05</v>
+        <v>2.782184702099154E-05</v>
       </c>
       <c r="AF4">
-        <v>2.00643351618731E-05</v>
+        <v>1.361088582288955E-05</v>
       </c>
       <c r="AG4">
-        <v>4.661402037606807E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>7.708430562189331E-06</v>
+        <v>1.239994319839891E-06</v>
       </c>
       <c r="AI4">
-        <v>7.555441260955057E-06</v>
+        <v>1.086819452599089E-06</v>
       </c>
       <c r="AJ4">
-        <v>4.942603539875458E-05</v>
+        <v>4.300819987991333E-05</v>
       </c>
       <c r="AK4">
-        <v>4.098841633068237E-05</v>
+        <v>3.456034653230365E-05</v>
       </c>
       <c r="AL4">
-        <v>3.115631325135989E-05</v>
+        <v>2.471631775563182E-05</v>
       </c>
       <c r="AM4">
-        <v>9.263259074733223E-06</v>
+        <v>2.796708737578344E-06</v>
       </c>
       <c r="AN4">
-        <v>8.224015066348912E-05</v>
+        <v>7.586211651819704E-05</v>
       </c>
       <c r="AO4">
-        <v>0.0001191288509610962</v>
+        <v>0.0001127955603942442</v>
       </c>
       <c r="AP4">
-        <v>1.553078812529779E-05</v>
+        <v>9.071839890560095E-06</v>
       </c>
       <c r="AQ4">
-        <v>3.475181828036735E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>3.652121829464235E-05</v>
+        <v>3.008773007750341E-05</v>
       </c>
       <c r="AS4">
-        <v>1.63496221319039E-05</v>
+        <v>9.89166708920898E-06</v>
       </c>
       <c r="AT4">
-        <v>2.53496802045137E-08</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>6.66706105378787E-06</v>
+        <v>1.973616984008783E-07</v>
       </c>
       <c r="AV4">
-        <v>1.727250113934941E-07</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.435150027713771E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>2.076904016755845E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>2.119986017103418E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>7.081092557128153E-06</v>
+        <v>6.118953948489946E-07</v>
       </c>
       <c r="BA4">
-        <v>2.203669017778548E-08</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1.176620709492627E-05</v>
+        <v>5.302692669857454E-06</v>
       </c>
       <c r="BC4">
-        <v>4.453528535929746E-05</v>
+        <v>3.811151768084485E-05</v>
       </c>
       <c r="BD4">
-        <v>1.906195815378622E-05</v>
+        <v>1.260729299711525E-05</v>
       </c>
       <c r="BE4">
-        <v>2.810918722677658E-05</v>
+        <v>2.166549576666924E-05</v>
       </c>
       <c r="BF4">
-        <v>1.275349110289138E-05</v>
+        <v>6.291174188688949E-06</v>
       </c>
       <c r="BG4">
-        <v>3.161017225502149E-05</v>
+        <v>2.517072726055173E-05</v>
       </c>
       <c r="BH4">
-        <v>0.0001155628569323268</v>
+        <v>0.0001092252410481756</v>
       </c>
       <c r="BI4">
-        <v>2.597635820956955E-05</v>
+        <v>1.953007976749589E-05</v>
       </c>
       <c r="BJ4">
-        <v>7.081092557128153E-06</v>
+        <v>6.118953948489946E-07</v>
       </c>
       <c r="BK4">
-        <v>3.292081226559534E-05</v>
+        <v>2.648295699165372E-05</v>
       </c>
       <c r="BL4">
-        <v>1.0818693087282E-05</v>
+        <v>4.35402938975355E-06</v>
       </c>
       <c r="BM4">
-        <v>6.733426054323282E-06</v>
+        <v>2.638071953371721E-07</v>
       </c>
       <c r="BN4">
-        <v>5.290186042679651E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.395622611259469E-05</v>
+        <v>7.495368037218649E-06</v>
       </c>
       <c r="BP4">
-        <v>3.621199729214764E-05</v>
+        <v>2.977813401017669E-05</v>
       </c>
       <c r="BQ4">
-        <v>1.405217111336874E-05</v>
+        <v>7.591429412997337E-06</v>
       </c>
       <c r="BR4">
-        <v>4.885449539414357E-06</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>7.541283460840837E-05</v>
+        <v>6.902651937571064E-05</v>
       </c>
       <c r="BT4">
-        <v>0.0001425674411501918</v>
+        <v>0.0001362625800587669</v>
       </c>
       <c r="BU4">
-        <v>9.427634076059353E-05</v>
+        <v>8.791290572590672E-05</v>
       </c>
       <c r="BV4">
-        <v>3.498824028227474E-05</v>
+        <v>2.855289266316745E-05</v>
       </c>
       <c r="BW4">
-        <v>1.926848415545241E-05</v>
+        <v>1.281406950130067E-05</v>
       </c>
       <c r="BX4">
-        <v>5.574447044972984E-05</v>
+        <v>4.933429877895156E-05</v>
       </c>
       <c r="BY4">
-        <v>7.320279059057838E-05</v>
+        <v>6.681379471917367E-05</v>
       </c>
       <c r="BZ4">
-        <v>3.714361429966365E-05</v>
+        <v>3.071088100813193E-05</v>
       </c>
       <c r="CA4">
-        <v>5.17970474178832E-05</v>
+        <v>4.538208778139629E-05</v>
       </c>
       <c r="CB4">
-        <v>2.569487720729864E-05</v>
+        <v>1.924825734719717E-05</v>
       </c>
       <c r="CC4">
-        <v>2.143193717290651E-08</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>1.458246961764704E-08</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>1.839503314840567E-08</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>8.068454065093892E-06</v>
+        <v>1.60045450768354E-06</v>
       </c>
       <c r="CG4">
-        <v>2.136645517237822E-05</v>
+        <v>1.491458521972052E-05</v>
       </c>
       <c r="CH4">
-        <v>2.355291019001789E-05</v>
+        <v>1.710369226415426E-05</v>
       </c>
       <c r="CI4">
-        <v>6.288123450730714E-05</v>
+        <v>5.647971926410268E-05</v>
       </c>
       <c r="CJ4">
-        <v>3.85887033113222E-05</v>
+        <v>3.215772281815486E-05</v>
       </c>
       <c r="CK4">
-        <v>2.305782818602371E-05</v>
+        <v>1.660800975810115E-05</v>
       </c>
       <c r="CL4">
-        <v>8.795346070958241E-05</v>
+        <v>8.158235643533858E-05</v>
       </c>
       <c r="CM4">
-        <v>1.141705509210941E-05</v>
+        <v>4.953117168519387E-06</v>
       </c>
       <c r="CN4">
-        <v>0.04333365734960308</v>
+        <v>0.04337974045294626</v>
       </c>
       <c r="CO4">
-        <v>0.01905663115374324</v>
+        <v>0.01907326781367362</v>
       </c>
       <c r="CP4">
-        <v>0.1231636509936478</v>
+        <v>0.1233065626529895</v>
       </c>
       <c r="CQ4">
-        <v>0.05617315745318836</v>
+        <v>0.05623481402958375</v>
       </c>
       <c r="CR4">
-        <v>0.002765944022314816</v>
+        <v>0.002762821145269728</v>
       </c>
       <c r="CS4">
-        <v>0.001176427509491068</v>
+        <v>0.001171376652978027</v>
       </c>
       <c r="CT4">
-        <v>0.007444477660059836</v>
+        <v>0.007447029538024169</v>
       </c>
       <c r="CU4">
-        <v>0.01113243408981317</v>
+        <v>0.01113945921748451</v>
       </c>
       <c r="CV4">
-        <v>0.04359471435170922</v>
+        <v>0.04364111410010513</v>
       </c>
       <c r="CW4">
-        <v>0.0281215352268762</v>
+        <v>0.02814916702198823</v>
       </c>
       <c r="CX4">
-        <v>0.02477567819988282</v>
+        <v>0.02479925168946691</v>
       </c>
       <c r="CY4">
-        <v>0.07845406063294408</v>
+        <v>0.07854274248621547</v>
       </c>
       <c r="CZ4">
-        <v>0.005466590044102826</v>
+        <v>0.005466742873876895</v>
       </c>
       <c r="DA4">
-        <v>0.01577491012726729</v>
+        <v>0.01578756627443951</v>
       </c>
       <c r="DB4">
-        <v>0.001395986511262405</v>
+        <v>0.001391201965444475</v>
       </c>
       <c r="DC4">
-        <v>0.04902703339553555</v>
+        <v>0.04908002219128982</v>
       </c>
       <c r="DD4">
-        <v>0.02618685421126777</v>
+        <v>0.02621213936496711</v>
       </c>
       <c r="DE4">
-        <v>0.007750625062529742</v>
+        <v>0.007753548277250484</v>
       </c>
       <c r="DF4">
-        <v>0.0006577200053062898</v>
+        <v>0.0006520399905492966</v>
       </c>
       <c r="DG4">
-        <v>0.004104128633110891</v>
+        <v>0.004102628886390737</v>
       </c>
       <c r="DH4">
-        <v>0.001798922914513176</v>
+        <v>0.001794627104173041</v>
       </c>
       <c r="DI4">
-        <v>0.00178481401439935</v>
+        <v>0.001780501090887055</v>
       </c>
       <c r="DJ4">
-        <v>0.03113472625118573</v>
+        <v>0.03116601284974335</v>
       </c>
       <c r="DK4">
-        <v>0.03643704629396328</v>
+        <v>0.03647476425960171</v>
       </c>
       <c r="DL4">
-        <v>0.01014628108185718</v>
+        <v>0.01015211007049111</v>
       </c>
       <c r="DM4">
-        <v>0.0270070302178847</v>
+        <v>0.02703331019138499</v>
       </c>
       <c r="DN4">
-        <v>0.03258533026288878</v>
+        <v>0.03261837634914478</v>
       </c>
       <c r="DO4">
-        <v>0.002903587023425278</v>
+        <v>0.002900631098329358</v>
       </c>
       <c r="DP4">
-        <v>0.06093158649157795</v>
+        <v>0.06099901473087317</v>
       </c>
       <c r="DQ4">
-        <v>0.009752466078680001</v>
+        <v>0.009757817395497265</v>
       </c>
       <c r="DR4">
-        <v>0.01377782411115539</v>
+        <v>0.01378805792373484</v>
       </c>
       <c r="DS4">
-        <v>1.04707250844747E-05</v>
+        <v>4.005639324539531E-06</v>
       </c>
       <c r="DT4">
-        <v>0.005068452040890767</v>
+        <v>0.005068121955332147</v>
       </c>
       <c r="DU4">
-        <v>0.0001144191309230996</v>
+        <v>0.0001080801277741763</v>
       </c>
       <c r="DV4">
-        <v>0.003750732630259798</v>
+        <v>0.003748804237324233</v>
       </c>
       <c r="DW4">
-        <v>0.003133373025279123</v>
+        <v>0.003130695815559874</v>
       </c>
       <c r="DX4">
-        <v>0.02090812716868056</v>
+        <v>0.02092700957206374</v>
       </c>
       <c r="DY4">
-        <v>0.0006342620051170376</v>
+        <v>0.0006285535373415578</v>
       </c>
       <c r="DZ4">
-        <v>0.003845535531024639</v>
+        <v>0.003843722127801168</v>
       </c>
       <c r="EA4">
-        <v>0.0003443613227782049</v>
+        <v>0.0003383012244541993</v>
       </c>
       <c r="EB4">
-        <v>0.0008383015067631677</v>
+        <v>0.0008328405255451735</v>
       </c>
       <c r="EC4">
-        <v>0.002145685717310755</v>
+        <v>0.002141810507548626</v>
       </c>
       <c r="ED4">
-        <v>0.01473276511885958</v>
+        <v>0.01474415721236351</v>
       </c>
       <c r="EE4">
-        <v>0.0004188163133788857</v>
+        <v>0.0004128465240840765</v>
       </c>
       <c r="EF4">
-        <v>0.0111432580899005</v>
+        <v>0.01115029634637532</v>
       </c>
       <c r="EG4">
-        <v>2.810918722677658E-05</v>
+        <v>2.166549576666924E-05</v>
       </c>
       <c r="EH4">
-        <v>0.02605011721016462</v>
+        <v>0.0260752365108335</v>
       </c>
       <c r="EI4">
-        <v>0.01376278111103403</v>
+        <v>0.01377299667743916</v>
       </c>
       <c r="EJ4">
-        <v>0.000344837302782045</v>
+        <v>0.0003387777817906227</v>
       </c>
       <c r="EK4">
-        <v>0.003572579028822508</v>
+        <v>0.003570434547231719</v>
       </c>
       <c r="EL4">
-        <v>0.001411201311385153</v>
+        <v>0.001406435220123693</v>
       </c>
       <c r="EM4">
-        <v>0.0008344754067323</v>
+        <v>0.0008290097847054546</v>
       </c>
       <c r="EN4">
-        <v>0.001235182509965086</v>
+        <v>0.001230202919421061</v>
       </c>
       <c r="EO4">
-        <v>0.007784519062803189</v>
+        <v>0.007787483388727297</v>
       </c>
       <c r="EP4">
-        <v>0.0009172808074003493</v>
+        <v>0.0009119156229034293</v>
       </c>
       <c r="EQ4">
-        <v>2.701093621791622E-05</v>
+        <v>2.056591265123517E-05</v>
       </c>
       <c r="ER4">
-        <v>0.0005333795043031475</v>
+        <v>0.0005275486726587328</v>
       </c>
       <c r="ES4">
-        <v>0.001126698809089872</v>
+        <v>0.001121587634918871</v>
       </c>
       <c r="ET4">
-        <v>8.574277069174723E-06</v>
+        <v>2.106891041953217E-06</v>
       </c>
       <c r="EU4">
-        <v>0.002173279417533373</v>
+        <v>0.002169437677123116</v>
       </c>
       <c r="EV4">
-        <v>0.004903711439561688</v>
+        <v>0.004903181534438856</v>
       </c>
       <c r="EW4">
-        <v>0.003578465728869999</v>
+        <v>0.003576328387460979</v>
       </c>
       <c r="EX4">
-        <v>0.004722010038095775</v>
+        <v>0.00472125974106855</v>
       </c>
       <c r="EY4">
-        <v>0.000632971235106624</v>
+        <v>0.0006272612017116254</v>
       </c>
       <c r="EZ4">
-        <v>2.770287222349855E-05</v>
+        <v>2.125868792989277E-05</v>
       </c>
       <c r="FA4">
-        <v>0.00151813591224787</v>
+        <v>0.001513499525656486</v>
       </c>
       <c r="FB4">
-        <v>0.00139104771122256</v>
+        <v>0.001386257174963514</v>
       </c>
       <c r="FC4">
-        <v>0.001758912914190387</v>
+        <v>0.001754568574339226</v>
       </c>
       <c r="FD4">
-        <v>0.001367396411031748</v>
+        <v>0.001362577187293969</v>
       </c>
       <c r="FE4">
-        <v>0.005561476044868338</v>
+        <v>0.005561743965149361</v>
       </c>
       <c r="FF4">
-        <v>0.01311782810583074</v>
+        <v>0.01312726138646419</v>
       </c>
       <c r="FG4">
-        <v>8.723359070377471E-05</v>
+        <v>8.086161327434211E-05</v>
       </c>
       <c r="FH4">
-        <v>0.006257217450481373</v>
+        <v>0.006258329259538766</v>
       </c>
       <c r="FI4">
-        <v>0.004449730735899106</v>
+        <v>0.004448650181903836</v>
       </c>
       <c r="FJ4">
-        <v>0.0006916816055802819</v>
+        <v>0.0006860427840210308</v>
       </c>
       <c r="FK4">
-        <v>0.0007728232362349084</v>
+        <v>0.0007672828341614798</v>
       </c>
       <c r="FL4">
-        <v>3.455886327881065E-05</v>
+        <v>2.812299485350852E-05</v>
       </c>
       <c r="FM4">
-        <v>0.0002740717622111296</v>
+        <v>0.0002679264072518569</v>
       </c>
       <c r="FN4">
-        <v>0.0002715310021906315</v>
+        <v>0.0002653825654557919</v>
       </c>
       <c r="FO4">
-        <v>8.966038072335334E-06</v>
+        <v>2.499127225562942E-06</v>
       </c>
       <c r="FP4">
-        <v>0.0002213499217857855</v>
+        <v>0.0002151406186856582</v>
       </c>
       <c r="FQ4">
-        <v>0.000217869691757708</v>
+        <v>0.0002116561673663996</v>
       </c>
       <c r="FR4">
-        <v>0.000252102602033889</v>
+        <v>0.0002459305999215932</v>
       </c>
       <c r="FS4">
-        <v>0.00410932073315278</v>
+        <v>0.004107827284110062</v>
       </c>
       <c r="FT4">
-        <v>0.001520294612265286</v>
+        <v>0.001515660844035698</v>
       </c>
       <c r="FU4">
-        <v>0.001685333213596768</v>
+        <v>0.001680899626385886</v>
       </c>
       <c r="FV4">
-        <v>0.003978630032098407</v>
+        <v>0.003976978063791338</v>
       </c>
       <c r="FW4">
-        <v>0.000140736581135421</v>
+        <v>0.0001344294993306605</v>
       </c>
       <c r="FX4">
-        <v>0.0009731132078507885</v>
+        <v>0.0009678157444003921</v>
       </c>
       <c r="FY4">
-        <v>0.003044798024564527</v>
+        <v>0.003042013379168219</v>
       </c>
       <c r="FZ4">
-        <v>0.00054939056443232</v>
+        <v>0.0005435791531556337</v>
       </c>
       <c r="GA4">
-        <v>0.002634063621250844</v>
+        <v>0.002630780781913181</v>
       </c>
       <c r="GB4">
-        <v>0.006527787052664248</v>
+        <v>0.0065292270449355</v>
       </c>
       <c r="GC4">
-        <v>0.0001200147749682436</v>
+        <v>0.0001136825589692128</v>
       </c>
       <c r="GD4">
-        <v>0.0009327513075251607</v>
+        <v>0.000927404887732073</v>
       </c>
       <c r="GE4">
-        <v>0.003422237227609594</v>
+        <v>0.003419910391256477</v>
       </c>
       <c r="GF4">
-        <v>0.002418697319513332</v>
+        <v>0.002415153254951214</v>
       </c>
       <c r="GG4">
-        <v>0.0001875915615134331</v>
+        <v>0.00018134131173238</v>
       </c>
       <c r="GH4">
-        <v>1.861683415019509E-05</v>
+        <v>1.216162908724905E-05</v>
       </c>
       <c r="GI4">
-        <v>7.905374063778212E-05</v>
+        <v>7.267184158573602E-05</v>
       </c>
       <c r="GJ4">
-        <v>0.0001205321309724175</v>
+        <v>0.0001142005424923495</v>
       </c>
       <c r="GK4">
-        <v>0.0008412734067871441</v>
+        <v>0.0008358160302893154</v>
       </c>
       <c r="GL4">
-        <v>0.002330199018799354</v>
+        <v>0.002326547611592256</v>
       </c>
       <c r="GM4">
-        <v>0.0002041510916470304</v>
+        <v>0.0001979209274919139</v>
       </c>
       <c r="GN4">
-        <v>3.872261031240253E-05</v>
+        <v>3.22917922396609E-05</v>
       </c>
       <c r="GO4">
-        <v>0.0002544856020531143</v>
+        <v>0.0002483164903638322</v>
       </c>
       <c r="GP4">
-        <v>7.059413056953249E-05</v>
+        <v>6.420197056430542E-05</v>
       </c>
       <c r="GQ4">
-        <v>0.0003799686730654745</v>
+        <v>0.0003739517641262335</v>
       </c>
       <c r="GR4">
-        <v>0.002312904518659827</v>
+        <v>0.002309232134356292</v>
       </c>
       <c r="GS4">
-        <v>0.00181854981467152</v>
+        <v>0.001814277810476348</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.409405275869703E-05</v>
+        <v>9.293377102463667E-05</v>
       </c>
       <c r="C5">
-        <v>4.937978619982366E-05</v>
+        <v>4.820949281558067E-05</v>
       </c>
       <c r="D5">
-        <v>7.727078405338444E-06</v>
+        <v>6.547458862540479E-06</v>
       </c>
       <c r="E5">
-        <v>1.424882790343675E-05</v>
+        <v>1.307066859871443E-05</v>
       </c>
       <c r="F5">
-        <v>5.174882601750677E-06</v>
+        <v>3.994691615126176E-06</v>
       </c>
       <c r="G5">
-        <v>2.176975232464043E-05</v>
+        <v>2.059327697607236E-05</v>
       </c>
       <c r="H5">
-        <v>6.74884308062161E-05</v>
+        <v>6.632219199848824E-05</v>
       </c>
       <c r="I5">
-        <v>1.527573682440776E-05</v>
+        <v>1.409780744748427E-05</v>
       </c>
       <c r="J5">
-        <v>1.181085209105883E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.562839079726816E-06</v>
+        <v>3.818393463874539E-07</v>
       </c>
       <c r="L5">
-        <v>2.875255778725672E-06</v>
+        <v>1.694549899180533E-06</v>
       </c>
       <c r="M5">
-        <v>8.527031743775525E-07</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4.112081283541886E-07</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>6.36024871052711E-06</v>
+        <v>5.180323130711951E-06</v>
       </c>
       <c r="P5">
-        <v>2.659863195301884E-06</v>
+        <v>1.479109088750844E-06</v>
       </c>
       <c r="Q5">
-        <v>2.522572305867536E-07</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.857153480118792E-06</v>
+        <v>1.676443547418024E-06</v>
       </c>
       <c r="S5">
-        <v>2.469630109941868E-06</v>
+        <v>1.288833409667384E-06</v>
       </c>
       <c r="T5">
-        <v>2.757626187778227E-06</v>
+        <v>1.576893970636469E-06</v>
       </c>
       <c r="U5">
-        <v>3.887073100858097E-05</v>
+        <v>3.769808461729076E-05</v>
       </c>
       <c r="V5">
-        <v>3.272906448123218E-06</v>
+        <v>2.092289603682605E-06</v>
       </c>
       <c r="W5">
-        <v>1.048116419338913E-09</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4.017777990799292E-05</v>
+        <v>3.900542616863149E-05</v>
       </c>
       <c r="Y5">
-        <v>4.305139068684519E-05</v>
+        <v>4.187968035702825E-05</v>
       </c>
       <c r="Z5">
-        <v>3.113691060376138E-06</v>
+        <v>1.933038567161912E-06</v>
       </c>
       <c r="AA5">
-        <v>1.839716858418818E-05</v>
+        <v>1.721993810462459E-05</v>
       </c>
       <c r="AB5">
-        <v>4.266250871677282E-05</v>
+        <v>4.149071131518782E-05</v>
       </c>
       <c r="AC5">
-        <v>5.55338457262187E-07</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>3.255111749492665E-05</v>
+        <v>3.137705612437686E-05</v>
       </c>
       <c r="AE5">
-        <v>1.168507610073831E-05</v>
+        <v>1.050634276476872E-05</v>
       </c>
       <c r="AF5">
-        <v>6.239479919821251E-08</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1.914881152634314E-06</v>
+        <v>7.339602425063063E-07</v>
       </c>
       <c r="AH5">
-        <v>8.292250361843862E-05</v>
+        <v>8.17597205430705E-05</v>
       </c>
       <c r="AI5">
-        <v>6.74884308062161E-05</v>
+        <v>6.632219199848824E-05</v>
       </c>
       <c r="AJ5">
-        <v>7.72407240556978E-07</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>3.585043024101769E-05</v>
+        <v>3.467710759588148E-05</v>
       </c>
       <c r="AL5">
-        <v>9.964776833129342E-05</v>
+        <v>9.848873008978714E-05</v>
       </c>
       <c r="AM5">
-        <v>3.838339104608574E-05</v>
+        <v>3.721063553800574E-05</v>
       </c>
       <c r="AN5">
-        <v>4.33379606647913E-06</v>
+        <v>3.15341675821117E-06</v>
       </c>
       <c r="AO5">
-        <v>7.400354130482535E-06</v>
+        <v>6.220661433199485E-06</v>
       </c>
       <c r="AP5">
-        <v>4.195926677089301E-05</v>
+        <v>4.078731191145624E-05</v>
       </c>
       <c r="AQ5">
-        <v>4.650100642136919E-05</v>
+        <v>4.533006847022815E-05</v>
       </c>
       <c r="AR5">
-        <v>4.909217622195759E-07</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.535012481868299E-05</v>
+        <v>1.417221209744087E-05</v>
       </c>
       <c r="AT5">
-        <v>4.043800688796634E-07</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>4.089997385241422E-06</v>
+        <v>2.909563489762279E-06</v>
       </c>
       <c r="AV5">
-        <v>2.807169283965482E-06</v>
+        <v>1.626448159662457E-06</v>
       </c>
       <c r="AW5">
-        <v>5.378160786106767E-05</v>
+        <v>5.261230005708866E-05</v>
       </c>
       <c r="AX5">
-        <v>4.442637158102922E-05</v>
+        <v>4.325496911330596E-05</v>
       </c>
       <c r="AY5">
-        <v>7.452157126495873E-06</v>
+        <v>6.27247602804949E-06</v>
       </c>
       <c r="AZ5">
-        <v>4.930467920560375E-05</v>
+        <v>4.813436900469329E-05</v>
       </c>
       <c r="BA5">
-        <v>0.0001171485769844638</v>
+        <v>0.0001159934572232913</v>
       </c>
       <c r="BB5">
-        <v>9.084957900838568E-05</v>
+        <v>8.968857082751731E-05</v>
       </c>
       <c r="BC5">
-        <v>1.641530173670896E-05</v>
+        <v>1.523762751157796E-05</v>
       </c>
       <c r="BD5">
-        <v>3.016318767869728E-05</v>
+        <v>2.898859164393804E-05</v>
       </c>
       <c r="BE5">
-        <v>3.455349134082768E-05</v>
+        <v>3.337987830741998E-05</v>
       </c>
       <c r="BF5">
-        <v>3.949467296056356E-06</v>
+        <v>2.769001935494559E-06</v>
       </c>
       <c r="BG5">
-        <v>5.242669596533916E-06</v>
+        <v>4.062493787608413E-06</v>
       </c>
       <c r="BH5">
-        <v>4.498570653798385E-06</v>
+        <v>3.318228239024474E-06</v>
       </c>
       <c r="BI5">
-        <v>4.403131661143192E-05</v>
+        <v>4.285982568978863E-05</v>
       </c>
       <c r="BJ5">
-        <v>7.452157126495873E-06</v>
+        <v>6.27247602804949E-06</v>
       </c>
       <c r="BK5">
-        <v>9.650209257337877E-06</v>
+        <v>8.471020308952552E-06</v>
       </c>
       <c r="BL5">
-        <v>4.150285680601747E-06</v>
+        <v>2.969865283841686E-06</v>
       </c>
       <c r="BM5">
-        <v>1.230219505324599E-05</v>
+        <v>1.112359989194746E-05</v>
       </c>
       <c r="BN5">
-        <v>1.14902691157303E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>7.400354130482535E-06</v>
+        <v>6.220661433199485E-06</v>
       </c>
       <c r="BP5">
-        <v>2.303484722728107E-05</v>
+        <v>2.185865513702379E-05</v>
       </c>
       <c r="BQ5">
-        <v>9.46655677147143E-06</v>
+        <v>8.287326702777419E-06</v>
       </c>
       <c r="BR5">
-        <v>3.853255703460621E-06</v>
+        <v>2.672768800852343E-06</v>
       </c>
       <c r="BS5">
-        <v>2.522572305867536E-07</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.128248613172089E-05</v>
+        <v>1.010366265472367E-05</v>
       </c>
       <c r="BU5">
-        <v>6.99505046167395E-05</v>
+        <v>6.878481707427018E-05</v>
       </c>
       <c r="BV5">
-        <v>1.048116419338913E-09</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>5.709850960580509E-05</v>
+        <v>5.592994446546599E-05</v>
       </c>
       <c r="BX5">
-        <v>1.470309886847691E-07</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>6.090513131285458E-06</v>
+        <v>4.910527156914622E-06</v>
       </c>
       <c r="BZ5">
-        <v>1.535012481868299E-05</v>
+        <v>1.417221209744087E-05</v>
       </c>
       <c r="CA5">
-        <v>4.909634322163691E-05</v>
+        <v>4.792598637371303E-05</v>
       </c>
       <c r="CB5">
-        <v>4.522177651981634E-05</v>
+        <v>4.405055214549846E-05</v>
       </c>
       <c r="CC5">
-        <v>1.641530173670896E-05</v>
+        <v>1.523762751157796E-05</v>
       </c>
       <c r="CD5">
-        <v>8.428580051352184E-07</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>6.474503501734274E-05</v>
+        <v>6.357818195557328E-05</v>
       </c>
       <c r="CF5">
-        <v>4.189003677622082E-05</v>
+        <v>4.071806641599332E-05</v>
       </c>
       <c r="CG5">
-        <v>2.428003113145404E-07</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>1.489459485373973E-06</v>
+        <v>3.084433221368234E-07</v>
       </c>
       <c r="CI5">
-        <v>8.805912322313395E-06</v>
+        <v>7.626534333467067E-06</v>
       </c>
       <c r="CJ5">
-        <v>5.55338457262187E-07</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>1.413693291204798E-05</v>
+        <v>1.295874855372203E-05</v>
       </c>
       <c r="CL5">
-        <v>7.210821445068616E-07</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>1.44739418861124E-05</v>
+        <v>1.329583298504464E-05</v>
       </c>
       <c r="CN5">
-        <v>0.01040653719913229</v>
+        <v>0.01040768590245502</v>
       </c>
       <c r="CO5">
-        <v>0.07169626848238878</v>
+        <v>0.07171114012911678</v>
       </c>
       <c r="CP5">
-        <v>0.0330242974585116</v>
+        <v>0.03303051034204029</v>
       </c>
       <c r="CQ5">
-        <v>0.1180500609150873</v>
+        <v>0.1180753113064574</v>
       </c>
       <c r="CR5">
-        <v>0.006220418021288219</v>
+        <v>0.006220629440740348</v>
       </c>
       <c r="CS5">
-        <v>0.003839039204554696</v>
+        <v>0.003838717426584609</v>
       </c>
       <c r="CT5">
-        <v>0.0004329964266774018</v>
+        <v>0.0004319120261390952</v>
       </c>
       <c r="CU5">
-        <v>0.01512084133632823</v>
+        <v>0.01512304558562114</v>
       </c>
       <c r="CV5">
-        <v>0.0002780460086020972</v>
+        <v>0.0002769269142288961</v>
       </c>
       <c r="CW5">
-        <v>0.07565138417801043</v>
+        <v>0.07566714138627893</v>
       </c>
       <c r="CX5">
-        <v>2.121895336702889E-05</v>
+        <v>2.004235469302335E-05</v>
       </c>
       <c r="CY5">
-        <v>0.08808714322097759</v>
+        <v>0.08810568483071066</v>
       </c>
       <c r="CZ5">
-        <v>0.02249855526855311</v>
+        <v>0.02250241140876857</v>
       </c>
       <c r="DA5">
-        <v>0.01695955069482458</v>
+        <v>0.01696216663632004</v>
       </c>
       <c r="DB5">
-        <v>0.01639952573792306</v>
+        <v>0.01640201628825383</v>
       </c>
       <c r="DC5">
-        <v>0.009770111248110442</v>
+        <v>0.009771117453870779</v>
       </c>
       <c r="DD5">
-        <v>0.06836108473905829</v>
+        <v>0.06837520962875542</v>
       </c>
       <c r="DE5">
-        <v>0.0005276864593902333</v>
+        <v>0.0005266232602168659</v>
       </c>
       <c r="DF5">
-        <v>0.008554974841625077</v>
+        <v>0.008555708974922593</v>
       </c>
       <c r="DG5">
-        <v>0.008512829344868515</v>
+        <v>0.00851355404167064</v>
       </c>
       <c r="DH5">
-        <v>0.0001619107275396521</v>
+        <v>0.0001607656301500238</v>
       </c>
       <c r="DI5">
-        <v>0.005132671604999156</v>
+        <v>0.005132639474965956</v>
       </c>
       <c r="DJ5">
-        <v>0.007645492411617149</v>
+        <v>0.007646022909237796</v>
       </c>
       <c r="DK5">
-        <v>0.06145480527055269</v>
+        <v>0.0614673838248311</v>
       </c>
       <c r="DL5">
-        <v>0.003757836510803904</v>
+        <v>0.003757496551322047</v>
       </c>
       <c r="DM5">
-        <v>0.03273003248115768</v>
+        <v>0.03273617947792939</v>
       </c>
       <c r="DN5">
-        <v>0.002451211211359352</v>
+        <v>0.00245057869479394</v>
       </c>
       <c r="DO5">
-        <v>0.02566633202476691</v>
+        <v>0.02567089743911747</v>
       </c>
       <c r="DP5">
-        <v>0.01696728869422908</v>
+        <v>0.01696990636828439</v>
       </c>
       <c r="DQ5">
-        <v>0.04517601652333794</v>
+        <v>0.04518495021098034</v>
       </c>
       <c r="DR5">
-        <v>0.003124310159558912</v>
+        <v>0.003123828351743217</v>
       </c>
       <c r="DS5">
-        <v>0.004117453683128437</v>
+        <v>0.004117194242944023</v>
       </c>
       <c r="DT5">
-        <v>0.005271915894283176</v>
+        <v>0.005271914941438411</v>
       </c>
       <c r="DU5">
-        <v>0.0005458248579943359</v>
+        <v>0.0005447657200594875</v>
       </c>
       <c r="DV5">
-        <v>0.003390394539081553</v>
+        <v>0.003389972308307637</v>
       </c>
       <c r="DW5">
-        <v>0.0002193024631228911</v>
+        <v>0.0002181702159044553</v>
       </c>
       <c r="DX5">
-        <v>0.01592377477453596</v>
+        <v>0.01592615880288648</v>
       </c>
       <c r="DY5">
-        <v>0.009989639231215977</v>
+        <v>0.009990694589909848</v>
       </c>
       <c r="DZ5">
-        <v>0.0009357395279872295</v>
+        <v>0.0009347676930448589</v>
       </c>
       <c r="EA5">
-        <v>0.0002638688396931457</v>
+        <v>0.0002627465710119078</v>
       </c>
       <c r="EB5">
-        <v>0.001604413276527344</v>
+        <v>0.001603591159520028</v>
       </c>
       <c r="EC5">
-        <v>4.95887161837448E-05</v>
+        <v>4.841846957951349E-05</v>
       </c>
       <c r="ED5">
-        <v>0.009484520270088991</v>
+        <v>0.009485462531225222</v>
       </c>
       <c r="EE5">
-        <v>0.007928546389833842</v>
+        <v>0.007929140264037194</v>
       </c>
       <c r="EF5">
-        <v>0.003168225556179264</v>
+        <v>0.003167753581144524</v>
       </c>
       <c r="EG5">
-        <v>0.006855106872443748</v>
+        <v>0.006855460400516718</v>
       </c>
       <c r="EH5">
-        <v>0.006837018473835797</v>
+        <v>0.006837367951865388</v>
       </c>
       <c r="EI5">
-        <v>0.0270941409148854</v>
+        <v>0.02709902601966668</v>
       </c>
       <c r="EJ5">
-        <v>0.002047340442440494</v>
+        <v>0.002046617498072759</v>
       </c>
       <c r="EK5">
-        <v>0.002607075499364327</v>
+        <v>0.00260647788125186</v>
       </c>
       <c r="EL5">
-        <v>4.128531682275895E-06</v>
+        <v>2.948106414734357E-06</v>
       </c>
       <c r="EM5">
-        <v>0.001822710759727576</v>
+        <v>0.0018219375201414</v>
       </c>
       <c r="EN5">
-        <v>1.731293266762896E-05</v>
+        <v>1.613545942459082E-05</v>
       </c>
       <c r="EO5">
-        <v>0.005328136089956575</v>
+        <v>0.005328147724971918</v>
       </c>
       <c r="EP5">
-        <v>0.004006452991670842</v>
+        <v>0.004006168698119071</v>
       </c>
       <c r="EQ5">
-        <v>1.458716087739928E-05</v>
+        <v>1.340907732638246E-05</v>
       </c>
       <c r="ER5">
-        <v>0.000496344461802255</v>
+        <v>0.0004952742450673792</v>
       </c>
       <c r="ES5">
-        <v>0.0001317204198630419</v>
+        <v>0.0001305685627785192</v>
       </c>
       <c r="ET5">
-        <v>0.001374899394190304</v>
+        <v>0.001374025888378501</v>
       </c>
       <c r="EU5">
-        <v>0.0001391022992949462</v>
+        <v>0.0001379520950340132</v>
       </c>
       <c r="EV5">
-        <v>0.007256747141534261</v>
+        <v>0.007257190597994362</v>
       </c>
       <c r="EW5">
-        <v>3.567281325468676E-05</v>
+        <v>3.44994508406072E-05</v>
       </c>
       <c r="EX5">
-        <v>0.006222760721107929</v>
+        <v>0.006222972665097144</v>
       </c>
       <c r="EY5">
-        <v>2.531829805155096E-05</v>
+        <v>2.414261723236264E-05</v>
       </c>
       <c r="EZ5">
-        <v>0.0006786483077724907</v>
+        <v>0.0006776189093820329</v>
       </c>
       <c r="FA5">
-        <v>0.000627529121706528</v>
+        <v>0.000626488277586376</v>
       </c>
       <c r="FB5">
-        <v>0.001221920505963275</v>
+        <v>0.001221012747747661</v>
       </c>
       <c r="FC5">
-        <v>0.0002862075979739965</v>
+        <v>0.000285090331003636</v>
       </c>
       <c r="FD5">
-        <v>0.0035839407241866</v>
+        <v>0.003583561828948489</v>
       </c>
       <c r="FE5">
-        <v>0.0008997497307569372</v>
+        <v>0.0008987698375976319</v>
       </c>
       <c r="FF5">
-        <v>0.009163317294808175</v>
+        <v>0.009164187637693843</v>
       </c>
       <c r="FG5">
-        <v>0.002363774518088317</v>
+        <v>0.002363122424201089</v>
       </c>
       <c r="FH5">
-        <v>0.004221709075105135</v>
+        <v>0.004221472977996532</v>
       </c>
       <c r="FI5">
-        <v>0.005886206847008488</v>
+        <v>0.005886343435637671</v>
       </c>
       <c r="FJ5">
-        <v>0.003765779910192594</v>
+        <v>0.003765441729260227</v>
       </c>
       <c r="FK5">
-        <v>0.001826973759399504</v>
+        <v>0.001826201474310957</v>
       </c>
       <c r="FL5">
-        <v>0.0003558172726169657</v>
+        <v>0.0003547155914487548</v>
       </c>
       <c r="FM5">
-        <v>0.0001055559418766114</v>
+        <v>0.0001043982264917973</v>
       </c>
       <c r="FN5">
-        <v>0.0004358688664563442</v>
+        <v>0.0004347851090653918</v>
       </c>
       <c r="FO5">
-        <v>3.272906448123218E-06</v>
+        <v>2.092289603682605E-06</v>
       </c>
       <c r="FP5">
-        <v>7.423725428683924E-05</v>
+        <v>7.307252655969108E-05</v>
       </c>
       <c r="FQ5">
-        <v>0.0001841695158266572</v>
+        <v>0.0001830294022423995</v>
       </c>
       <c r="FR5">
-        <v>2.346448719421678E-05</v>
+        <v>2.228839130155782E-05</v>
       </c>
       <c r="FS5">
-        <v>0.001144649411909914</v>
+        <v>0.001143724352478773</v>
       </c>
       <c r="FT5">
-        <v>0.002326893820926587</v>
+        <v>0.002326233469347421</v>
       </c>
       <c r="FU5">
-        <v>0.0003646336319384751</v>
+        <v>0.0003635339247779402</v>
       </c>
       <c r="FV5">
-        <v>0.006152669526502017</v>
+        <v>0.006152865776875406</v>
       </c>
       <c r="FW5">
-        <v>0.002635420797182926</v>
+        <v>0.002634829525662451</v>
       </c>
       <c r="FX5">
-        <v>0.001280753901435566</v>
+        <v>0.001279859316182853</v>
       </c>
       <c r="FY5">
-        <v>0.004680571239791959</v>
+        <v>0.004680437883214028</v>
       </c>
       <c r="FZ5">
-        <v>0.003246678450141676</v>
+        <v>0.003246224040930791</v>
       </c>
       <c r="GA5">
-        <v>3.185376954859325E-06</v>
+        <v>2.004740512318717E-06</v>
       </c>
       <c r="GB5">
-        <v>0.004514152252599254</v>
+        <v>0.004513981634341512</v>
       </c>
       <c r="GC5">
-        <v>0.0008805735722326986</v>
+        <v>0.0008795893854775061</v>
       </c>
       <c r="GD5">
-        <v>7.337988935282045E-05</v>
+        <v>7.221496965924951E-05</v>
       </c>
       <c r="GE5">
-        <v>0.003631466020529141</v>
+        <v>0.003631097766338696</v>
       </c>
       <c r="GF5">
-        <v>0.004439904958313187</v>
+        <v>0.0044397177158772</v>
       </c>
       <c r="GG5">
-        <v>0.001046021019500172</v>
+        <v>0.001045073876894266</v>
       </c>
       <c r="GH5">
-        <v>2.875255778725672E-06</v>
+        <v>1.694549899180533E-06</v>
       </c>
       <c r="GI5">
-        <v>0.0003332172043562248</v>
+        <v>0.0003321104629690963</v>
       </c>
       <c r="GJ5">
-        <v>0.0001507711883969303</v>
+        <v>0.0001496235968331228</v>
       </c>
       <c r="GK5">
-        <v>0.0002587603300862871</v>
+        <v>0.0002576369175953644</v>
       </c>
       <c r="GL5">
-        <v>0.003091788762061698</v>
+        <v>0.003091299672613535</v>
       </c>
       <c r="GM5">
-        <v>0.002078854540015228</v>
+        <v>0.002078138651742672</v>
       </c>
       <c r="GN5">
-        <v>0.0001304825299583076</v>
+        <v>0.0001293303957067498</v>
       </c>
       <c r="GO5">
-        <v>3.472830332737449E-05</v>
+        <v>3.355472943486279E-05</v>
       </c>
       <c r="GP5">
-        <v>1.402547892062528E-05</v>
+        <v>1.284726960743683E-05</v>
       </c>
       <c r="GQ5">
-        <v>0.00022106538298722</v>
+        <v>0.0002199335304915057</v>
       </c>
       <c r="GR5">
-        <v>0.001649940373023663</v>
+        <v>0.001649128449661442</v>
       </c>
       <c r="GS5">
-        <v>0.004030929989787138</v>
+        <v>0.004030651176704164</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.23986653686797E-06</v>
+        <v>8.152649459241143E-06</v>
       </c>
       <c r="C6">
-        <v>2.565609067162092E-05</v>
+        <v>2.556917041619851E-05</v>
       </c>
       <c r="D6">
-        <v>7.698266501580056E-06</v>
+        <v>7.611040193541681E-06</v>
       </c>
       <c r="E6">
-        <v>7.97658211971369E-10</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.306146885101915E-05</v>
+        <v>1.297433394726748E-05</v>
       </c>
       <c r="G6">
-        <v>1.376415389680255E-05</v>
+        <v>1.36770309688111E-05</v>
       </c>
       <c r="H6">
-        <v>8.73560196916758E-08</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.607448169888116E-06</v>
+        <v>2.520135099764702E-06</v>
       </c>
       <c r="J6">
-        <v>6.558950427347991E-08</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.350753413782927E-09</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.846004641515793E-06</v>
+        <v>9.758814937069807E-06</v>
       </c>
       <c r="M6">
-        <v>3.853889851099943E-05</v>
+        <v>3.845219781541916E-05</v>
       </c>
       <c r="N6">
-        <v>3.240208611115582E-05</v>
+        <v>3.231528082676397E-05</v>
       </c>
       <c r="O6">
-        <v>2.234523545590237E-06</v>
+        <v>2.147204119766057E-06</v>
       </c>
       <c r="P6">
-        <v>1.240167680803045E-05</v>
+        <v>1.231453065953783E-05</v>
       </c>
       <c r="Q6">
-        <v>4.799072112683232E-05</v>
+        <v>4.790418151730623E-05</v>
       </c>
       <c r="R6">
-        <v>7.000098856090987E-05</v>
+        <v>6.991482406920775E-05</v>
       </c>
       <c r="S6">
-        <v>1.798747617197284E-05</v>
+        <v>1.790042522145584E-05</v>
       </c>
       <c r="T6">
-        <v>7.06563346036089E-06</v>
+        <v>6.978396370448532E-06</v>
       </c>
       <c r="U6">
-        <v>2.704604976218362E-05</v>
+        <v>2.695915319563418E-05</v>
       </c>
       <c r="V6">
-        <v>1.839668119863457E-05</v>
+        <v>1.830963722214002E-05</v>
       </c>
       <c r="W6">
-        <v>2.580147668109354E-07</v>
+        <v>1.706616556317551E-07</v>
       </c>
       <c r="X6">
-        <v>4.076497865603953E-06</v>
+        <v>3.989209832283332E-06</v>
       </c>
       <c r="Y6">
-        <v>3.08470740098391E-08</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>4.29473207982299E-07</v>
+        <v>3.421230189446851E-07</v>
       </c>
       <c r="AA6">
-        <v>8.23986653686797E-06</v>
+        <v>8.152649459241143E-06</v>
       </c>
       <c r="AB6">
-        <v>3.426703823266665E-06</v>
+        <v>3.339404715599586E-06</v>
       </c>
       <c r="AC6">
-        <v>4.845559615712122E-08</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>5.10257633245803E-06</v>
+        <v>5.015305786445224E-06</v>
       </c>
       <c r="AE6">
-        <v>6.120729398795727E-05</v>
+        <v>6.112097962658261E-05</v>
       </c>
       <c r="AF6">
-        <v>8.624131561904733E-05</v>
+        <v>8.615542790890477E-05</v>
       </c>
       <c r="AG6">
-        <v>2.891207488376436E-05</v>
+        <v>2.882521011961284E-05</v>
       </c>
       <c r="AH6">
-        <v>4.261864077681478E-05</v>
+        <v>4.25320096116955E-05</v>
       </c>
       <c r="AI6">
-        <v>5.270543943401948E-05</v>
+        <v>5.261898017675977E-05</v>
       </c>
       <c r="AJ6">
-        <v>3.924340255690134E-05</v>
+        <v>3.915671386808226E-05</v>
       </c>
       <c r="AK6">
-        <v>5.481571857151458E-05</v>
+        <v>5.472929527943887E-05</v>
       </c>
       <c r="AL6">
-        <v>2.626714171143392E-05</v>
+        <v>2.618023187006653E-05</v>
       </c>
       <c r="AM6">
-        <v>2.102658736998594E-05</v>
+        <v>2.093958821460422E-05</v>
       </c>
       <c r="AN6">
-        <v>1.229295480094667E-05</v>
+        <v>1.220580679952051E-05</v>
       </c>
       <c r="AO6">
-        <v>1.229295480094667E-05</v>
+        <v>1.220580679952051E-05</v>
       </c>
       <c r="AP6">
-        <v>7.322914477124018E-07</v>
+        <v>6.449464195625185E-07</v>
       </c>
       <c r="AQ6">
-        <v>1.954572827350066E-05</v>
+        <v>1.945870388005023E-05</v>
       </c>
       <c r="AR6">
-        <v>2.262763347430199E-05</v>
+        <v>2.254066160531889E-05</v>
       </c>
       <c r="AS6">
-        <v>5.8085300784544E-09</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>5.449061355033239E-06</v>
+        <v>5.361796714114867E-06</v>
       </c>
       <c r="AU6">
-        <v>7.677998500259494E-05</v>
+        <v>7.669393604435473E-05</v>
       </c>
       <c r="AV6">
-        <v>5.380641550575351E-05</v>
+        <v>5.371997501227073E-05</v>
       </c>
       <c r="AW6">
-        <v>1.240167680803045E-05</v>
+        <v>1.231453065953783E-05</v>
       </c>
       <c r="AX6">
-        <v>2.704604976218362E-05</v>
+        <v>2.695915319563418E-05</v>
       </c>
       <c r="AY6">
-        <v>3.561840532071489E-05</v>
+        <v>3.553165485158899E-05</v>
       </c>
       <c r="AZ6">
-        <v>4.203969973909391E-05</v>
+        <v>4.195305870716575E-05</v>
       </c>
       <c r="BA6">
-        <v>1.414854892184779E-05</v>
+        <v>1.406143254504549E-05</v>
       </c>
       <c r="BB6">
-        <v>5.561616362366753E-06</v>
+        <v>5.474353639707191E-06</v>
       </c>
       <c r="BC6">
-        <v>1.601048204316192E-05</v>
+        <v>1.592339739901817E-05</v>
       </c>
       <c r="BD6">
-        <v>1.849970120534683E-05</v>
+        <v>1.841265898460744E-05</v>
       </c>
       <c r="BE6">
-        <v>1.440274893841017E-07</v>
+        <v>5.667243553613757E-08</v>
       </c>
       <c r="BF6">
-        <v>5.048539328937253E-06</v>
+        <v>4.961267861979563E-06</v>
       </c>
       <c r="BG6">
-        <v>7.84503551114278E-08</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.220900179547672E-05</v>
+        <v>1.212185236325156E-05</v>
       </c>
       <c r="BI6">
-        <v>3.70219324121616E-05</v>
+        <v>3.693520586314617E-05</v>
       </c>
       <c r="BJ6">
-        <v>3.486517927163849E-05</v>
+        <v>3.477841596538931E-05</v>
       </c>
       <c r="BK6">
-        <v>8.735863069184592E-05</v>
+        <v>8.727276202394354E-05</v>
       </c>
       <c r="BL6">
-        <v>0.0001189329277490672</v>
+        <v>0.0001188475971973709</v>
       </c>
       <c r="BM6">
-        <v>0.0001025381126808641</v>
+        <v>0.0001024525027146912</v>
       </c>
       <c r="BN6">
-        <v>0.0001186714877320331</v>
+        <v>0.0001185861527246521</v>
       </c>
       <c r="BO6">
-        <v>0.0001086999870823406</v>
+        <v>0.0001086144821321074</v>
       </c>
       <c r="BP6">
-        <v>5.428426353688767E-05</v>
+        <v>5.41978311873002E-05</v>
       </c>
       <c r="BQ6">
-        <v>6.618342431217672E-05</v>
+        <v>6.609719475827587E-05</v>
       </c>
       <c r="BR6">
-        <v>5.990078790283195E-05</v>
+        <v>5.981445127486188E-05</v>
       </c>
       <c r="BS6">
-        <v>5.322912346814009E-05</v>
+        <v>5.31426731359521E-05</v>
       </c>
       <c r="BT6">
-        <v>1.430324793192719E-05</v>
+        <v>1.421613419163789E-05</v>
       </c>
       <c r="BU6">
-        <v>2.492550462401964E-06</v>
+        <v>2.405235434093437E-06</v>
       </c>
       <c r="BV6">
-        <v>2.343380552682808E-06</v>
+        <v>2.256062982092952E-06</v>
       </c>
       <c r="BW6">
-        <v>1.697520710601852E-07</v>
+        <v>8.239745563256871E-08</v>
       </c>
       <c r="BX6">
-        <v>5.675321369775195E-06</v>
+        <v>5.58806058497373E-06</v>
       </c>
       <c r="BY6">
-        <v>2.805316082780187E-05</v>
+        <v>2.796628142530156E-05</v>
       </c>
       <c r="BZ6">
-        <v>2.764672180132037E-06</v>
+        <v>2.677361789554828E-06</v>
       </c>
       <c r="CA6">
-        <v>2.607448169888116E-06</v>
+        <v>2.520135099764702E-06</v>
       </c>
       <c r="CB6">
-        <v>7.453348185622418E-06</v>
+        <v>7.36611770347639E-06</v>
       </c>
       <c r="CC6">
-        <v>6.564787427728299E-06</v>
+        <v>6.477541801969002E-06</v>
       </c>
       <c r="CD6">
-        <v>1.849970120534683E-05</v>
+        <v>1.841265898460744E-05</v>
       </c>
       <c r="CE6">
-        <v>4.049891063870389E-05</v>
+        <v>4.041224334732857E-05</v>
       </c>
       <c r="CF6">
-        <v>1.423891292773545E-05</v>
+        <v>1.415179809099392E-05</v>
       </c>
       <c r="CG6">
-        <v>3.711672441833777E-06</v>
+        <v>3.624378190845901E-06</v>
       </c>
       <c r="CH6">
-        <v>7.002020956216222E-06</v>
+        <v>6.914782782165099E-06</v>
       </c>
       <c r="CI6">
-        <v>3.576169733005107E-05</v>
+        <v>3.567494930303029E-05</v>
       </c>
       <c r="CJ6">
-        <v>4.899285619212637E-05</v>
+        <v>4.890633366184413E-05</v>
       </c>
       <c r="CK6">
-        <v>1.778459715875428E-05</v>
+        <v>1.769754275059942E-05</v>
       </c>
       <c r="CL6">
-        <v>8.013766522136438E-07</v>
+        <v>7.140328014729701E-07</v>
       </c>
       <c r="CM6">
-        <v>0.0001194566437831899</v>
+        <v>0.0001193713221571106</v>
       </c>
       <c r="CN6">
-        <v>0.07715009502670944</v>
+        <v>0.07715132252718043</v>
       </c>
       <c r="CO6">
-        <v>0.005260267342732377</v>
+        <v>0.005260269635204067</v>
       </c>
       <c r="CP6">
-        <v>0.1547080400799923</v>
+        <v>0.1547105893893722</v>
       </c>
       <c r="CQ6">
-        <v>0.03633922536767987</v>
+        <v>0.03633975733436569</v>
       </c>
       <c r="CR6">
-        <v>0.003765353445331359</v>
+        <v>0.003765330260200384</v>
       </c>
       <c r="CS6">
-        <v>3.420131022838415E-05</v>
+        <v>3.41145356079103E-05</v>
       </c>
       <c r="CT6">
-        <v>0.008418433548502491</v>
+        <v>0.00841848966514685</v>
       </c>
       <c r="CU6">
-        <v>0.00762595449686857</v>
+        <v>0.007625997107406369</v>
       </c>
       <c r="CV6">
-        <v>0.05431078753861584</v>
+        <v>0.05431162579205239</v>
       </c>
       <c r="CW6">
-        <v>0.01693258010324116</v>
+        <v>0.01693278132526137</v>
       </c>
       <c r="CX6">
-        <v>0.04382349085531671</v>
+        <v>0.0438241503752634</v>
       </c>
       <c r="CY6">
-        <v>0.05796611377677838</v>
+        <v>0.05796701432741457</v>
       </c>
       <c r="CZ6">
-        <v>0.003839303250149554</v>
+        <v>0.003839281325334472</v>
       </c>
       <c r="DA6">
-        <v>0.01682441609619374</v>
+        <v>0.01682461547479033</v>
       </c>
       <c r="DB6">
-        <v>0.000370199754120341</v>
+        <v>0.0003701187058730478</v>
       </c>
       <c r="DC6">
-        <v>0.05116052133336045</v>
+        <v>0.05116130589726291</v>
       </c>
       <c r="DD6">
-        <v>0.009290979605353173</v>
+        <v>0.009291050592674554</v>
       </c>
       <c r="DE6">
-        <v>0.009554746622538895</v>
+        <v>0.009554822105203633</v>
       </c>
       <c r="DF6">
-        <v>1.440274893841017E-07</v>
+        <v>5.667243553613757E-08</v>
       </c>
       <c r="DG6">
-        <v>0.00258606596849496</v>
+        <v>0.002586022684937035</v>
       </c>
       <c r="DH6">
-        <v>0.006494232423131292</v>
+        <v>0.006494255745892468</v>
       </c>
       <c r="DI6">
-        <v>3.236250810857711E-05</v>
+        <v>3.227570214966304E-05</v>
       </c>
       <c r="DJ6">
-        <v>0.0380179274770556</v>
+        <v>0.03801848805362016</v>
       </c>
       <c r="DK6">
-        <v>0.01589407503557743</v>
+        <v>0.01589425855850506</v>
       </c>
       <c r="DL6">
-        <v>0.02408129656901532</v>
+        <v>0.02408161962558265</v>
       </c>
       <c r="DM6">
-        <v>0.008713672567738771</v>
+        <v>0.008713733716099296</v>
       </c>
       <c r="DN6">
-        <v>0.04700597306267112</v>
+        <v>0.0470066868212046</v>
       </c>
       <c r="DO6">
-        <v>0.0001521830399154761</v>
+        <v>0.0001520982760406618</v>
       </c>
       <c r="DP6">
-        <v>0.06895260449260247</v>
+        <v>0.06895369228442065</v>
       </c>
       <c r="DQ6">
-        <v>0.0005540114360965792</v>
+        <v>0.0005539335205253596</v>
       </c>
       <c r="DR6">
-        <v>0.01748317813911534</v>
+        <v>0.01748338874489873</v>
       </c>
       <c r="DS6">
-        <v>0.0008021662922650928</v>
+        <v>0.0008020926059614155</v>
       </c>
       <c r="DT6">
-        <v>0.003919977055405851</v>
+        <v>0.003919956505502835</v>
       </c>
       <c r="DU6">
-        <v>0.001405761791592318</v>
+        <v>0.001405698392279971</v>
       </c>
       <c r="DV6">
-        <v>0.002030484232296068</v>
+        <v>0.002030431480038476</v>
       </c>
       <c r="DW6">
-        <v>0.004821021314113331</v>
+        <v>0.004821016120578094</v>
       </c>
       <c r="DX6">
-        <v>0.0154416100060971</v>
+        <v>0.01544178581772827</v>
       </c>
       <c r="DY6">
-        <v>1.719936512062352E-06</v>
+        <v>1.63260831620533E-06</v>
       </c>
       <c r="DZ6">
-        <v>0.001403065291416628</v>
+        <v>0.001403001846148216</v>
       </c>
       <c r="EA6">
-        <v>0.001723456212291678</v>
+        <v>0.001723398227399675</v>
       </c>
       <c r="EB6">
-        <v>2.228664145208468E-05</v>
+        <v>2.219966377162356E-05</v>
       </c>
       <c r="EC6">
-        <v>0.005310329045994145</v>
+        <v>0.005310332191660247</v>
       </c>
       <c r="ED6">
-        <v>0.01099238871620837</v>
+        <v>0.01099248870040066</v>
       </c>
       <c r="EE6">
-        <v>0.0001758193214554965</v>
+        <v>0.0001757349604104309</v>
       </c>
       <c r="EF6">
-        <v>0.00967469063035384</v>
+        <v>0.009674768157207062</v>
       </c>
       <c r="EG6">
-        <v>0.001354086388225411</v>
+        <v>0.001354022108216592</v>
       </c>
       <c r="EH6">
-        <v>0.02451766659744698</v>
+        <v>0.02451799709100598</v>
       </c>
       <c r="EI6">
-        <v>0.009985521150605981</v>
+        <v>0.009985603974899079</v>
       </c>
       <c r="EJ6">
-        <v>0.0008701218166927304</v>
+        <v>0.0008700492885452876</v>
       </c>
       <c r="EK6">
-        <v>0.003818524748795732</v>
+        <v>0.003818502469855638</v>
       </c>
       <c r="EL6">
-        <v>0.001062790269246031</v>
+        <v>0.001062721024719329</v>
       </c>
       <c r="EM6">
-        <v>0.000227017814791331</v>
+        <v>0.0002269343263148277</v>
       </c>
       <c r="EN6">
-        <v>0.002758754179746449</v>
+        <v>0.002758713839288886</v>
       </c>
       <c r="EO6">
-        <v>0.008655556563952227</v>
+        <v>0.008655616721850052</v>
       </c>
       <c r="EP6">
-        <v>0.0002769440180442695</v>
+        <v>0.0002768613804528716</v>
       </c>
       <c r="EQ6">
-        <v>1.940917626460362E-05</v>
+        <v>1.932214954391693E-05</v>
       </c>
       <c r="ER6">
-        <v>0.001017378466287228</v>
+        <v>0.001017308447813696</v>
       </c>
       <c r="ES6">
-        <v>0.0004666957004075281</v>
+        <v>0.0004666162967267765</v>
       </c>
       <c r="ET6">
-        <v>1.778459715875428E-05</v>
+        <v>1.769754275059942E-05</v>
       </c>
       <c r="EU6">
-        <v>0.001855333620884142</v>
+        <v>0.001855277883559857</v>
       </c>
       <c r="EV6">
-        <v>0.002161460340829808</v>
+        <v>0.002161409820779207</v>
       </c>
       <c r="EW6">
-        <v>0.003078315200567427</v>
+        <v>0.003078280306342406</v>
       </c>
       <c r="EX6">
-        <v>0.003275674013426328</v>
+        <v>0.003275642482759184</v>
       </c>
       <c r="EY6">
-        <v>8.168999032250602E-05</v>
+        <v>8.160402504478068E-05</v>
       </c>
       <c r="EZ6">
-        <v>0.0002124425338416795</v>
+        <v>0.0002123587969607581</v>
       </c>
       <c r="FA6">
-        <v>0.001089542270989056</v>
+        <v>0.001089473482392875</v>
       </c>
       <c r="FB6">
-        <v>0.0003642246537310337</v>
+        <v>0.0003641435036509634</v>
       </c>
       <c r="FC6">
-        <v>0.002547532765984332</v>
+        <v>0.002547488825710576</v>
       </c>
       <c r="FD6">
-        <v>0.0002769440180442695</v>
+        <v>0.0002768613804528716</v>
       </c>
       <c r="FE6">
-        <v>0.009247104602494501</v>
+        <v>0.009247174842060514</v>
       </c>
       <c r="FF6">
-        <v>0.01306879785149668</v>
+        <v>0.01306893322363138</v>
       </c>
       <c r="FG6">
-        <v>0.0002615956370442468</v>
+        <v>0.0002615127378725977</v>
       </c>
       <c r="FH6">
-        <v>0.006534887425780166</v>
+        <v>0.006534911441418709</v>
       </c>
       <c r="FI6">
-        <v>0.003105375902330565</v>
+        <v>0.003105341469297194</v>
       </c>
       <c r="FJ6">
-        <v>0.0004417973287852763</v>
+        <v>0.0004417175007651562</v>
       </c>
       <c r="FK6">
-        <v>0.001137797674133134</v>
+        <v>0.001137729707946852</v>
       </c>
       <c r="FL6">
-        <v>8.945369582834976E-05</v>
+        <v>8.936786286634134E-05</v>
       </c>
       <c r="FM6">
-        <v>0.0003931582556162006</v>
+        <v>0.0003930775986473482</v>
       </c>
       <c r="FN6">
-        <v>0.0003190300707863836</v>
+        <v>0.0003189481504615328</v>
       </c>
       <c r="FO6">
-        <v>0.0001871268921922405</v>
+        <v>0.0001870427238604775</v>
       </c>
       <c r="FP6">
-        <v>6.682696435410653E-05</v>
+        <v>6.674074576796611E-05</v>
       </c>
       <c r="FQ6">
-        <v>0.0003510707228739902</v>
+        <v>0.0003509893486133672</v>
       </c>
       <c r="FR6">
-        <v>0.0007974180519557215</v>
+        <v>0.0007973442847284671</v>
       </c>
       <c r="FS6">
-        <v>0.004251059276977491</v>
+        <v>0.004251044369661186</v>
       </c>
       <c r="FT6">
-        <v>0.001137797674133134</v>
+        <v>0.001137729707946852</v>
       </c>
       <c r="FU6">
-        <v>0.001775330615671551</v>
+        <v>0.001775273514867549</v>
       </c>
       <c r="FV6">
-        <v>0.002324684451464665</v>
+        <v>0.002324636713219118</v>
       </c>
       <c r="FW6">
-        <v>0.0001474011496039123</v>
+        <v>0.0001473163042320289</v>
       </c>
       <c r="FX6">
-        <v>0.004224063275218569</v>
+        <v>0.004224047907813286</v>
       </c>
       <c r="FY6">
-        <v>0.00500376602602005</v>
+        <v>0.00500376394697667</v>
       </c>
       <c r="FZ6">
-        <v>0.0001052271868560705</v>
+        <v>0.0001051416227194023</v>
       </c>
       <c r="GA6">
-        <v>0.004350152583433909</v>
+        <v>0.004350139364950582</v>
       </c>
       <c r="GB6">
-        <v>0.004821021314113331</v>
+        <v>0.004821016120578094</v>
       </c>
       <c r="GC6">
-        <v>5.504504558645638E-05</v>
+        <v>5.495862620276801E-05</v>
       </c>
       <c r="GD6">
-        <v>0.0006843651445897665</v>
+        <v>0.0006842894506180629</v>
       </c>
       <c r="GE6">
-        <v>0.003310082915668238</v>
+        <v>0.003310051971427069</v>
       </c>
       <c r="GF6">
-        <v>0.002600723569449975</v>
+        <v>0.002600680535699436</v>
       </c>
       <c r="GG6">
-        <v>0.0002868949586926224</v>
+        <v>0.0002868124906936755</v>
       </c>
       <c r="GH6">
-        <v>3.391054720943951E-08</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>2.410101957030037E-05</v>
+        <v>2.401407281202471E-05</v>
       </c>
       <c r="GJ6">
-        <v>0.0001197189478002803</v>
+        <v>0.0001196336306446107</v>
       </c>
       <c r="GK6">
-        <v>0.001284647083701098</v>
+        <v>0.001284581620248194</v>
       </c>
       <c r="GL6">
-        <v>0.002784007881391853</v>
+        <v>0.002783967971329496</v>
       </c>
       <c r="GM6">
-        <v>0.0001391592190669099</v>
+        <v>0.000139074233228989</v>
       </c>
       <c r="GN6">
-        <v>7.074748060954751E-05</v>
+        <v>7.066132884020208E-05</v>
       </c>
       <c r="GO6">
-        <v>0.0002328368851704721</v>
+        <v>0.0002327534958675489</v>
       </c>
       <c r="GP6">
-        <v>1.56014060165086E-05</v>
+        <v>1.551431440054093E-05</v>
       </c>
       <c r="GQ6">
-        <v>0.0007376246980598893</v>
+        <v>0.0007375499117830995</v>
       </c>
       <c r="GR6">
-        <v>0.003342300417767367</v>
+        <v>0.003342270022604455</v>
       </c>
       <c r="GS6">
-        <v>0.002708591976478135</v>
+        <v>0.002708550781113351</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.951427875223671E-06</v>
+        <v>7.16595830422834E-06</v>
       </c>
       <c r="C2">
-        <v>1.421279217696836E-05</v>
+        <v>1.264159733515664E-05</v>
       </c>
       <c r="D2">
-        <v>1.823373051387052E-05</v>
+        <v>1.587647143380517E-05</v>
       </c>
       <c r="E2">
-        <v>2.011094788441263E-05</v>
+        <v>1.696730022973371E-05</v>
       </c>
       <c r="F2">
-        <v>2.25122205467311E-05</v>
+        <v>1.858226360489645E-05</v>
       </c>
       <c r="G2">
-        <v>2.329877413438825E-05</v>
+        <v>1.858226360489645E-05</v>
       </c>
       <c r="H2">
-        <v>2.335539903549967E-05</v>
+        <v>1.858226360489645E-05</v>
       </c>
       <c r="I2">
-        <v>2.364185931100445E-05</v>
+        <v>1.858226360489645E-05</v>
       </c>
       <c r="J2">
-        <v>2.454326375685932E-05</v>
+        <v>1.869713183956708E-05</v>
       </c>
       <c r="K2">
-        <v>3.036555266549412E-05</v>
+        <v>2.373362904704452E-05</v>
       </c>
       <c r="L2">
-        <v>3.752262655318305E-05</v>
+        <v>3.010511318117478E-05</v>
       </c>
       <c r="M2">
-        <v>4.631511541520852E-05</v>
+        <v>3.811225972134939E-05</v>
       </c>
       <c r="N2">
-        <v>5.655465775452637E-05</v>
+        <v>4.756667867218729E-05</v>
       </c>
       <c r="O2">
-        <v>8.081792737377945E-05</v>
+        <v>7.104694663649293E-05</v>
       </c>
       <c r="P2">
-        <v>0.0001142470998491983</v>
+        <v>0.0001036945042212002</v>
       </c>
       <c r="Q2">
-        <v>0.0001596001111375044</v>
+        <v>0.0001482677046476483</v>
       </c>
       <c r="R2">
-        <v>0.0002093311023571099</v>
+        <v>0.0001972195473761506</v>
       </c>
       <c r="S2">
-        <v>0.0002579005665949425</v>
+        <v>0.0002450096873885194</v>
       </c>
       <c r="T2">
-        <v>0.0003021446659006501</v>
+        <v>0.0002884738080584461</v>
       </c>
       <c r="U2">
-        <v>0.0003405350802982155</v>
+        <v>0.0003260833581812482</v>
       </c>
       <c r="V2">
-        <v>0.000381534791654835</v>
+        <v>0.0003663026000392394</v>
       </c>
       <c r="W2">
-        <v>0.0004202681550470187</v>
+        <v>0.0004042551510434633</v>
       </c>
       <c r="X2">
-        <v>0.0004508852825665651</v>
+        <v>0.0004340902382212066</v>
       </c>
       <c r="Y2">
-        <v>0.0004709911722510571</v>
+        <v>0.0004534124972558885</v>
       </c>
       <c r="Z2">
-        <v>0.000482318502073305</v>
+        <v>0.0004639548682675275</v>
       </c>
       <c r="AA2">
-        <v>0.000485430280424474</v>
+        <v>0.0004662804448281937</v>
       </c>
       <c r="AB2">
-        <v>0.0004854417743312937</v>
+        <v>0.0004662804448281937</v>
       </c>
       <c r="AC2">
-        <v>0.00048806176299018</v>
+        <v>0.0004681141572907749</v>
       </c>
       <c r="AD2">
-        <v>0.000492655479218094</v>
+        <v>0.0004719218959394263</v>
       </c>
       <c r="AE2">
-        <v>0.0005104159089393917</v>
+        <v>0.0004888983401522551</v>
       </c>
       <c r="AF2">
-        <v>0.0005348795355555007</v>
+        <v>0.0005125789954266245</v>
       </c>
       <c r="AG2">
-        <v>0.0005645070450905765</v>
+        <v>0.0005414243148946765</v>
       </c>
       <c r="AH2">
-        <v>0.0006038390414733663</v>
+        <v>0.0005799755894602702</v>
       </c>
       <c r="AI2">
-        <v>0.0006485379727719365</v>
+        <v>0.0006238946109373107</v>
       </c>
       <c r="AJ2">
-        <v>0.0007056243568761189</v>
+        <v>0.0006802029593917491</v>
       </c>
       <c r="AK2">
-        <v>0.000758815476041427</v>
+        <v>0.0007326154535693952</v>
       </c>
       <c r="AL2">
-        <v>0.0008167394551324656</v>
+        <v>0.0007897615237354424</v>
       </c>
       <c r="AM2">
-        <v>0.0008774277401801258</v>
+        <v>0.0008496723180864842</v>
       </c>
       <c r="AN2">
-        <v>0.0009266672764074434</v>
+        <v>0.000898132631467535</v>
       </c>
       <c r="AO2">
-        <v>0.0009679273107599779</v>
+        <v>0.0009386122357072634</v>
       </c>
       <c r="AP2">
-        <v>0.0009928023873696304</v>
+        <v>0.0009627044032259052</v>
       </c>
       <c r="AQ2">
-        <v>0.001002217158221891</v>
+        <v>0.000971333925905077</v>
       </c>
       <c r="AR2">
-        <v>0.001005912730163899</v>
+        <v>0.0009742433843822044</v>
       </c>
       <c r="AS2">
-        <v>0.001005925657590696</v>
+        <v>0.0009742433843822044</v>
       </c>
       <c r="AT2">
-        <v>0.00100619752916643</v>
+        <v>0.0009742433843822044</v>
       </c>
       <c r="AU2">
-        <v>0.001009974765907156</v>
+        <v>0.000977234520013606</v>
       </c>
       <c r="AV2">
-        <v>0.0010190146107653</v>
+        <v>0.0009854890599738664</v>
       </c>
       <c r="AW2">
-        <v>0.001033406165539463</v>
+        <v>0.0009990961195423312</v>
       </c>
       <c r="AX2">
-        <v>0.001064023293059009</v>
+        <v>0.001028931206720075</v>
       </c>
       <c r="AY2">
-        <v>0.001094335594583339</v>
+        <v>0.001058461421783654</v>
       </c>
       <c r="AZ2">
-        <v>0.001122118464147361</v>
+        <v>0.001085461822194045</v>
       </c>
       <c r="BA2">
-        <v>0.001153814488649977</v>
+        <v>0.001116375969587632</v>
       </c>
       <c r="BB2">
-        <v>0.001185978612145248</v>
+        <v>0.001147758286795368</v>
       </c>
       <c r="BC2">
-        <v>0.001220697231600432</v>
+        <v>0.001181695486447983</v>
       </c>
       <c r="BD2">
-        <v>0.001251009533124762</v>
+        <v>0.001211225701511562</v>
       </c>
       <c r="BE2">
-        <v>0.001279230765681905</v>
+        <v>0.001238664531237632</v>
       </c>
       <c r="BF2">
-        <v>0.001296246249414893</v>
+        <v>0.001254895916754819</v>
       </c>
       <c r="BG2">
-        <v>0.00130587660226377</v>
+        <v>0.001263741054047296</v>
       </c>
       <c r="BH2">
-        <v>0.001311900496669242</v>
+        <v>0.001268979187253711</v>
       </c>
       <c r="BI2">
-        <v>0.001316233469001247</v>
+        <v>0.001272526142556951</v>
       </c>
       <c r="BJ2">
-        <v>0.001316650363994705</v>
+        <v>0.001272526142556951</v>
       </c>
       <c r="BK2">
-        <v>0.001316674425955327</v>
+        <v>0.001272526142556951</v>
       </c>
       <c r="BL2">
-        <v>0.001318403358328196</v>
+        <v>0.001273468663920283</v>
       </c>
       <c r="BM2">
-        <v>0.001321686458876677</v>
+        <v>0.00127596558859862</v>
       </c>
       <c r="BN2">
-        <v>0.00133068235573551</v>
+        <v>0.001284176173910415</v>
       </c>
       <c r="BO2">
-        <v>0.001342053407557072</v>
+        <v>0.00129476227353633</v>
       </c>
       <c r="BP2">
-        <v>0.001358895059292788</v>
+        <v>0.001310819800756163</v>
       </c>
       <c r="BQ2">
-        <v>0.001372508612079159</v>
+        <v>0.001323648740628265</v>
       </c>
       <c r="BR2">
-        <v>0.001380695352950691</v>
+        <v>0.001331050047530711</v>
       </c>
       <c r="BS2">
-        <v>0.001388186451833138</v>
+        <v>0.001337755607196238</v>
       </c>
       <c r="BT2">
-        <v>0.001395905999712</v>
+        <v>0.001344689650421594</v>
       </c>
       <c r="BU2">
-        <v>0.001399601571654008</v>
+        <v>0.001347599108898721</v>
       </c>
       <c r="BV2">
-        <v>0.00140231171561148</v>
+        <v>0.001349522990300022</v>
       </c>
       <c r="BW2">
-        <v>0.00140389846298658</v>
+        <v>0.001350323305153567</v>
       </c>
       <c r="BX2">
-        <v>0.001404238502881244</v>
+        <v>0.001350323305153567</v>
       </c>
       <c r="BY2">
-        <v>0.001404328805879827</v>
+        <v>0.001350323305153567</v>
       </c>
       <c r="BZ2">
-        <v>0.001405394374763105</v>
+        <v>0.00135060236266308</v>
       </c>
       <c r="CA2">
-        <v>0.001406829447640586</v>
+        <v>0.001351250980071264</v>
       </c>
       <c r="CB2">
-        <v>0.00141292130624499</v>
+        <v>0.001356557087759321</v>
       </c>
       <c r="CC2">
-        <v>0.00141942895714287</v>
+        <v>0.001362279050648556</v>
       </c>
       <c r="CD2">
-        <v>0.001427657627013743</v>
+        <v>0.001369722292894033</v>
       </c>
       <c r="CE2">
-        <v>0.001439644852825636</v>
+        <v>0.001380924659734926</v>
       </c>
       <c r="CF2">
-        <v>0.001453007916615939</v>
+        <v>0.001393503072712981</v>
       </c>
       <c r="CG2">
-        <v>0.001465575638418722</v>
+        <v>0.001405286023371473</v>
       </c>
       <c r="CH2">
-        <v>0.001477851395226087</v>
+        <v>0.001416776964861417</v>
       </c>
       <c r="CI2">
-        <v>0.001487653895072263</v>
+        <v>0.001425794275196342</v>
       </c>
       <c r="CJ2">
-        <v>0.001496944526926471</v>
+        <v>0.00143429964009573</v>
       </c>
       <c r="CK2">
-        <v>0.001504175665412998</v>
+        <v>0.001440745200034374</v>
       </c>
       <c r="CL2">
-        <v>0.001510199559818469</v>
+        <v>0.001445983333240789</v>
       </c>
       <c r="CM2">
-        <v>0.001596993608456469</v>
+        <v>0.001532003840879202</v>
       </c>
       <c r="CN2">
-        <v>0.05126289882908333</v>
+        <v>0.05120463664061432</v>
       </c>
       <c r="CO2">
-        <v>0.05509951956887786</v>
+        <v>0.05504105117310543</v>
       </c>
       <c r="CP2">
-        <v>0.1831002175602503</v>
+        <v>0.1830603284826614</v>
       </c>
       <c r="CQ2">
-        <v>0.2066965541899691</v>
+        <v>0.2066594484706153</v>
       </c>
       <c r="CR2">
-        <v>0.2079353639705293</v>
+        <v>0.2078976590055226</v>
       </c>
       <c r="CS2">
-        <v>0.2079605887101335</v>
+        <v>0.2079221008889384</v>
       </c>
       <c r="CT2">
-        <v>0.232661688322516</v>
+        <v>0.2326261510057517</v>
       </c>
       <c r="CU2">
-        <v>0.2373084712495972</v>
+        <v>0.2372728502998099</v>
       </c>
       <c r="CV2">
-        <v>0.2934924383679406</v>
+        <v>0.2934645311538103</v>
       </c>
       <c r="CW2">
-        <v>0.3155577290216851</v>
+        <v>0.3155323735246917</v>
       </c>
       <c r="CX2">
-        <v>0.3567909183746408</v>
+        <v>0.3567710146207622</v>
       </c>
       <c r="CY2">
-        <v>0.4272339072692271</v>
+        <v>0.427223874583649</v>
       </c>
       <c r="CZ2">
-        <v>0.4326885735836307</v>
+        <v>0.4326785794945367</v>
       </c>
       <c r="DA2">
-        <v>0.4475590923502778</v>
+        <v>0.4475505614382723</v>
       </c>
       <c r="DB2">
-        <v>0.4476457500989179</v>
+        <v>0.4476364456252913</v>
       </c>
       <c r="DC2">
-        <v>0.5042953932099538</v>
+        <v>0.5042938729268889</v>
       </c>
       <c r="DD2">
-        <v>0.5179349009959183</v>
+        <v>0.5179346576429318</v>
       </c>
       <c r="DE2">
-        <v>0.5279415758388905</v>
+        <v>0.5279420597829696</v>
       </c>
       <c r="DF2">
-        <v>0.5286054985284719</v>
+        <v>0.5286052962487936</v>
       </c>
       <c r="DG2">
-        <v>0.5336002657500925</v>
+        <v>0.5336000324860152</v>
       </c>
       <c r="DH2">
-        <v>0.5356214986183746</v>
+        <v>0.5356207844861106</v>
       </c>
       <c r="DI2">
-        <v>0.5363941325462502</v>
+        <v>0.5363927486378018</v>
       </c>
       <c r="DJ2">
-        <v>0.5713563949976114</v>
+        <v>0.5713595140662598</v>
       </c>
       <c r="DK2">
-        <v>0.6050600344687231</v>
+        <v>0.6050674660898739</v>
       </c>
       <c r="DL2">
-        <v>0.6205875472250605</v>
+        <v>0.6205965414238479</v>
       </c>
       <c r="DM2">
-        <v>0.6409419089056534</v>
+        <v>0.6409531959649056</v>
       </c>
       <c r="DN2">
-        <v>0.6827012022503534</v>
+        <v>0.6827180206501382</v>
       </c>
       <c r="DO2">
-        <v>0.6834773171681743</v>
+        <v>0.6834934663184346</v>
       </c>
       <c r="DP2">
-        <v>0.7451460962004482</v>
+        <v>0.7451707889163476</v>
       </c>
       <c r="DQ2">
-        <v>0.7492718956357048</v>
+        <v>0.7492964258958743</v>
       </c>
       <c r="DR2">
-        <v>0.7634914834125666</v>
+        <v>0.763517378366584</v>
       </c>
       <c r="DS2">
-        <v>0.763492152282456</v>
+        <v>0.763517378366584</v>
       </c>
       <c r="DT2">
-        <v>0.7689284791971475</v>
+        <v>0.768953741103082</v>
       </c>
       <c r="DU2">
-        <v>0.7691341721739197</v>
+        <v>0.7691586785277842</v>
       </c>
       <c r="DV2">
-        <v>0.7739395180985127</v>
+        <v>0.7739639648092979</v>
       </c>
       <c r="DW2">
-        <v>0.7769519030512414</v>
+        <v>0.7769760188511637</v>
       </c>
       <c r="DX2">
-        <v>0.8004104596831223</v>
+        <v>0.8004373379957201</v>
       </c>
       <c r="DY2">
-        <v>0.800501542461693</v>
+        <v>0.8005276478821588</v>
       </c>
       <c r="DZ2">
-        <v>0.8057332408795955</v>
+        <v>0.8057593511623995</v>
       </c>
       <c r="EA2">
-        <v>0.8062752680710898</v>
+        <v>0.8063006736878378</v>
       </c>
       <c r="EB2">
-        <v>0.8081216843421153</v>
+        <v>0.8081465826416285</v>
       </c>
       <c r="EC2">
-        <v>0.8105508886039955</v>
+        <v>0.8105753677597529</v>
       </c>
       <c r="ED2">
-        <v>0.8283790453242303</v>
+        <v>0.8284054351358028</v>
       </c>
       <c r="EE2">
-        <v>0.8285470412015941</v>
+        <v>0.8285726697576771</v>
       </c>
       <c r="EF2">
-        <v>0.8458317729303566</v>
+        <v>0.845859229924239</v>
       </c>
       <c r="EG2">
-        <v>0.8458465865551241</v>
+        <v>0.8458732591176583</v>
       </c>
       <c r="EH2">
-        <v>0.8735342361206407</v>
+        <v>0.8735643110406015</v>
       </c>
       <c r="EI2">
-        <v>0.8811164874016576</v>
+        <v>0.8811469228131505</v>
       </c>
       <c r="EJ2">
-        <v>0.8826749075772024</v>
+        <v>0.8827047920988097</v>
       </c>
       <c r="EK2">
-        <v>0.8846800335457373</v>
+        <v>0.8847094347622488</v>
       </c>
       <c r="EL2">
-        <v>0.8881879709906897</v>
+        <v>0.8882171162714373</v>
       </c>
       <c r="EM2">
-        <v>0.888957177828619</v>
+        <v>0.8889856528146773</v>
       </c>
       <c r="EN2">
-        <v>0.8910916855951236</v>
+        <v>0.8911196968510318</v>
       </c>
       <c r="EO2">
-        <v>0.8985290904784136</v>
+        <v>0.8985574403111763</v>
       </c>
       <c r="EP2">
-        <v>0.898834250223625</v>
+        <v>0.8988618595532397</v>
       </c>
       <c r="EQ2">
-        <v>0.899101827519426</v>
+        <v>0.8991286906598194</v>
       </c>
       <c r="ER2">
-        <v>0.8995979399116408</v>
+        <v>0.8996240914392537</v>
       </c>
       <c r="ES2">
-        <v>0.9012152588862613</v>
+        <v>0.90124086843514</v>
       </c>
       <c r="ET2">
-        <v>0.9012269110000785</v>
+        <v>0.901251735639285</v>
       </c>
       <c r="EU2">
-        <v>0.9037073796611541</v>
+        <v>0.9037317929127023</v>
       </c>
       <c r="EV2">
-        <v>0.9070114299093059</v>
+        <v>0.9070355563777773</v>
       </c>
       <c r="EW2">
-        <v>0.9125203365228585</v>
+        <v>0.912544509794153</v>
       </c>
       <c r="EX2">
-        <v>0.9163390707629336</v>
+        <v>0.9163630351207693</v>
       </c>
       <c r="EY2">
-        <v>0.9189944271212649</v>
+        <v>0.9190180065512474</v>
       </c>
       <c r="EZ2">
-        <v>0.9189959112331416</v>
+        <v>0.9190187042150743</v>
       </c>
       <c r="FA2">
-        <v>0.9207631383054097</v>
+        <v>0.9207854119891004</v>
       </c>
       <c r="FB2">
-        <v>0.9223539149804467</v>
+        <v>0.92237564266966</v>
       </c>
       <c r="FC2">
-        <v>0.9242205576511547</v>
+        <v>0.9242417810833062</v>
       </c>
       <c r="FD2">
-        <v>0.9261558227207859</v>
+        <v>0.9261765522781685</v>
       </c>
       <c r="FE2">
-        <v>0.9330797646121332</v>
+        <v>0.9331007550614852</v>
       </c>
       <c r="FF2">
-        <v>0.9420238554717797</v>
+        <v>0.9420454124535146</v>
       </c>
       <c r="FG2">
-        <v>0.9437317713449785</v>
+        <v>0.9437528000549256</v>
       </c>
       <c r="FH2">
-        <v>0.951365733225184</v>
+        <v>0.9513871302502688</v>
       </c>
       <c r="FI2">
-        <v>0.9542699848796096</v>
+        <v>0.9542910346336984</v>
       </c>
       <c r="FJ2">
-        <v>0.955518532760017</v>
+        <v>0.9555389847417882</v>
       </c>
       <c r="FK2">
-        <v>0.9567130381412724</v>
+        <v>0.9567328841743133</v>
       </c>
       <c r="FL2">
-        <v>0.956733202263956</v>
+        <v>0.9567522646751575</v>
       </c>
       <c r="FM2">
-        <v>0.9569989758197853</v>
+        <v>0.9570172917688669</v>
       </c>
       <c r="FN2">
-        <v>0.9573504019742707</v>
+        <v>0.9573679844201258</v>
       </c>
       <c r="FO2">
-        <v>0.957421621853153</v>
+        <v>0.9574384284016993</v>
       </c>
       <c r="FP2">
-        <v>0.9577434027281035</v>
+        <v>0.9577594712882119</v>
       </c>
       <c r="FQ2">
-        <v>0.9579471203149067</v>
+        <v>0.9579624330240766</v>
       </c>
       <c r="FR2">
-        <v>0.9583392461387533</v>
+        <v>0.9583538315023932</v>
       </c>
       <c r="FS2">
-        <v>0.9614818322894388</v>
+        <v>0.9614961064411335</v>
       </c>
       <c r="FT2">
-        <v>0.961726207955604</v>
+        <v>0.961739732407764</v>
       </c>
       <c r="FU2">
-        <v>0.9656532021939804</v>
+        <v>0.9656665341119838</v>
       </c>
       <c r="FV2">
-        <v>0.9702428077219589</v>
+        <v>0.9702560473562287</v>
       </c>
       <c r="FW2">
-        <v>0.9703340302355274</v>
+        <v>0.9703464969988066</v>
       </c>
       <c r="FX2">
-        <v>0.9716907181142379</v>
+        <v>0.9717026034663463</v>
       </c>
       <c r="FY2">
-        <v>0.9754804982547675</v>
+        <v>0.9754921703127781</v>
       </c>
       <c r="FZ2">
-        <v>0.9758928533982967</v>
+        <v>0.975903801171392</v>
       </c>
       <c r="GA2">
-        <v>0.9781924580622106</v>
+        <v>0.9782029670836522</v>
       </c>
       <c r="GB2">
-        <v>0.9817652450061453</v>
+        <v>0.9817755079032913</v>
       </c>
       <c r="GC2">
-        <v>0.9819318123035314</v>
+        <v>0.9819413137290496</v>
       </c>
       <c r="GD2">
-        <v>0.9835904809775031</v>
+        <v>0.9835994466803302</v>
       </c>
       <c r="GE2">
-        <v>0.9869623822245902</v>
+        <v>0.9869710714099237</v>
       </c>
       <c r="GF2">
-        <v>0.9882656995041381</v>
+        <v>0.9882737992035439</v>
       </c>
       <c r="GG2">
-        <v>0.988320827211273</v>
+        <v>0.9883281485786891</v>
       </c>
       <c r="GH2">
-        <v>0.9885054912883752</v>
+        <v>0.9885120539221334</v>
       </c>
       <c r="GI2">
-        <v>0.9888607949527997</v>
+        <v>0.9888666246699831</v>
       </c>
       <c r="GJ2">
-        <v>0.9888861585694017</v>
+        <v>0.9888912054514082</v>
       </c>
       <c r="GK2">
-        <v>0.9908056639392802</v>
+        <v>0.9908102145621387</v>
       </c>
       <c r="GL2">
-        <v>0.9945167588810445</v>
+        <v>0.9945210843050513</v>
       </c>
       <c r="GM2">
-        <v>0.9948715422254771</v>
+        <v>0.9948751346541869</v>
       </c>
       <c r="GN2">
-        <v>0.9948899520251883</v>
+        <v>0.9948927605666366</v>
       </c>
       <c r="GO2">
-        <v>0.9950279281930231</v>
+        <v>0.9950299709371205</v>
       </c>
       <c r="GP2">
-        <v>0.9950283631080162</v>
+        <v>0.9950299709371205</v>
       </c>
       <c r="GQ2">
-        <v>0.9956873145676758</v>
+        <v>0.9956882354208955</v>
       </c>
       <c r="GR2">
-        <v>0.9981022093297804</v>
+        <v>0.9981027088742747</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.648615503197638E-06</v>
+        <v>4.731021697718321E-07</v>
       </c>
       <c r="C3">
-        <v>5.713922172078454E-06</v>
+        <v>4.731021697718321E-07</v>
       </c>
       <c r="D3">
-        <v>9.786225602289921E-06</v>
+        <v>4.731021697718321E-07</v>
       </c>
       <c r="E3">
-        <v>9.880080340681499E-06</v>
+        <v>4.731021697718321E-07</v>
       </c>
       <c r="F3">
-        <v>2.480086208497868E-05</v>
+        <v>1.022686806474138E-05</v>
       </c>
       <c r="G3">
-        <v>2.488709583350086E-05</v>
+        <v>1.022686806474138E-05</v>
       </c>
       <c r="H3">
-        <v>2.895939926371233E-05</v>
+        <v>1.022686806474138E-05</v>
       </c>
       <c r="I3">
-        <v>5.839015575934683E-05</v>
+        <v>3.450390638890564E-05</v>
       </c>
       <c r="J3">
-        <v>0.0001545671601111268</v>
+        <v>0.0001255883622209475</v>
       </c>
       <c r="K3">
-        <v>0.000199392195342944</v>
+        <v>0.0001652737873802394</v>
       </c>
       <c r="L3">
-        <v>0.0002119606971275531</v>
+        <v>0.000172673117566688</v>
       </c>
       <c r="M3">
-        <v>0.0002500838334742231</v>
+        <v>0.0002056505018802894</v>
       </c>
       <c r="N3">
-        <v>0.0002672414311801872</v>
+        <v>0.0002176431336686861</v>
       </c>
       <c r="O3">
-        <v>0.0003102151574437309</v>
+        <v>0.0002554755532261338</v>
       </c>
       <c r="P3">
-        <v>0.0003284411131313862</v>
+        <v>0.0002685375220937405</v>
       </c>
       <c r="Q3">
-        <v>0.000332577229360504</v>
+        <v>0.0002685375220937405</v>
       </c>
       <c r="R3">
-        <v>0.000337753175871802</v>
+        <v>0.0002685375220937405</v>
       </c>
       <c r="S3">
-        <v>0.0003397811753370474</v>
+        <v>0.0002685375220937405</v>
       </c>
       <c r="T3">
-        <v>0.0003451908752443394</v>
+        <v>0.0002687714897132196</v>
       </c>
       <c r="U3">
-        <v>0.0003524332596202241</v>
+        <v>0.0002708398213664246</v>
       </c>
       <c r="V3">
-        <v>0.0003898942649782413</v>
+        <v>0.000303154467880904</v>
       </c>
       <c r="W3">
-        <v>0.0003900043296463551</v>
+        <v>0.000303154467880904</v>
       </c>
       <c r="X3">
-        <v>0.0003971268945242931</v>
+        <v>0.0003051028702274886</v>
       </c>
       <c r="Y3">
-        <v>0.0004109651412871421</v>
+        <v>0.0003137731090509684</v>
       </c>
       <c r="Z3">
-        <v>0.0004519247585852023</v>
+        <v>0.0003495895738111754</v>
       </c>
       <c r="AA3">
-        <v>0.0004574987584896787</v>
+        <v>0.0003499879920007013</v>
       </c>
       <c r="AB3">
-        <v>0.0004583378573252988</v>
+        <v>0.0003499879920007013</v>
       </c>
       <c r="AC3">
-        <v>0.0004583536049660289</v>
+        <v>0.0003499879920007013</v>
       </c>
       <c r="AD3">
-        <v>0.0004676366348069423</v>
+        <v>0.0003540988392700883</v>
       </c>
       <c r="AE3">
-        <v>0.0004837336705310815</v>
+        <v>0.0003650299371237917</v>
       </c>
       <c r="AF3">
-        <v>0.0004876657174636966</v>
+        <v>0.0003650299371237917</v>
       </c>
       <c r="AG3">
-        <v>0.0004880549582570261</v>
+        <v>0.0003650299371237917</v>
       </c>
       <c r="AH3">
-        <v>0.0005028543150034042</v>
+        <v>0.0003746621667408066</v>
       </c>
       <c r="AI3">
-        <v>0.0005120601083456412</v>
+        <v>0.0003786957067280668</v>
       </c>
       <c r="AJ3">
-        <v>0.0005125326250875435</v>
+        <v>0.0003786957067280668</v>
       </c>
       <c r="AK3">
-        <v>0.0005129668368401022</v>
+        <v>0.0003786957067280668</v>
       </c>
       <c r="AL3">
-        <v>0.0005130588331285256</v>
+        <v>0.0003786957067280668</v>
       </c>
       <c r="AM3">
-        <v>0.0005279796148728228</v>
+        <v>0.0003884494726230364</v>
       </c>
       <c r="AN3">
-        <v>0.0005291211786532594</v>
+        <v>0.0003884494726230364</v>
       </c>
       <c r="AO3">
-        <v>0.0005385783874911879</v>
+        <v>0.0003927346585159182</v>
       </c>
       <c r="AP3">
-        <v>0.0005776484088216308</v>
+        <v>0.0004266597955867861</v>
       </c>
       <c r="AQ3">
-        <v>0.0005839168997142053</v>
+        <v>0.0004277533412312267</v>
       </c>
       <c r="AR3">
-        <v>0.0006092305722803958</v>
+        <v>0.0004479095225211177</v>
       </c>
       <c r="AS3">
-        <v>0.0006549100154975708</v>
+        <v>0.0004884501386886425</v>
       </c>
       <c r="AT3">
-        <v>0.0006601439164078756</v>
+        <v>0.0004885081462000042</v>
       </c>
       <c r="AU3">
-        <v>0.0006631330509566497</v>
+        <v>0.0004885081462000042</v>
       </c>
       <c r="AV3">
-        <v>0.0006868124835508467</v>
+        <v>0.0005070285898173846</v>
       </c>
       <c r="AW3">
-        <v>0.0007000192968245168</v>
+        <v>0.0005150668164739641</v>
       </c>
       <c r="AX3">
-        <v>0.0007075544402953842</v>
+        <v>0.0005174281755214565</v>
       </c>
       <c r="AY3">
-        <v>0.0007138076764882203</v>
+        <v>0.0005185064524859768</v>
       </c>
       <c r="AZ3">
-        <v>0.0007534770058083926</v>
+        <v>0.0005530314467828562</v>
       </c>
       <c r="BA3">
-        <v>0.0007548759087844191</v>
+        <v>0.0005530314467828562</v>
       </c>
       <c r="BB3">
-        <v>0.0007581233703287662</v>
+        <v>0.0005530314467828562</v>
       </c>
       <c r="BC3">
-        <v>0.000804970799525925</v>
+        <v>0.0005947411193320415</v>
       </c>
       <c r="BD3">
-        <v>0.0008155334853449084</v>
+        <v>0.0006001327953212335</v>
       </c>
       <c r="BE3">
-        <v>0.0008161119345349953</v>
+        <v>0.0006001327953212335</v>
       </c>
       <c r="BF3">
-        <v>0.0008244160633926845</v>
+        <v>0.0006032638444928146</v>
       </c>
       <c r="BG3">
-        <v>0.0008315223672709012</v>
+        <v>0.0006051959709372718</v>
       </c>
       <c r="BH3">
-        <v>0.0008330054236454855</v>
+        <v>0.0006051959709372718</v>
       </c>
       <c r="BI3">
-        <v>0.0008776198128809126</v>
+        <v>0.0006446705570534833</v>
       </c>
       <c r="BJ3">
-        <v>0.0008941271045980212</v>
+        <v>0.0006560122868795858</v>
       </c>
       <c r="BK3">
-        <v>0.0008942191008864446</v>
+        <v>0.0006560122868795858</v>
       </c>
       <c r="BL3">
-        <v>0.0008943291655545584</v>
+        <v>0.0006560122868795858</v>
       </c>
       <c r="BM3">
-        <v>0.0008970087825086368</v>
+        <v>0.0006560122868795858</v>
       </c>
       <c r="BN3">
-        <v>0.0009245098350373414</v>
+        <v>0.0006783578527580907</v>
       </c>
       <c r="BO3">
-        <v>0.0009407089507597313</v>
+        <v>0.00068939112416134</v>
       </c>
       <c r="BP3">
-        <v>0.0009429980838205017</v>
+        <v>0.00068939112416134</v>
       </c>
       <c r="BQ3">
-        <v>0.0009444271932960105</v>
+        <v>0.00068939112416134</v>
       </c>
       <c r="BR3">
-        <v>0.0009586690100519433</v>
+        <v>0.0006984653028299436</v>
       </c>
       <c r="BS3">
-        <v>0.000986603373573222</v>
+        <v>0.0007212445768092252</v>
       </c>
       <c r="BT3">
-        <v>0.0009944200229392653</v>
+        <v>0.000723887699738194</v>
       </c>
       <c r="BU3">
-        <v>0.001008280957701726</v>
+        <v>0.0007325806473537204</v>
       </c>
       <c r="BV3">
-        <v>0.001031836935298038</v>
+        <v>0.0007509775228327859</v>
       </c>
       <c r="BW3">
-        <v>0.001059236837828476</v>
+        <v>0.0007732218460140281</v>
       </c>
       <c r="BX3">
-        <v>0.001073382950586049</v>
+        <v>0.0007822002329762668</v>
       </c>
       <c r="BY3">
-        <v>0.001091177690281094</v>
+        <v>0.0007948305906630254</v>
       </c>
       <c r="BZ3">
-        <v>0.001094300034227585</v>
+        <v>0.0007948305906630254</v>
       </c>
       <c r="CA3">
-        <v>0.001094359010506575</v>
+        <v>0.0007948305906630254</v>
       </c>
       <c r="CB3">
-        <v>0.00110421085133774</v>
+        <v>0.0007995107702099472</v>
       </c>
       <c r="CC3">
-        <v>0.001107655309578711</v>
+        <v>0.0007995107702099472</v>
       </c>
       <c r="CD3">
-        <v>0.001119580248374349</v>
+        <v>0.0008062659476136136</v>
       </c>
       <c r="CE3">
-        <v>0.001124800211284893</v>
+        <v>0.0008063100043517232</v>
       </c>
       <c r="CF3">
-        <v>0.001136225222589098</v>
+        <v>0.0008125647961050114</v>
       </c>
       <c r="CG3">
-        <v>0.001142621560479482</v>
+        <v>0.0008137863059127434</v>
       </c>
       <c r="CH3">
-        <v>0.001177037526889683</v>
+        <v>0.0008430531228510505</v>
       </c>
       <c r="CI3">
-        <v>0.001202320536456399</v>
+        <v>0.0008631786130403368</v>
       </c>
       <c r="CJ3">
-        <v>0.001202958398445468</v>
+        <v>0.0008631786130403368</v>
       </c>
       <c r="CK3">
-        <v>0.001203480338736523</v>
+        <v>0.0008631786130403368</v>
       </c>
       <c r="CL3">
-        <v>0.001223116372400014</v>
+        <v>0.0008776519521508568</v>
       </c>
       <c r="CM3">
-        <v>0.001235041311195652</v>
+        <v>0.0008844071295545232</v>
       </c>
       <c r="CN3">
-        <v>0.008332549489563093</v>
+        <v>0.007983239134903942</v>
       </c>
       <c r="CO3">
-        <v>0.1021396778819565</v>
+        <v>0.1018711564544261</v>
       </c>
       <c r="CP3">
-        <v>0.1698645527213309</v>
+        <v>0.1696529171189952</v>
       </c>
       <c r="CQ3">
-        <v>0.3030902704381936</v>
+        <v>0.3029955489604053</v>
       </c>
       <c r="CR3">
-        <v>0.3036001956694549</v>
+        <v>0.3035007608230371</v>
       </c>
       <c r="CS3">
-        <v>0.3061606328255758</v>
+        <v>0.3060583638038068</v>
       </c>
       <c r="CT3">
-        <v>0.3099944330598746</v>
+        <v>0.3098904968373563</v>
       </c>
       <c r="CU3">
-        <v>0.3247073048077348</v>
+        <v>0.3246116715181755</v>
       </c>
       <c r="CV3">
-        <v>0.3391754415597891</v>
+        <v>0.3390878869156081</v>
       </c>
       <c r="CW3">
-        <v>0.3910454626708739</v>
+        <v>0.3910002636586261</v>
       </c>
       <c r="CX3">
-        <v>0.3971390041664467</v>
+        <v>0.397094208895119</v>
       </c>
       <c r="CY3">
-        <v>0.4804871527380793</v>
+        <v>0.4805135612535369</v>
       </c>
       <c r="CZ3">
-        <v>0.489297162587099</v>
+        <v>0.4893264643530515</v>
       </c>
       <c r="DA3">
-        <v>0.5089414762504474</v>
+        <v>0.5089836003732096</v>
       </c>
       <c r="DB3">
-        <v>0.5141258481616009</v>
+        <v>0.5141675428160972</v>
       </c>
       <c r="DC3">
-        <v>0.5470788475968734</v>
+        <v>0.5471455613638</v>
       </c>
       <c r="DD3">
-        <v>0.5787533140540566</v>
+        <v>0.5788438752208526</v>
       </c>
       <c r="DE3">
-        <v>0.5805788172227723</v>
+        <v>0.580665870683382</v>
       </c>
       <c r="DF3">
-        <v>0.5846960711522134</v>
+        <v>0.5847817171834374</v>
       </c>
       <c r="DG3">
-        <v>0.587113618310783</v>
+        <v>0.5871962992150044</v>
       </c>
       <c r="DH3">
-        <v>0.5874513460049953</v>
+        <v>0.587529155730018</v>
       </c>
       <c r="DI3">
-        <v>0.5908529413467009</v>
+        <v>0.590928687776458</v>
       </c>
       <c r="DJ3">
-        <v>0.6088262490386858</v>
+        <v>0.6089132864305062</v>
       </c>
       <c r="DK3">
-        <v>0.6496114343397353</v>
+        <v>0.6497306686569283</v>
       </c>
       <c r="DL3">
-        <v>0.6503026154978904</v>
+        <v>0.6504173025585918</v>
       </c>
       <c r="DM3">
-        <v>0.6877169088567081</v>
+        <v>0.6878607035861907</v>
       </c>
       <c r="DN3">
-        <v>0.702142299609495</v>
+        <v>0.7022941338097509</v>
       </c>
       <c r="DO3">
-        <v>0.7202520892991411</v>
+        <v>0.7204153395404952</v>
       </c>
       <c r="DP3">
-        <v>0.7586953936403243</v>
+        <v>0.7588886945883897</v>
       </c>
       <c r="DQ3">
-        <v>0.7865958471621842</v>
+        <v>0.7868095368129742</v>
       </c>
       <c r="DR3">
-        <v>0.796052101000129</v>
+        <v>0.7962692761522295</v>
       </c>
       <c r="DS3">
-        <v>0.7986141323562226</v>
+        <v>0.7988284747939778</v>
       </c>
       <c r="DT3">
-        <v>0.802718356785887</v>
+        <v>0.8029312798533611</v>
       </c>
       <c r="DU3">
-        <v>0.802837917053838</v>
+        <v>0.8030457690024029</v>
       </c>
       <c r="DV3">
-        <v>0.8073834323759399</v>
+        <v>0.8075902693756116</v>
       </c>
       <c r="DW3">
-        <v>0.8077372189398769</v>
+        <v>0.8079391994775139</v>
       </c>
       <c r="DX3">
-        <v>0.820786776716242</v>
+        <v>0.8209955358414309</v>
       </c>
       <c r="DY3">
-        <v>0.8256879622322486</v>
+        <v>0.8258960323627754</v>
       </c>
       <c r="DZ3">
-        <v>0.8285856271825903</v>
+        <v>0.8287911721904452</v>
       </c>
       <c r="EA3">
-        <v>0.8286139657821047</v>
+        <v>0.8288143560708799</v>
       </c>
       <c r="EB3">
-        <v>0.8294532449677217</v>
+        <v>0.82964922372456</v>
       </c>
       <c r="EC3">
-        <v>0.8308383174439852</v>
+        <v>0.8310303848615802</v>
       </c>
       <c r="ED3">
-        <v>0.8433799812290541</v>
+        <v>0.8435783617743504</v>
       </c>
       <c r="EE3">
-        <v>0.8454918531928622</v>
+        <v>0.8456869884748814</v>
       </c>
       <c r="EF3">
-        <v>0.8512144544947919</v>
+        <v>0.8514096535692969</v>
       </c>
       <c r="EG3">
-        <v>0.8521646176785086</v>
+        <v>0.8523555068408045</v>
       </c>
       <c r="EH3">
-        <v>0.8663016174362377</v>
+        <v>0.8665002817731511</v>
       </c>
       <c r="EI3">
-        <v>0.8846170981223587</v>
+        <v>0.884827367006047</v>
       </c>
       <c r="EJ3">
-        <v>0.8853909137090975</v>
+        <v>0.8855967110666819</v>
       </c>
       <c r="EK3">
-        <v>0.8894383763397347</v>
+        <v>0.8896427023076422</v>
       </c>
       <c r="EL3">
-        <v>0.889608159556825</v>
+        <v>0.8898074604326848</v>
       </c>
       <c r="EM3">
-        <v>0.8907669640369662</v>
+        <v>0.8909621462100983</v>
       </c>
       <c r="EN3">
-        <v>0.8908881966848886</v>
+        <v>0.8910783092717653</v>
       </c>
       <c r="EO3">
-        <v>0.8996958225339492</v>
+        <v>0.8998888261865021</v>
       </c>
       <c r="EP3">
-        <v>0.9038604818625779</v>
+        <v>0.9040521215304608</v>
       </c>
       <c r="EQ3">
-        <v>0.9038810563932254</v>
+        <v>0.9040675342266415</v>
       </c>
       <c r="ER3">
-        <v>0.9044969382826707</v>
+        <v>0.9046787998515209</v>
       </c>
       <c r="ES3">
-        <v>0.9044979676673531</v>
+        <v>0.9046787998515209</v>
       </c>
       <c r="ET3">
-        <v>0.9046671688244534</v>
+        <v>0.9048429753831442</v>
       </c>
       <c r="EU3">
-        <v>0.905750088305895</v>
+        <v>0.905921706616991</v>
       </c>
       <c r="EV3">
-        <v>0.9116958150040009</v>
+        <v>0.9118677015910287</v>
       </c>
       <c r="EW3">
-        <v>0.912070071947587</v>
+        <v>0.9122371208326758</v>
       </c>
       <c r="EX3">
-        <v>0.9169043348647405</v>
+        <v>0.9170706334238985</v>
       </c>
       <c r="EY3">
-        <v>0.9169192556464848</v>
+        <v>0.9170803871897935</v>
       </c>
       <c r="EZ3">
-        <v>0.9171822835219772</v>
+        <v>0.9173384754273791</v>
       </c>
       <c r="FA3">
-        <v>0.9179191003093501</v>
+        <v>0.918070786781069</v>
       </c>
       <c r="FB3">
-        <v>0.9194367208833421</v>
+        <v>0.9195846174896269</v>
       </c>
       <c r="FC3">
-        <v>0.9196705335593351</v>
+        <v>0.9198134637534205</v>
       </c>
       <c r="FD3">
-        <v>0.9231211965001999</v>
+        <v>0.9232621083670599</v>
       </c>
       <c r="FE3">
-        <v>0.9259051356524904</v>
+        <v>0.9260434181725808</v>
       </c>
       <c r="FF3">
-        <v>0.9428778973616221</v>
+        <v>0.9430265538926171</v>
       </c>
       <c r="FG3">
-        <v>0.9443836658358172</v>
+        <v>0.9445285216395118</v>
       </c>
       <c r="FH3">
-        <v>0.9489768487571022</v>
+        <v>0.9491207332969127</v>
       </c>
       <c r="FI3">
-        <v>0.9538958341728038</v>
+        <v>0.9540390460306843</v>
       </c>
       <c r="FJ3">
-        <v>0.9543381773452232</v>
+        <v>0.954476613898843</v>
       </c>
       <c r="FK3">
-        <v>0.9551715794809409</v>
+        <v>0.9553055991165966</v>
       </c>
       <c r="FL3">
-        <v>0.955278178814114</v>
+        <v>0.9554071154528015</v>
       </c>
       <c r="FM3">
-        <v>0.9553882789622272</v>
+        <v>0.9555121358122711</v>
       </c>
       <c r="FN3">
-        <v>0.9562167312480297</v>
+        <v>0.9563361666438158</v>
       </c>
       <c r="FO3">
-        <v>0.9562816013419181</v>
+        <v>0.9563959154979415</v>
       </c>
       <c r="FP3">
-        <v>0.9565462797373822</v>
+        <v>0.9566556557681192</v>
       </c>
       <c r="FQ3">
-        <v>0.9568036692629712</v>
+        <v>0.9569081004885313</v>
       </c>
       <c r="FR3">
-        <v>0.9568317057604907</v>
+        <v>0.9569309819901096</v>
       </c>
       <c r="FS3">
-        <v>0.9599321142073579</v>
+        <v>0.9600290511187428</v>
       </c>
       <c r="FT3">
-        <v>0.9629804086551181</v>
+        <v>0.9630749584883533</v>
       </c>
       <c r="FU3">
-        <v>0.9631806554516864</v>
+        <v>0.9632702081112454</v>
       </c>
       <c r="FV3">
-        <v>0.9671273266840509</v>
+        <v>0.9672153155835762</v>
       </c>
       <c r="FW3">
-        <v>0.9674157579791079</v>
+        <v>0.9674988305217106</v>
       </c>
       <c r="FX3">
-        <v>0.9680148853688405</v>
+        <v>0.9680933262922026</v>
       </c>
       <c r="FY3">
-        <v>0.9722540392961926</v>
+        <v>0.9723311845055186</v>
       </c>
       <c r="FZ3">
-        <v>0.9734679626753892</v>
+        <v>0.9735410396957462</v>
       </c>
       <c r="GA3">
-        <v>0.9746162066557112</v>
+        <v>0.9746851552951623</v>
       </c>
       <c r="GB3">
-        <v>0.983545837502681</v>
+        <v>0.9836177890193852</v>
       </c>
       <c r="GC3">
-        <v>0.984622079784237</v>
+        <v>0.9846898369340213</v>
       </c>
       <c r="GD3">
-        <v>0.9847583641619014</v>
+        <v>0.9848210655196001</v>
       </c>
       <c r="GE3">
-        <v>0.9874453191158541</v>
+        <v>0.9875053022455377</v>
       </c>
       <c r="GF3">
-        <v>0.9907926704584893</v>
+        <v>0.9908505405809515</v>
       </c>
       <c r="GG3">
-        <v>0.9909131323664249</v>
+        <v>0.9909659321962865</v>
       </c>
       <c r="GH3">
-        <v>0.9909172684826539</v>
+        <v>0.9909659321962865</v>
       </c>
       <c r="GI3">
-        <v>0.9909665817118088</v>
+        <v>0.9910101099285777</v>
       </c>
       <c r="GJ3">
-        <v>0.9911572403885415</v>
+        <v>0.9911957626445941</v>
       </c>
       <c r="GK3">
-        <v>0.9914525109634813</v>
+        <v>0.9914861231304747</v>
       </c>
       <c r="GL3">
-        <v>0.9941562938171457</v>
+        <v>0.9941872031780659</v>
       </c>
       <c r="GM3">
-        <v>0.9951524156000747</v>
+        <v>0.9951790571675806</v>
       </c>
       <c r="GN3">
-        <v>0.9951606641879334</v>
+        <v>0.9951821326248526</v>
       </c>
       <c r="GO3">
-        <v>0.9954435142830861</v>
+        <v>0.9954600612481875</v>
       </c>
       <c r="GP3">
-        <v>0.9957629355976121</v>
+        <v>0.9957745946066187</v>
       </c>
       <c r="GQ3">
-        <v>0.9958366310713491</v>
+        <v>0.9958431769286195</v>
       </c>
       <c r="GR3">
-        <v>0.9977544425384829</v>
+        <v>0.9977575652855802</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>7.768340062672662E-06</v>
+        <v>1.299976486625167E-06</v>
       </c>
       <c r="C4">
-        <v>8.804887071035216E-06</v>
+        <v>1.299976486625167E-06</v>
       </c>
       <c r="D4">
-        <v>1.103834278905407E-05</v>
+        <v>1.299976486625167E-06</v>
       </c>
       <c r="E4">
-        <v>1.107327646633591E-05</v>
+        <v>1.299976486625167E-06</v>
       </c>
       <c r="F4">
-        <v>3.090858262636127E-05</v>
+        <v>1.468155551048176E-05</v>
       </c>
       <c r="G4">
-        <v>8.015453302366297E-05</v>
+        <v>5.750945195762522E-05</v>
       </c>
       <c r="H4">
-        <v>9.280203712569928E-05</v>
+        <v>6.36945105901658E-05</v>
       </c>
       <c r="I4">
-        <v>0.0001083328252509971</v>
+        <v>7.276635048072589E-05</v>
       </c>
       <c r="J4">
-        <v>0.0001685669677369483</v>
+        <v>0.0001265957669741499</v>
       </c>
       <c r="K4">
-        <v>0.0002347098282705692</v>
+        <v>0.000186341068403405</v>
       </c>
       <c r="L4">
-        <v>0.0002527602244161945</v>
+        <v>0.0001979355724338681</v>
       </c>
       <c r="M4">
-        <v>0.0002590359980668255</v>
+        <v>0.0001979355724338681</v>
       </c>
       <c r="N4">
-        <v>0.0002820741342526904</v>
+        <v>0.0002145238663067033</v>
       </c>
       <c r="O4">
-        <v>0.0002909513393243091</v>
+        <v>0.0002169340527829354</v>
       </c>
       <c r="P4">
-        <v>0.0002950320093572307</v>
+        <v>0.0002169340527829354</v>
       </c>
       <c r="Q4">
-        <v>0.000295558093461475</v>
+        <v>0.0002169340527829354</v>
       </c>
       <c r="R4">
-        <v>0.0003129608396018752</v>
+        <v>0.0002278801212511173</v>
       </c>
       <c r="S4">
-        <v>0.0003194307780540727</v>
+        <v>0.0002278801212511173</v>
       </c>
       <c r="T4">
-        <v>0.0003311092051482908</v>
+        <v>0.0002330949274488725</v>
       </c>
       <c r="U4">
-        <v>0.000350171163302077</v>
+        <v>0.0002457022204459878</v>
       </c>
       <c r="V4">
-        <v>0.000372496227482189</v>
+        <v>0.0002615765774034105</v>
       </c>
       <c r="W4">
-        <v>0.0003939813596555247</v>
+        <v>0.0002766099835715211</v>
       </c>
       <c r="X4">
-        <v>0.0004230501168900428</v>
+        <v>0.0002992362132415303</v>
       </c>
       <c r="Y4">
-        <v>0.0004728662632919447</v>
+        <v>0.000342634997303698</v>
       </c>
       <c r="Z4">
-        <v>0.0005007042445165333</v>
+        <v>0.0003640289581130539</v>
       </c>
       <c r="AA4">
-        <v>0.0005407396598395271</v>
+        <v>0.0003976351477098375</v>
       </c>
       <c r="AB4">
-        <v>0.0005570023149707294</v>
+        <v>0.0004074397423130666</v>
       </c>
       <c r="AC4">
-        <v>0.0005669941430513405</v>
+        <v>0.0004109659037630292</v>
       </c>
       <c r="AD4">
-        <v>0.0006446860436781358</v>
+        <v>0.0004822742535150015</v>
       </c>
       <c r="AE4">
-        <v>0.0006789441239545198</v>
+        <v>0.0005100961005359931</v>
       </c>
       <c r="AF4">
-        <v>0.0006990084591163929</v>
+        <v>0.0005237069863588827</v>
       </c>
       <c r="AG4">
-        <v>0.0007036698611539998</v>
+        <v>0.0005237069863588827</v>
       </c>
       <c r="AH4">
-        <v>0.0007113782917161891</v>
+        <v>0.0005249469806787226</v>
       </c>
       <c r="AI4">
-        <v>0.0007189337329771442</v>
+        <v>0.0005260338001313216</v>
       </c>
       <c r="AJ4">
-        <v>0.0007683597683758987</v>
+        <v>0.000569042000011235</v>
       </c>
       <c r="AK4">
-        <v>0.0008093481847065811</v>
+        <v>0.0006036023465435386</v>
       </c>
       <c r="AL4">
-        <v>0.000840504497957941</v>
+        <v>0.0006283186642991705</v>
       </c>
       <c r="AM4">
-        <v>0.0008497677570326743</v>
+        <v>0.0006311153730367489</v>
       </c>
       <c r="AN4">
-        <v>0.0009320079076961633</v>
+        <v>0.0007069774895549459</v>
       </c>
       <c r="AO4">
-        <v>0.001051136758657259</v>
+        <v>0.0008197730499491901</v>
       </c>
       <c r="AP4">
-        <v>0.001066667546782557</v>
+        <v>0.0008288448898397502</v>
       </c>
       <c r="AQ4">
-        <v>0.001070142728610594</v>
+        <v>0.0008288448898397502</v>
       </c>
       <c r="AR4">
-        <v>0.001106663946905236</v>
+        <v>0.0008589326199172536</v>
       </c>
       <c r="AS4">
-        <v>0.00112301356903714</v>
+        <v>0.0008688242870064626</v>
       </c>
       <c r="AT4">
-        <v>0.001123038918717345</v>
+        <v>0.0008688242870064626</v>
       </c>
       <c r="AU4">
-        <v>0.001129705979771133</v>
+        <v>0.0008690216487048635</v>
       </c>
       <c r="AV4">
-        <v>0.001129878704782526</v>
+        <v>0.0008690216487048635</v>
       </c>
       <c r="AW4">
-        <v>0.00113331385481024</v>
+        <v>0.0008690216487048635</v>
       </c>
       <c r="AX4">
-        <v>0.001135390758826996</v>
+        <v>0.0008690216487048635</v>
       </c>
       <c r="AY4">
-        <v>0.001137510744844099</v>
+        <v>0.0008690216487048635</v>
       </c>
       <c r="AZ4">
-        <v>0.001144591837401227</v>
+        <v>0.0008696335440997124</v>
       </c>
       <c r="BA4">
-        <v>0.001144613874091405</v>
+        <v>0.0008696335440997124</v>
       </c>
       <c r="BB4">
-        <v>0.001156380081186331</v>
+        <v>0.0008749362367695699</v>
       </c>
       <c r="BC4">
-        <v>0.001200915366545629</v>
+        <v>0.0009130477544504147</v>
       </c>
       <c r="BD4">
-        <v>0.001219977324699415</v>
+        <v>0.00092565504744753</v>
       </c>
       <c r="BE4">
-        <v>0.001248086511926192</v>
+        <v>0.0009473205432141993</v>
       </c>
       <c r="BF4">
-        <v>0.001260840003029083</v>
+        <v>0.0009536117174028882</v>
       </c>
       <c r="BG4">
-        <v>0.001292450175284104</v>
+        <v>0.0009787824446634398</v>
       </c>
       <c r="BH4">
-        <v>0.001408013032216431</v>
+        <v>0.001088007685711616</v>
       </c>
       <c r="BI4">
-        <v>0.001433989390426001</v>
+        <v>0.001107537765479111</v>
       </c>
       <c r="BJ4">
-        <v>0.001441070482983129</v>
+        <v>0.00110814966087396</v>
       </c>
       <c r="BK4">
-        <v>0.001473991295248724</v>
+        <v>0.001134632617865614</v>
       </c>
       <c r="BL4">
-        <v>0.001484809988336006</v>
+        <v>0.001138986647255367</v>
       </c>
       <c r="BM4">
-        <v>0.001491543414390329</v>
+        <v>0.001139250454450705</v>
       </c>
       <c r="BN4">
-        <v>0.001496833600433009</v>
+        <v>0.001139250454450705</v>
       </c>
       <c r="BO4">
-        <v>0.001510789826545603</v>
+        <v>0.001146745822487923</v>
       </c>
       <c r="BP4">
-        <v>0.001547001823837751</v>
+        <v>0.0011765239564981</v>
       </c>
       <c r="BQ4">
-        <v>0.00156105399495112</v>
+        <v>0.001184115385911097</v>
       </c>
       <c r="BR4">
-        <v>0.001565939444490534</v>
+        <v>0.001184115385911097</v>
       </c>
       <c r="BS4">
-        <v>0.001641352279098943</v>
+        <v>0.001253141905286808</v>
       </c>
       <c r="BT4">
-        <v>0.001783919720249135</v>
+        <v>0.001389404485345575</v>
       </c>
       <c r="BU4">
-        <v>0.001878196061009728</v>
+        <v>0.001477317391071482</v>
       </c>
       <c r="BV4">
-        <v>0.001913184301292003</v>
+        <v>0.001505870283734649</v>
       </c>
       <c r="BW4">
-        <v>0.001932452785447455</v>
+        <v>0.00151868435323595</v>
       </c>
       <c r="BX4">
-        <v>0.001988197255897185</v>
+        <v>0.001568018652014901</v>
       </c>
       <c r="BY4">
-        <v>0.002061400046487763</v>
+        <v>0.001634832446734075</v>
       </c>
       <c r="BZ4">
-        <v>0.002098543660787427</v>
+        <v>0.001665543327742207</v>
       </c>
       <c r="CA4">
-        <v>0.00215034070820531</v>
+        <v>0.001710925415523603</v>
       </c>
       <c r="CB4">
-        <v>0.002176035585412609</v>
+        <v>0.0017301736728708</v>
       </c>
       <c r="CC4">
-        <v>0.002176057017349782</v>
+        <v>0.0017301736728708</v>
       </c>
       <c r="CD4">
-        <v>0.002176071599819399</v>
+        <v>0.0017301736728708</v>
       </c>
       <c r="CE4">
-        <v>0.002176089994852548</v>
+        <v>0.0017301736728708</v>
       </c>
       <c r="CF4">
-        <v>0.002184158448917642</v>
+        <v>0.001731774127378484</v>
       </c>
       <c r="CG4">
-        <v>0.00220552490409002</v>
+        <v>0.001746688712598204</v>
       </c>
       <c r="CH4">
-        <v>0.002229077814280038</v>
+        <v>0.001763792404862358</v>
       </c>
       <c r="CI4">
-        <v>0.002291959048787345</v>
+        <v>0.001820272124126461</v>
       </c>
       <c r="CJ4">
-        <v>0.002330547752098668</v>
+        <v>0.001852429846944616</v>
       </c>
       <c r="CK4">
-        <v>0.002353605580284691</v>
+        <v>0.001869037856702717</v>
       </c>
       <c r="CL4">
-        <v>0.002441559040994274</v>
+        <v>0.001950620213138056</v>
       </c>
       <c r="CM4">
-        <v>0.002452976096086383</v>
+        <v>0.001955573330306575</v>
       </c>
       <c r="CN4">
-        <v>0.04578663344568946</v>
+        <v>0.04533531378325284</v>
       </c>
       <c r="CO4">
-        <v>0.06484326459943271</v>
+        <v>0.06440858159692646</v>
       </c>
       <c r="CP4">
-        <v>0.1880069155930805</v>
+        <v>0.187715144249916</v>
       </c>
       <c r="CQ4">
-        <v>0.2441800730462688</v>
+        <v>0.2439499582794997</v>
       </c>
       <c r="CR4">
-        <v>0.2469460170685836</v>
+        <v>0.2467127794247695</v>
       </c>
       <c r="CS4">
-        <v>0.2481224445780747</v>
+        <v>0.2478841560777475</v>
       </c>
       <c r="CT4">
-        <v>0.2555669222381345</v>
+        <v>0.2553311856157717</v>
       </c>
       <c r="CU4">
-        <v>0.2666993563279477</v>
+        <v>0.2664706448332562</v>
       </c>
       <c r="CV4">
-        <v>0.3102940706796569</v>
+        <v>0.3101117589333613</v>
       </c>
       <c r="CW4">
-        <v>0.3384156059065331</v>
+        <v>0.3382609259553495</v>
       </c>
       <c r="CX4">
-        <v>0.3631912841064159</v>
+        <v>0.3630601776448164</v>
       </c>
       <c r="CY4">
-        <v>0.44164534473936</v>
+        <v>0.4416029201310319</v>
       </c>
       <c r="CZ4">
-        <v>0.4471119347834628</v>
+        <v>0.4470696630049087</v>
       </c>
       <c r="DA4">
-        <v>0.4628868449107301</v>
+        <v>0.4628572292793482</v>
       </c>
       <c r="DB4">
-        <v>0.4642828314219925</v>
+        <v>0.4642484312447927</v>
       </c>
       <c r="DC4">
-        <v>0.513309864817528</v>
+        <v>0.5133284534360825</v>
       </c>
       <c r="DD4">
-        <v>0.5394967190287958</v>
+        <v>0.5395405928010496</v>
       </c>
       <c r="DE4">
-        <v>0.5472473440913256</v>
+        <v>0.5472941410783001</v>
       </c>
       <c r="DF4">
-        <v>0.5479050640966319</v>
+        <v>0.5479461810688494</v>
       </c>
       <c r="DG4">
-        <v>0.5520091927297428</v>
+        <v>0.5520488099552402</v>
       </c>
       <c r="DH4">
-        <v>0.553808115644256</v>
+        <v>0.5538434370594132</v>
       </c>
       <c r="DI4">
-        <v>0.5555929296586554</v>
+        <v>0.5556239381503002</v>
       </c>
       <c r="DJ4">
-        <v>0.5867276559098411</v>
+        <v>0.5867899510000436</v>
       </c>
       <c r="DK4">
-        <v>0.6231647022038044</v>
+        <v>0.6232647152596453</v>
       </c>
       <c r="DL4">
-        <v>0.6333109832856616</v>
+        <v>0.6334168253301364</v>
       </c>
       <c r="DM4">
-        <v>0.6603180135035464</v>
+        <v>0.6604501355215214</v>
       </c>
       <c r="DN4">
-        <v>0.6929033437664351</v>
+        <v>0.6930685118706662</v>
       </c>
       <c r="DO4">
-        <v>0.6958069307898604</v>
+        <v>0.6959691429689956</v>
       </c>
       <c r="DP4">
-        <v>0.7567385172814384</v>
+        <v>0.7569681576998688</v>
       </c>
       <c r="DQ4">
-        <v>0.7664909833601183</v>
+        <v>0.7667259750953661</v>
       </c>
       <c r="DR4">
-        <v>0.7802688074712737</v>
+        <v>0.7805140330191009</v>
       </c>
       <c r="DS4">
-        <v>0.7802792781963581</v>
+        <v>0.7805180386584255</v>
       </c>
       <c r="DT4">
-        <v>0.7853477302372489</v>
+        <v>0.7855861606137576</v>
       </c>
       <c r="DU4">
-        <v>0.785462149368172</v>
+        <v>0.7856942407415318</v>
       </c>
       <c r="DV4">
-        <v>0.7892128819984319</v>
+        <v>0.7894430449788561</v>
       </c>
       <c r="DW4">
-        <v>0.792346255023711</v>
+        <v>0.792573740794416</v>
       </c>
       <c r="DX4">
-        <v>0.8132543821923915</v>
+        <v>0.8135007503664797</v>
       </c>
       <c r="DY4">
-        <v>0.8138886441975086</v>
+        <v>0.8141293039038213</v>
       </c>
       <c r="DZ4">
-        <v>0.8177341797285332</v>
+        <v>0.8179730260316225</v>
       </c>
       <c r="EA4">
-        <v>0.8180785410513114</v>
+        <v>0.8183113272560767</v>
       </c>
       <c r="EB4">
-        <v>0.8189168425580745</v>
+        <v>0.8191441677816219</v>
       </c>
       <c r="EC4">
-        <v>0.8210625282753853</v>
+        <v>0.8212859782891705</v>
       </c>
       <c r="ED4">
-        <v>0.8357952933942449</v>
+        <v>0.836030135501534</v>
       </c>
       <c r="EE4">
-        <v>0.8362141097076238</v>
+        <v>0.8364429820256182</v>
       </c>
       <c r="EF4">
-        <v>0.8473573677975242</v>
+        <v>0.8475932783719935</v>
       </c>
       <c r="EG4">
-        <v>0.847385476984751</v>
+        <v>0.8476149438677602</v>
       </c>
       <c r="EH4">
-        <v>0.8734355941949156</v>
+        <v>0.8736901803785937</v>
       </c>
       <c r="EI4">
-        <v>0.8871983753059496</v>
+        <v>0.8874631770560328</v>
       </c>
       <c r="EJ4">
-        <v>0.8875432126087316</v>
+        <v>0.8878019548378234</v>
       </c>
       <c r="EK4">
-        <v>0.8911157916375541</v>
+        <v>0.8913723893850551</v>
       </c>
       <c r="EL4">
-        <v>0.8925269929489392</v>
+        <v>0.8927788246051789</v>
       </c>
       <c r="EM4">
-        <v>0.8933614683556715</v>
+        <v>0.8936078343898843</v>
       </c>
       <c r="EN4">
-        <v>0.8945966508656367</v>
+        <v>0.8948380373093054</v>
       </c>
       <c r="EO4">
-        <v>0.9023811699284399</v>
+        <v>0.9026255206980327</v>
       </c>
       <c r="EP4">
-        <v>0.9032984507358403</v>
+        <v>0.9035374363209361</v>
       </c>
       <c r="EQ4">
-        <v>0.9033254616720582</v>
+        <v>0.9035580022335873</v>
       </c>
       <c r="ER4">
-        <v>0.9038588411763613</v>
+        <v>0.904085550906246</v>
       </c>
       <c r="ES4">
-        <v>0.9049855399854512</v>
+        <v>0.9052071385411649</v>
       </c>
       <c r="ET4">
-        <v>0.9049941142625203</v>
+        <v>0.9052092454322068</v>
       </c>
       <c r="EU4">
-        <v>0.9071673936800537</v>
+        <v>0.9073786831093299</v>
       </c>
       <c r="EV4">
-        <v>0.9120711051196154</v>
+        <v>0.9122818646437687</v>
       </c>
       <c r="EW4">
-        <v>0.9156495708484854</v>
+        <v>0.9158581930312297</v>
       </c>
       <c r="EX4">
-        <v>0.9203715808865812</v>
+        <v>0.9205794527722982</v>
       </c>
       <c r="EY4">
-        <v>0.9210045521216879</v>
+        <v>0.9212067139740099</v>
       </c>
       <c r="EZ4">
-        <v>0.9210322549939114</v>
+        <v>0.9212279726619398</v>
       </c>
       <c r="FA4">
-        <v>0.9225503909061593</v>
+        <v>0.9227414721875963</v>
       </c>
       <c r="FB4">
-        <v>0.9239414386173819</v>
+        <v>0.9241277293625598</v>
       </c>
       <c r="FC4">
-        <v>0.9257003515315723</v>
+        <v>0.925882297936899</v>
       </c>
       <c r="FD4">
-        <v>0.927067747942604</v>
+        <v>0.927244875124193</v>
       </c>
       <c r="FE4">
-        <v>0.9326292239874724</v>
+        <v>0.9328066190893424</v>
       </c>
       <c r="FF4">
-        <v>0.9457470520933031</v>
+        <v>0.9459338804758065</v>
       </c>
       <c r="FG4">
-        <v>0.9458342856840068</v>
+        <v>0.9460147420890809</v>
       </c>
       <c r="FH4">
-        <v>0.9520915031344882</v>
+        <v>0.9522730713486196</v>
       </c>
       <c r="FI4">
-        <v>0.9565412338703874</v>
+        <v>0.9567217215305235</v>
       </c>
       <c r="FJ4">
-        <v>0.9572329154759677</v>
+        <v>0.9574077643145446</v>
       </c>
       <c r="FK4">
-        <v>0.9580057387122026</v>
+        <v>0.958175047148706</v>
       </c>
       <c r="FL4">
-        <v>0.9580402975754815</v>
+        <v>0.9582031701435596</v>
       </c>
       <c r="FM4">
-        <v>0.9583143693376927</v>
+        <v>0.9584710965508114</v>
       </c>
       <c r="FN4">
-        <v>0.9585859003398833</v>
+        <v>0.9587364791162672</v>
       </c>
       <c r="FO4">
-        <v>0.9585948663779557</v>
+        <v>0.9587389782434929</v>
       </c>
       <c r="FP4">
-        <v>0.9588162162997415</v>
+        <v>0.9589541188621785</v>
       </c>
       <c r="FQ4">
-        <v>0.9590340859914992</v>
+        <v>0.9591657750295449</v>
       </c>
       <c r="FR4">
-        <v>0.9592861885935331</v>
+        <v>0.9594117056294665</v>
       </c>
       <c r="FS4">
-        <v>0.9633955093266858</v>
+        <v>0.9635195329135766</v>
       </c>
       <c r="FT4">
-        <v>0.9649158039389512</v>
+        <v>0.9650351937576123</v>
       </c>
       <c r="FU4">
-        <v>0.9666011371525479</v>
+        <v>0.9667160933839981</v>
       </c>
       <c r="FV4">
-        <v>0.9705797671846463</v>
+        <v>0.9706930714477895</v>
       </c>
       <c r="FW4">
-        <v>0.9707205037657818</v>
+        <v>0.9708275009471201</v>
       </c>
       <c r="FX4">
-        <v>0.9716936169736325</v>
+        <v>0.9717953166915205</v>
       </c>
       <c r="FY4">
-        <v>0.974738414998197</v>
+        <v>0.9748373300706887</v>
       </c>
       <c r="FZ4">
-        <v>0.9752878055626294</v>
+        <v>0.9753809092238444</v>
       </c>
       <c r="GA4">
-        <v>0.9779218691838802</v>
+        <v>0.9780116900057575</v>
       </c>
       <c r="GB4">
-        <v>0.9844496562365445</v>
+        <v>0.984540917050693</v>
       </c>
       <c r="GC4">
-        <v>0.9845696710115127</v>
+        <v>0.9846545996096623</v>
       </c>
       <c r="GD4">
-        <v>0.9855024223190378</v>
+        <v>0.9855820044973943</v>
       </c>
       <c r="GE4">
-        <v>0.9889246595466474</v>
+        <v>0.9890019148886507</v>
       </c>
       <c r="GF4">
-        <v>0.9913433568661608</v>
+        <v>0.991417068143602</v>
       </c>
       <c r="GG4">
-        <v>0.9915309484276742</v>
+        <v>0.9915984094553344</v>
       </c>
       <c r="GH4">
-        <v>0.9915495652618244</v>
+        <v>0.9916105710844216</v>
       </c>
       <c r="GI4">
-        <v>0.9916286190024621</v>
+        <v>0.9916832429260074</v>
       </c>
       <c r="GJ4">
-        <v>0.9917491511334345</v>
+        <v>0.9917974434684997</v>
       </c>
       <c r="GK4">
-        <v>0.9925904245402217</v>
+        <v>0.992633259498789</v>
       </c>
       <c r="GL4">
-        <v>0.9949206235590211</v>
+        <v>0.9949598071103812</v>
       </c>
       <c r="GM4">
-        <v>0.9951247746506682</v>
+        <v>0.9951577280378732</v>
       </c>
       <c r="GN4">
-        <v>0.9951634972609805</v>
+        <v>0.9951900198301128</v>
       </c>
       <c r="GO4">
-        <v>0.9954179828630336</v>
+        <v>0.9954383363204766</v>
       </c>
       <c r="GP4">
-        <v>0.9954885769936032</v>
+        <v>0.995502538291041</v>
       </c>
       <c r="GQ4">
-        <v>0.9958685456666686</v>
+        <v>0.9958764900551672</v>
       </c>
       <c r="GR4">
-        <v>0.9981814501853284</v>
+        <v>0.9981857221895235</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.409405275869703E-05</v>
+        <v>9.293377102463667E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001434738389585207</v>
+        <v>0.0001411432638402173</v>
       </c>
       <c r="D5">
-        <v>0.0001512009173638591</v>
+        <v>0.0001476907227027578</v>
       </c>
       <c r="E5">
-        <v>0.0001654497452672959</v>
+        <v>0.0001607613913014723</v>
       </c>
       <c r="F5">
-        <v>0.0001706246278690465</v>
+        <v>0.0001647560829165984</v>
       </c>
       <c r="G5">
-        <v>0.000192394380193687</v>
+        <v>0.0001853493598926708</v>
       </c>
       <c r="H5">
-        <v>0.0002598828109999031</v>
+        <v>0.000251671551891159</v>
       </c>
       <c r="I5">
-        <v>0.0002751585478243109</v>
+        <v>0.0002657693593386433</v>
       </c>
       <c r="J5">
-        <v>0.0002763396330334168</v>
+        <v>0.0002657693593386433</v>
       </c>
       <c r="K5">
-        <v>0.0002779024721131436</v>
+        <v>0.0002661511986850308</v>
       </c>
       <c r="L5">
-        <v>0.0002807777278918692</v>
+        <v>0.0002678457485842113</v>
       </c>
       <c r="M5">
-        <v>0.0002816304310662468</v>
+        <v>0.0002678457485842113</v>
       </c>
       <c r="N5">
-        <v>0.000282041639194601</v>
+        <v>0.0002678457485842113</v>
       </c>
       <c r="O5">
-        <v>0.0002884018879051281</v>
+        <v>0.0002730260717149233</v>
       </c>
       <c r="P5">
-        <v>0.00029106175110043</v>
+        <v>0.0002745051808036741</v>
       </c>
       <c r="Q5">
-        <v>0.0002913140083310167</v>
+        <v>0.0002745051808036741</v>
       </c>
       <c r="R5">
-        <v>0.0002941711618111355</v>
+        <v>0.0002761816243510922</v>
       </c>
       <c r="S5">
-        <v>0.0002966407919210774</v>
+        <v>0.0002774704577607596</v>
       </c>
       <c r="T5">
-        <v>0.0002993984181088556</v>
+        <v>0.0002790473517313961</v>
       </c>
       <c r="U5">
-        <v>0.0003382691491174366</v>
+        <v>0.0003167454363486868</v>
       </c>
       <c r="V5">
-        <v>0.0003415420555655598</v>
+        <v>0.0003188377259523694</v>
       </c>
       <c r="W5">
-        <v>0.0003415431036819792</v>
+        <v>0.0003188377259523694</v>
       </c>
       <c r="X5">
-        <v>0.0003817208835899721</v>
+        <v>0.0003578431521210009</v>
       </c>
       <c r="Y5">
-        <v>0.0004247722742768173</v>
+        <v>0.0003997228324780291</v>
       </c>
       <c r="Z5">
-        <v>0.0004278859653371934</v>
+        <v>0.000401655871045191</v>
       </c>
       <c r="AA5">
-        <v>0.0004462831339213816</v>
+        <v>0.0004188758091498156</v>
       </c>
       <c r="AB5">
-        <v>0.0004889456426381545</v>
+        <v>0.0004603665204650034</v>
       </c>
       <c r="AC5">
-        <v>0.0004895009810954166</v>
+        <v>0.0004603665204650034</v>
       </c>
       <c r="AD5">
-        <v>0.0005220520985903433</v>
+        <v>0.0004917435765893803</v>
       </c>
       <c r="AE5">
-        <v>0.0005337371746910816</v>
+        <v>0.000502249919354149</v>
       </c>
       <c r="AF5">
-        <v>0.0005337995694902799</v>
+        <v>0.000502249919354149</v>
       </c>
       <c r="AG5">
-        <v>0.0005357144506429142</v>
+        <v>0.0005029838795966553</v>
       </c>
       <c r="AH5">
-        <v>0.0006186369542613529</v>
+        <v>0.0005847436001397258</v>
       </c>
       <c r="AI5">
-        <v>0.000686125385067569</v>
+        <v>0.000651065792138214</v>
       </c>
       <c r="AJ5">
-        <v>0.0006868977923081259</v>
+        <v>0.000651065792138214</v>
       </c>
       <c r="AK5">
-        <v>0.0007227482225491436</v>
+        <v>0.0006857428997340955</v>
       </c>
       <c r="AL5">
-        <v>0.000822395990880437</v>
+        <v>0.0007842316298238826</v>
       </c>
       <c r="AM5">
-        <v>0.0008607793819265227</v>
+        <v>0.0008214422653618884</v>
       </c>
       <c r="AN5">
-        <v>0.0008651131779930019</v>
+        <v>0.0008245956821200996</v>
       </c>
       <c r="AO5">
-        <v>0.0008725135321234844</v>
+        <v>0.000830816343553299</v>
       </c>
       <c r="AP5">
-        <v>0.0009144727988943774</v>
+        <v>0.0008716036554647553</v>
       </c>
       <c r="AQ5">
-        <v>0.0009609738053157465</v>
+        <v>0.0009169337239349835</v>
       </c>
       <c r="AR5">
-        <v>0.0009614647270779662</v>
+        <v>0.0009169337239349835</v>
       </c>
       <c r="AS5">
-        <v>0.0009768148518966493</v>
+        <v>0.0009311059360324243</v>
       </c>
       <c r="AT5">
-        <v>0.0009772192319655289</v>
+        <v>0.0009311059360324243</v>
       </c>
       <c r="AU5">
-        <v>0.0009813092293507702</v>
+        <v>0.0009340154995221866</v>
       </c>
       <c r="AV5">
-        <v>0.0009841163986347356</v>
+        <v>0.0009356419476818491</v>
       </c>
       <c r="AW5">
-        <v>0.001037898006495803</v>
+        <v>0.0009882542477389377</v>
       </c>
       <c r="AX5">
-        <v>0.001082324378076832</v>
+        <v>0.001031509216852244</v>
       </c>
       <c r="AY5">
-        <v>0.001089776535203328</v>
+        <v>0.001037781692880293</v>
       </c>
       <c r="AZ5">
-        <v>0.001139081214408932</v>
+        <v>0.001085916061884987</v>
       </c>
       <c r="BA5">
-        <v>0.001256229791393396</v>
+        <v>0.001201909519108278</v>
       </c>
       <c r="BB5">
-        <v>0.001347079370401781</v>
+        <v>0.001291598089935795</v>
       </c>
       <c r="BC5">
-        <v>0.001363494672138491</v>
+        <v>0.001306835717447373</v>
       </c>
       <c r="BD5">
-        <v>0.001393657859817188</v>
+        <v>0.001335824309091311</v>
       </c>
       <c r="BE5">
-        <v>0.001428211351158015</v>
+        <v>0.001369204187398731</v>
       </c>
       <c r="BF5">
-        <v>0.001432160818454072</v>
+        <v>0.001371973189334226</v>
       </c>
       <c r="BG5">
-        <v>0.001437403488050606</v>
+        <v>0.001376035683121834</v>
       </c>
       <c r="BH5">
-        <v>0.001441902058704404</v>
+        <v>0.001379353911360859</v>
       </c>
       <c r="BI5">
-        <v>0.001485933375315836</v>
+        <v>0.001422213737050647</v>
       </c>
       <c r="BJ5">
-        <v>0.001493385532442332</v>
+        <v>0.001428486213078697</v>
       </c>
       <c r="BK5">
-        <v>0.00150303574169967</v>
+        <v>0.001436957233387649</v>
       </c>
       <c r="BL5">
-        <v>0.001507186027380271</v>
+        <v>0.001439927098671491</v>
       </c>
       <c r="BM5">
-        <v>0.001519488222433517</v>
+        <v>0.001451050698563439</v>
       </c>
       <c r="BN5">
-        <v>0.00152063724934509</v>
+        <v>0.001451050698563439</v>
       </c>
       <c r="BO5">
-        <v>0.001528037603475573</v>
+        <v>0.001457271359996638</v>
       </c>
       <c r="BP5">
-        <v>0.001551072450702854</v>
+        <v>0.001479130015133662</v>
       </c>
       <c r="BQ5">
-        <v>0.001560539007474326</v>
+        <v>0.00148741734183644</v>
       </c>
       <c r="BR5">
-        <v>0.001564392263177786</v>
+        <v>0.001490090110637292</v>
       </c>
       <c r="BS5">
-        <v>0.001564644520408373</v>
+        <v>0.001490090110637292</v>
       </c>
       <c r="BT5">
-        <v>0.001575927006540094</v>
+        <v>0.001500193773292016</v>
       </c>
       <c r="BU5">
-        <v>0.001645877511156833</v>
+        <v>0.001568978590366286</v>
       </c>
       <c r="BV5">
-        <v>0.001645878559273253</v>
+        <v>0.001568978590366286</v>
       </c>
       <c r="BW5">
-        <v>0.001702977068879058</v>
+        <v>0.001624908534831752</v>
       </c>
       <c r="BX5">
-        <v>0.001703124099867742</v>
+        <v>0.001624908534831752</v>
       </c>
       <c r="BY5">
-        <v>0.001709214612999028</v>
+        <v>0.001629819061988666</v>
       </c>
       <c r="BZ5">
-        <v>0.001724564737817711</v>
+        <v>0.001643991274086107</v>
       </c>
       <c r="CA5">
-        <v>0.001773661081039348</v>
+        <v>0.00169191726045982</v>
       </c>
       <c r="CB5">
-        <v>0.001818882857559164</v>
+        <v>0.001735967812605319</v>
       </c>
       <c r="CC5">
-        <v>0.001835298159295873</v>
+        <v>0.001751205440116897</v>
       </c>
       <c r="CD5">
-        <v>0.001836141017301009</v>
+        <v>0.001751205440116897</v>
       </c>
       <c r="CE5">
-        <v>0.001900886052318351</v>
+        <v>0.00181478362207247</v>
       </c>
       <c r="CF5">
-        <v>0.001942776089094572</v>
+        <v>0.001855501688488464</v>
       </c>
       <c r="CG5">
-        <v>0.001943018889405887</v>
+        <v>0.001855501688488464</v>
       </c>
       <c r="CH5">
-        <v>0.001944508348891261</v>
+        <v>0.0018558101318106</v>
       </c>
       <c r="CI5">
-        <v>0.001953314261213574</v>
+        <v>0.001863436666144068</v>
       </c>
       <c r="CJ5">
-        <v>0.001953869599670836</v>
+        <v>0.001863436666144068</v>
       </c>
       <c r="CK5">
-        <v>0.001968006532582884</v>
+        <v>0.00187639541469779</v>
       </c>
       <c r="CL5">
-        <v>0.001968727614727391</v>
+        <v>0.00187639541469779</v>
       </c>
       <c r="CM5">
-        <v>0.001983201556613504</v>
+        <v>0.001889691247682834</v>
       </c>
       <c r="CN5">
-        <v>0.01238973875574579</v>
+        <v>0.01229737715013785</v>
       </c>
       <c r="CO5">
-        <v>0.08408600723813457</v>
+        <v>0.08400851727925462</v>
       </c>
       <c r="CP5">
-        <v>0.1171103046966462</v>
+        <v>0.1170390276212949</v>
       </c>
       <c r="CQ5">
-        <v>0.2351603656117334</v>
+        <v>0.2351143389277523</v>
       </c>
       <c r="CR5">
-        <v>0.2413807836330217</v>
+        <v>0.2413349683684926</v>
       </c>
       <c r="CS5">
-        <v>0.2452198228375763</v>
+        <v>0.2451736857950773</v>
       </c>
       <c r="CT5">
-        <v>0.2456528192642538</v>
+        <v>0.2456055978212164</v>
       </c>
       <c r="CU5">
-        <v>0.260773660600582</v>
+        <v>0.2607286434068375</v>
       </c>
       <c r="CV5">
-        <v>0.2610517066091841</v>
+        <v>0.2610055703210664</v>
       </c>
       <c r="CW5">
-        <v>0.3367030907871945</v>
+        <v>0.3366727117073453</v>
       </c>
       <c r="CX5">
-        <v>0.3367243097405616</v>
+        <v>0.3366927540620384</v>
       </c>
       <c r="CY5">
-        <v>0.4248114529615392</v>
+        <v>0.424798438892749</v>
       </c>
       <c r="CZ5">
-        <v>0.4473100082300923</v>
+        <v>0.4473008503015176</v>
       </c>
       <c r="DA5">
-        <v>0.4642695589249168</v>
+        <v>0.4642630169378377</v>
       </c>
       <c r="DB5">
-        <v>0.4806690846628399</v>
+        <v>0.4806650332260915</v>
       </c>
       <c r="DC5">
-        <v>0.4904391959109504</v>
+        <v>0.4904361506799623</v>
       </c>
       <c r="DD5">
-        <v>0.5588002806500086</v>
+        <v>0.5588113603087177</v>
       </c>
       <c r="DE5">
-        <v>0.5593279671093989</v>
+        <v>0.5593379835689346</v>
       </c>
       <c r="DF5">
-        <v>0.567882941951024</v>
+        <v>0.5678936925438572</v>
       </c>
       <c r="DG5">
-        <v>0.5763957712958925</v>
+        <v>0.5764072465855279</v>
       </c>
       <c r="DH5">
-        <v>0.5765576820234322</v>
+        <v>0.5765680122156779</v>
       </c>
       <c r="DI5">
-        <v>0.5816903536284314</v>
+        <v>0.5817006516906439</v>
       </c>
       <c r="DJ5">
-        <v>0.5893358460400485</v>
+        <v>0.5893466745998817</v>
       </c>
       <c r="DK5">
-        <v>0.6507906513106012</v>
+        <v>0.6508140584247127</v>
       </c>
       <c r="DL5">
-        <v>0.6545484878214051</v>
+        <v>0.6545715549760348</v>
       </c>
       <c r="DM5">
-        <v>0.6872785203025628</v>
+        <v>0.6873077344539642</v>
       </c>
       <c r="DN5">
-        <v>0.6897297315139221</v>
+        <v>0.6897583131487581</v>
       </c>
       <c r="DO5">
-        <v>0.715396063538689</v>
+        <v>0.7154292105878756</v>
       </c>
       <c r="DP5">
-        <v>0.732363352232918</v>
+        <v>0.73239911695616</v>
       </c>
       <c r="DQ5">
-        <v>0.777539368756256</v>
+        <v>0.7775840671671403</v>
       </c>
       <c r="DR5">
-        <v>0.7806636789158149</v>
+        <v>0.7807078955188835</v>
       </c>
       <c r="DS5">
-        <v>0.7847811325989433</v>
+        <v>0.7848250897618275</v>
       </c>
       <c r="DT5">
-        <v>0.7900530484932266</v>
+        <v>0.7900970047032659</v>
       </c>
       <c r="DU5">
-        <v>0.7905988733512209</v>
+        <v>0.7906417704233254</v>
       </c>
       <c r="DV5">
-        <v>0.7939892678903024</v>
+        <v>0.794031742731633</v>
       </c>
       <c r="DW5">
-        <v>0.7942085703534253</v>
+        <v>0.7942499129475374</v>
       </c>
       <c r="DX5">
-        <v>0.8101323451279613</v>
+        <v>0.8101760717504239</v>
       </c>
       <c r="DY5">
-        <v>0.8201219843591773</v>
+        <v>0.8201667663403338</v>
       </c>
       <c r="DZ5">
-        <v>0.8210577238871645</v>
+        <v>0.8211015340333787</v>
       </c>
       <c r="EA5">
-        <v>0.8213215927268576</v>
+        <v>0.8213642806043906</v>
       </c>
       <c r="EB5">
-        <v>0.8229260060033849</v>
+        <v>0.8229678717639106</v>
       </c>
       <c r="EC5">
-        <v>0.8229755947195687</v>
+        <v>0.8230162902334901</v>
       </c>
       <c r="ED5">
-        <v>0.8324601149896577</v>
+        <v>0.8325017527647153</v>
       </c>
       <c r="EE5">
-        <v>0.8403886613794915</v>
+        <v>0.8404308930287525</v>
       </c>
       <c r="EF5">
-        <v>0.8435568869356708</v>
+        <v>0.843598646609897</v>
       </c>
       <c r="EG5">
-        <v>0.8504119938081145</v>
+        <v>0.8504541070104138</v>
       </c>
       <c r="EH5">
-        <v>0.8572490122819503</v>
+        <v>0.8572914749622792</v>
       </c>
       <c r="EI5">
-        <v>0.8843431531968357</v>
+        <v>0.8843905009819458</v>
       </c>
       <c r="EJ5">
-        <v>0.8863904936392761</v>
+        <v>0.8864371184800186</v>
       </c>
       <c r="EK5">
-        <v>0.8889975691386405</v>
+        <v>0.8890435963612705</v>
       </c>
       <c r="EL5">
-        <v>0.8890016976703228</v>
+        <v>0.8890465444676853</v>
       </c>
       <c r="EM5">
-        <v>0.8908244084300504</v>
+        <v>0.8908684819878266</v>
       </c>
       <c r="EN5">
-        <v>0.890841721362718</v>
+        <v>0.8908846174472512</v>
       </c>
       <c r="EO5">
-        <v>0.8961698574526745</v>
+        <v>0.8962127651722231</v>
       </c>
       <c r="EP5">
-        <v>0.9001763104443453</v>
+        <v>0.9002189338703422</v>
       </c>
       <c r="EQ5">
-        <v>0.9001908976052228</v>
+        <v>0.9002323429476686</v>
       </c>
       <c r="ER5">
-        <v>0.900687242067025</v>
+        <v>0.900727617192736</v>
       </c>
       <c r="ES5">
-        <v>0.9008189624868881</v>
+        <v>0.9008581857555145</v>
       </c>
       <c r="ET5">
-        <v>0.9021938618810784</v>
+        <v>0.902232211643893</v>
       </c>
       <c r="EU5">
-        <v>0.9023329641803733</v>
+        <v>0.902370163738927</v>
       </c>
       <c r="EV5">
-        <v>0.9095897113219076</v>
+        <v>0.9096273543369213</v>
       </c>
       <c r="EW5">
-        <v>0.9096253841351623</v>
+        <v>0.9096618537877619</v>
       </c>
       <c r="EX5">
-        <v>0.9158481448562702</v>
+        <v>0.9158848264528591</v>
       </c>
       <c r="EY5">
-        <v>0.9158734631543217</v>
+        <v>0.9159089690700914</v>
       </c>
       <c r="EZ5">
-        <v>0.9165521114620943</v>
+        <v>0.9165865879794735</v>
       </c>
       <c r="FA5">
-        <v>0.9171796405838007</v>
+        <v>0.9172130762570598</v>
       </c>
       <c r="FB5">
-        <v>0.918401561089764</v>
+        <v>0.9184340890048075</v>
       </c>
       <c r="FC5">
-        <v>0.918687768687738</v>
+        <v>0.9187191793358112</v>
       </c>
       <c r="FD5">
-        <v>0.9222717094119246</v>
+        <v>0.9223027411647596</v>
       </c>
       <c r="FE5">
-        <v>0.9231714591426815</v>
+        <v>0.9232015110023573</v>
       </c>
       <c r="FF5">
-        <v>0.9323347764374896</v>
+        <v>0.9323656986400511</v>
       </c>
       <c r="FG5">
-        <v>0.934698550955578</v>
+        <v>0.9347288210642523</v>
       </c>
       <c r="FH5">
-        <v>0.9389202600306831</v>
+        <v>0.9389502940422488</v>
       </c>
       <c r="FI5">
-        <v>0.9448064668776915</v>
+        <v>0.9448366374778865</v>
       </c>
       <c r="FJ5">
-        <v>0.9485722467878841</v>
+        <v>0.9486020792071467</v>
       </c>
       <c r="FK5">
-        <v>0.9503992205472837</v>
+        <v>0.9504282806814577</v>
       </c>
       <c r="FL5">
-        <v>0.9507550378199007</v>
+        <v>0.9507829962729064</v>
       </c>
       <c r="FM5">
-        <v>0.9508605937617772</v>
+        <v>0.9508873944993982</v>
       </c>
       <c r="FN5">
-        <v>0.9512964626282335</v>
+        <v>0.9513221796084635</v>
       </c>
       <c r="FO5">
-        <v>0.9512997355346816</v>
+        <v>0.9513242718980672</v>
       </c>
       <c r="FP5">
-        <v>0.9513739727889684</v>
+        <v>0.9513973444246269</v>
       </c>
       <c r="FQ5">
-        <v>0.9515581423047951</v>
+        <v>0.9515803738268692</v>
       </c>
       <c r="FR5">
-        <v>0.9515816067919893</v>
+        <v>0.9516026622181708</v>
       </c>
       <c r="FS5">
-        <v>0.9527262562038993</v>
+        <v>0.9527463865706496</v>
       </c>
       <c r="FT5">
-        <v>0.9550531500248258</v>
+        <v>0.955072620039997</v>
       </c>
       <c r="FU5">
-        <v>0.9554177836567643</v>
+        <v>0.955436153964775</v>
       </c>
       <c r="FV5">
-        <v>0.9615704531832664</v>
+        <v>0.9615890197416505</v>
       </c>
       <c r="FW5">
-        <v>0.9642058739804493</v>
+        <v>0.9642238492673129</v>
       </c>
       <c r="FX5">
-        <v>0.9654866278818849</v>
+        <v>0.9655037085834958</v>
       </c>
       <c r="FY5">
-        <v>0.9701671991216768</v>
+        <v>0.9701841464667098</v>
       </c>
       <c r="FZ5">
-        <v>0.9734138775718185</v>
+        <v>0.9734303705076406</v>
       </c>
       <c r="GA5">
-        <v>0.9734170629487734</v>
+        <v>0.973432375248153</v>
       </c>
       <c r="GB5">
-        <v>0.9779312152013726</v>
+        <v>0.9779463568824944</v>
       </c>
       <c r="GC5">
-        <v>0.9788117887736053</v>
+        <v>0.9788259462679719</v>
       </c>
       <c r="GD5">
-        <v>0.9788851686629582</v>
+        <v>0.9788981612376312</v>
       </c>
       <c r="GE5">
-        <v>0.9825166346834873</v>
+        <v>0.9825292590039699</v>
       </c>
       <c r="GF5">
-        <v>0.9869565396418004</v>
+        <v>0.9869689767198471</v>
       </c>
       <c r="GG5">
-        <v>0.9880025606613005</v>
+        <v>0.9880140505967413</v>
       </c>
       <c r="GH5">
-        <v>0.9880054359170792</v>
+        <v>0.9880157451466405</v>
       </c>
       <c r="GI5">
-        <v>0.9883386531214354</v>
+        <v>0.9883478556096096</v>
       </c>
       <c r="GJ5">
-        <v>0.9884894243098323</v>
+        <v>0.9884974792064427</v>
       </c>
       <c r="GK5">
-        <v>0.9887481846399186</v>
+        <v>0.9887551161240381</v>
       </c>
       <c r="GL5">
-        <v>0.9918399734019804</v>
+        <v>0.9918464157966517</v>
       </c>
       <c r="GM5">
-        <v>0.9939188279419956</v>
+        <v>0.9939245544483943</v>
       </c>
       <c r="GN5">
-        <v>0.9940493104719539</v>
+        <v>0.9940538848441011</v>
       </c>
       <c r="GO5">
-        <v>0.9940840387752813</v>
+        <v>0.994087439573536</v>
       </c>
       <c r="GP5">
-        <v>0.9940980642542019</v>
+        <v>0.9941002868431434</v>
       </c>
       <c r="GQ5">
-        <v>0.9943191296371892</v>
+        <v>0.994320220373635</v>
       </c>
       <c r="GR5">
-        <v>0.9959690700102128</v>
+        <v>0.9959693488232965</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.23986653686797E-06</v>
+        <v>8.152649459241143E-06</v>
       </c>
       <c r="C6">
-        <v>3.389595720848889E-05</v>
+        <v>3.372181987543965E-05</v>
       </c>
       <c r="D6">
-        <v>4.159422371006894E-05</v>
+        <v>4.133286006898133E-05</v>
       </c>
       <c r="E6">
-        <v>4.159502136828091E-05</v>
+        <v>4.133286006898133E-05</v>
       </c>
       <c r="F6">
-        <v>5.465649021930007E-05</v>
+        <v>5.430719401624881E-05</v>
       </c>
       <c r="G6">
-        <v>6.842064411610262E-05</v>
+        <v>6.798422498505991E-05</v>
       </c>
       <c r="H6">
-        <v>6.850800013579429E-05</v>
+        <v>6.798422498505991E-05</v>
       </c>
       <c r="I6">
-        <v>7.111544830568241E-05</v>
+        <v>7.050436008482462E-05</v>
       </c>
       <c r="J6">
-        <v>7.118103780995589E-05</v>
+        <v>7.050436008482462E-05</v>
       </c>
       <c r="K6">
-        <v>7.118738856336967E-05</v>
+        <v>7.050436008482462E-05</v>
       </c>
       <c r="L6">
-        <v>8.103339320488546E-05</v>
+        <v>8.026317502189443E-05</v>
       </c>
       <c r="M6">
-        <v>0.0001195722917158849</v>
+        <v>0.0001187153728373136</v>
       </c>
       <c r="N6">
-        <v>0.0001519743778270407</v>
+        <v>0.0001510306536640776</v>
       </c>
       <c r="O6">
-        <v>0.000154208901372631</v>
+        <v>0.0001531778577838436</v>
       </c>
       <c r="P6">
-        <v>0.0001666105781806614</v>
+        <v>0.0001654923884433815</v>
       </c>
       <c r="Q6">
-        <v>0.0002146012993074937</v>
+        <v>0.0002133965699606877</v>
       </c>
       <c r="R6">
-        <v>0.0002846022878684036</v>
+        <v>0.0002833113940298954</v>
       </c>
       <c r="S6">
-        <v>0.0003025897640403765</v>
+        <v>0.0003012118192513512</v>
       </c>
       <c r="T6">
-        <v>0.0003096553975007373</v>
+        <v>0.0003081902156217998</v>
       </c>
       <c r="U6">
-        <v>0.0003367014472629209</v>
+        <v>0.000335149368817434</v>
       </c>
       <c r="V6">
-        <v>0.0003550981284615555</v>
+        <v>0.000353459006039574</v>
       </c>
       <c r="W6">
-        <v>0.0003553561432283664</v>
+        <v>0.0003536296676952058</v>
       </c>
       <c r="X6">
-        <v>0.0003594326410939704</v>
+        <v>0.0003576188775274891</v>
       </c>
       <c r="Y6">
-        <v>0.0003594634881679802</v>
+        <v>0.0003576188775274891</v>
       </c>
       <c r="Z6">
-        <v>0.0003598929613759625</v>
+        <v>0.0003579610005464337</v>
       </c>
       <c r="AA6">
-        <v>0.0003681328279128305</v>
+        <v>0.0003661136500056749</v>
       </c>
       <c r="AB6">
-        <v>0.0003715595317360971</v>
+        <v>0.0003694530547212744</v>
       </c>
       <c r="AC6">
-        <v>0.0003716079873322542</v>
+        <v>0.0003694530547212744</v>
       </c>
       <c r="AD6">
-        <v>0.0003767105636647123</v>
+        <v>0.0003744683605077197</v>
       </c>
       <c r="AE6">
-        <v>0.0004379178576526695</v>
+        <v>0.0004355893401343023</v>
       </c>
       <c r="AF6">
-        <v>0.0005241591732717169</v>
+        <v>0.000521744768043207</v>
       </c>
       <c r="AG6">
-        <v>0.0005530712481554813</v>
+        <v>0.0005505699781628198</v>
       </c>
       <c r="AH6">
-        <v>0.0005956898889322961</v>
+        <v>0.0005931019877745154</v>
       </c>
       <c r="AI6">
-        <v>0.0006483953283663155</v>
+        <v>0.0006457209679512751</v>
       </c>
       <c r="AJ6">
-        <v>0.0006876387309232169</v>
+        <v>0.0006848776818193575</v>
       </c>
       <c r="AK6">
-        <v>0.0007424544494947315</v>
+        <v>0.0007396069770987964</v>
       </c>
       <c r="AL6">
-        <v>0.0007687215912061654</v>
+        <v>0.0007657872089688629</v>
       </c>
       <c r="AM6">
-        <v>0.0007897481785761513</v>
+        <v>0.0007867267971834671</v>
       </c>
       <c r="AN6">
-        <v>0.000802041133377098</v>
+        <v>0.0007989326039829876</v>
       </c>
       <c r="AO6">
-        <v>0.0008143340881780446</v>
+        <v>0.000811138410782508</v>
       </c>
       <c r="AP6">
-        <v>0.000815066379625757</v>
+        <v>0.0008117833572020706</v>
       </c>
       <c r="AQ6">
-        <v>0.0008346121078992577</v>
+        <v>0.0008312420610821209</v>
       </c>
       <c r="AR6">
-        <v>0.0008572397413735596</v>
+        <v>0.0008537827226874397</v>
       </c>
       <c r="AS6">
-        <v>0.0008572455499036381</v>
+        <v>0.0008537827226874397</v>
       </c>
       <c r="AT6">
-        <v>0.0008626946112586714</v>
+        <v>0.0008591445194015546</v>
       </c>
       <c r="AU6">
-        <v>0.0009394745962612663</v>
+        <v>0.0009358384554459093</v>
       </c>
       <c r="AV6">
-        <v>0.0009932810117670198</v>
+        <v>0.0009895584304581801</v>
       </c>
       <c r="AW6">
-        <v>0.00100568268857505</v>
+        <v>0.001001872961117718</v>
       </c>
       <c r="AX6">
-        <v>0.001032728738337234</v>
+        <v>0.001028832114313352</v>
       </c>
       <c r="AY6">
-        <v>0.001068347143657949</v>
+        <v>0.001064363769164941</v>
       </c>
       <c r="AZ6">
-        <v>0.001110386843397043</v>
+        <v>0.001106316827872107</v>
       </c>
       <c r="BA6">
-        <v>0.001124535392318891</v>
+        <v>0.001120378260417152</v>
       </c>
       <c r="BB6">
-        <v>0.001130097008681257</v>
+        <v>0.00112585261405686</v>
       </c>
       <c r="BC6">
-        <v>0.001146107490724419</v>
+        <v>0.001141776011455878</v>
       </c>
       <c r="BD6">
-        <v>0.001164607191929766</v>
+        <v>0.001160188670440485</v>
       </c>
       <c r="BE6">
-        <v>0.00116475121941915</v>
+        <v>0.001160245342876021</v>
       </c>
       <c r="BF6">
-        <v>0.001169799758748088</v>
+        <v>0.001165206610738001</v>
       </c>
       <c r="BG6">
-        <v>0.001169878209103199</v>
+        <v>0.001165206610738001</v>
       </c>
       <c r="BH6">
-        <v>0.001182087210898676</v>
+        <v>0.001177328463101252</v>
       </c>
       <c r="BI6">
-        <v>0.001219109143310837</v>
+        <v>0.001214263668964399</v>
       </c>
       <c r="BJ6">
-        <v>0.001253974322582476</v>
+        <v>0.001249042084929788</v>
       </c>
       <c r="BK6">
-        <v>0.001341332953274322</v>
+        <v>0.001336314846953731</v>
       </c>
       <c r="BL6">
-        <v>0.001460265881023389</v>
+        <v>0.001455162444151102</v>
       </c>
       <c r="BM6">
-        <v>0.001562803993704253</v>
+        <v>0.001557614946865794</v>
       </c>
       <c r="BN6">
-        <v>0.001681475481436286</v>
+        <v>0.001676201099590446</v>
       </c>
       <c r="BO6">
-        <v>0.001790175468518627</v>
+        <v>0.001784815581722553</v>
       </c>
       <c r="BP6">
-        <v>0.001844459732055514</v>
+        <v>0.001839013412909853</v>
       </c>
       <c r="BQ6">
-        <v>0.001910643156367691</v>
+        <v>0.001905110607668129</v>
       </c>
       <c r="BR6">
-        <v>0.001970543944270523</v>
+        <v>0.001964925058942991</v>
       </c>
       <c r="BS6">
-        <v>0.002023773067738663</v>
+        <v>0.002018067732078943</v>
       </c>
       <c r="BT6">
-        <v>0.002038076315670591</v>
+        <v>0.002032283866270581</v>
       </c>
       <c r="BU6">
-        <v>0.002040568866132993</v>
+        <v>0.002034689101704674</v>
       </c>
       <c r="BV6">
-        <v>0.002042912246685675</v>
+        <v>0.002036945164686767</v>
       </c>
       <c r="BW6">
-        <v>0.002043081998756736</v>
+        <v>0.0020370275621424</v>
       </c>
       <c r="BX6">
-        <v>0.002048757320126511</v>
+        <v>0.002042615622727373</v>
       </c>
       <c r="BY6">
-        <v>0.002076810480954313</v>
+        <v>0.002070581904152675</v>
       </c>
       <c r="BZ6">
-        <v>0.002079575153134445</v>
+        <v>0.00207325926594223</v>
       </c>
       <c r="CA6">
-        <v>0.002082182601304333</v>
+        <v>0.002075779401041994</v>
       </c>
       <c r="CB6">
-        <v>0.002089635949489955</v>
+        <v>0.00208314551874547</v>
       </c>
       <c r="CC6">
-        <v>0.002096200736917683</v>
+        <v>0.00208962306054744</v>
       </c>
       <c r="CD6">
-        <v>0.00211470043812303</v>
+        <v>0.002108035719532047</v>
       </c>
       <c r="CE6">
-        <v>0.002155199348761734</v>
+        <v>0.002148447962879376</v>
       </c>
       <c r="CF6">
-        <v>0.002169438261689469</v>
+        <v>0.002162599760970369</v>
       </c>
       <c r="CG6">
-        <v>0.002173149934131303</v>
+        <v>0.002166224139161216</v>
       </c>
       <c r="CH6">
-        <v>0.002180151955087519</v>
+        <v>0.002173138921943381</v>
       </c>
       <c r="CI6">
-        <v>0.00221591365241757</v>
+        <v>0.002208813871246411</v>
       </c>
       <c r="CJ6">
-        <v>0.002264906508609697</v>
+        <v>0.002257720204908255</v>
       </c>
       <c r="CK6">
-        <v>0.002282691105768451</v>
+        <v>0.002275417747658855</v>
       </c>
       <c r="CL6">
-        <v>0.002283492482420664</v>
+        <v>0.002276131780460328</v>
       </c>
       <c r="CM6">
-        <v>0.002402949126203854</v>
+        <v>0.002395503102617438</v>
       </c>
       <c r="CN6">
-        <v>0.0795530441529133</v>
+        <v>0.07954682562979787</v>
       </c>
       <c r="CO6">
-        <v>0.08481331149564568</v>
+        <v>0.08480709526500194</v>
       </c>
       <c r="CP6">
-        <v>0.239521351575638</v>
+        <v>0.2395176846543741</v>
       </c>
       <c r="CQ6">
-        <v>0.2758605769433178</v>
+        <v>0.2758574419887398</v>
       </c>
       <c r="CR6">
-        <v>0.2796259303886492</v>
+        <v>0.2796227722489402</v>
       </c>
       <c r="CS6">
-        <v>0.2796601316988776</v>
+        <v>0.2796568867845481</v>
       </c>
       <c r="CT6">
-        <v>0.2880785652473801</v>
+        <v>0.2880753764496949</v>
       </c>
       <c r="CU6">
-        <v>0.2957045197442487</v>
+        <v>0.2957013735571013</v>
       </c>
       <c r="CV6">
-        <v>0.3500153072828645</v>
+        <v>0.3500129993491537</v>
       </c>
       <c r="CW6">
-        <v>0.3669478873861057</v>
+        <v>0.3669457806744151</v>
       </c>
       <c r="CX6">
-        <v>0.4107713782414224</v>
+        <v>0.4107699310496785</v>
       </c>
       <c r="CY6">
-        <v>0.4687374920182008</v>
+        <v>0.468736945377093</v>
       </c>
       <c r="CZ6">
-        <v>0.4725767952683503</v>
+        <v>0.4725762267024275</v>
       </c>
       <c r="DA6">
-        <v>0.4894012113645441</v>
+        <v>0.4894008421772178</v>
       </c>
       <c r="DB6">
-        <v>0.4897714111186644</v>
+        <v>0.4897709608830909</v>
       </c>
       <c r="DC6">
-        <v>0.5409319324520249</v>
+        <v>0.5409322667803538</v>
       </c>
       <c r="DD6">
-        <v>0.5502229120573781</v>
+        <v>0.5502233173730283</v>
       </c>
       <c r="DE6">
-        <v>0.5597776586799169</v>
+        <v>0.559778139478232</v>
       </c>
       <c r="DF6">
-        <v>0.5597778027074063</v>
+        <v>0.5597781961506675</v>
       </c>
       <c r="DG6">
-        <v>0.5623638686759013</v>
+        <v>0.5623642188356045</v>
       </c>
       <c r="DH6">
-        <v>0.5688581010990326</v>
+        <v>0.568858474581497</v>
       </c>
       <c r="DI6">
-        <v>0.5688904636071411</v>
+        <v>0.5688907502836467</v>
       </c>
       <c r="DJ6">
-        <v>0.6069083910841967</v>
+        <v>0.6069092383372668</v>
       </c>
       <c r="DK6">
-        <v>0.6228024661197741</v>
+        <v>0.6228034968957719</v>
       </c>
       <c r="DL6">
-        <v>0.6468837626887894</v>
+        <v>0.6468851165213545</v>
       </c>
       <c r="DM6">
-        <v>0.6555974352565282</v>
+        <v>0.6555988502374538</v>
       </c>
       <c r="DN6">
-        <v>0.7026034083191994</v>
+        <v>0.7026055370586584</v>
       </c>
       <c r="DO6">
-        <v>0.7027555913591149</v>
+        <v>0.702757635334699</v>
       </c>
       <c r="DP6">
-        <v>0.7717081958517173</v>
+        <v>0.7717113276191196</v>
       </c>
       <c r="DQ6">
-        <v>0.7722622072878139</v>
+        <v>0.772265261139645</v>
       </c>
       <c r="DR6">
-        <v>0.7897453854269293</v>
+        <v>0.7897486498845437</v>
       </c>
       <c r="DS6">
-        <v>0.7905475517191943</v>
+        <v>0.7905507424905052</v>
       </c>
       <c r="DT6">
-        <v>0.7944675287746001</v>
+        <v>0.794470698996008</v>
       </c>
       <c r="DU6">
-        <v>0.7958732905661925</v>
+        <v>0.795876397388288</v>
       </c>
       <c r="DV6">
-        <v>0.7979037747984885</v>
+        <v>0.7979068288683264</v>
       </c>
       <c r="DW6">
-        <v>0.8027247961126018</v>
+        <v>0.8027278449889045</v>
       </c>
       <c r="DX6">
-        <v>0.818166406118699</v>
+        <v>0.8181696308066327</v>
       </c>
       <c r="DY6">
-        <v>0.8181681260552111</v>
+        <v>0.8181712634149489</v>
       </c>
       <c r="DZ6">
-        <v>0.8195711913466277</v>
+        <v>0.8195742652610971</v>
       </c>
       <c r="EA6">
-        <v>0.8212946475589193</v>
+        <v>0.8212976634884968</v>
       </c>
       <c r="EB6">
-        <v>0.8213169342003714</v>
+        <v>0.8213198631522683</v>
       </c>
       <c r="EC6">
-        <v>0.8266272632463656</v>
+        <v>0.8266301953439286</v>
       </c>
       <c r="ED6">
-        <v>0.8376196519625739</v>
+        <v>0.8376226840443293</v>
       </c>
       <c r="EE6">
-        <v>0.8377954712840294</v>
+        <v>0.8377984190047397</v>
       </c>
       <c r="EF6">
-        <v>0.8474701619143833</v>
+        <v>0.8474731871619468</v>
       </c>
       <c r="EG6">
-        <v>0.8488242483026087</v>
+        <v>0.8488272092701633</v>
       </c>
       <c r="EH6">
-        <v>0.8733419149000557</v>
+        <v>0.8733452063611693</v>
       </c>
       <c r="EI6">
-        <v>0.8833274360506618</v>
+        <v>0.8833308103360684</v>
       </c>
       <c r="EJ6">
-        <v>0.8841975578673545</v>
+        <v>0.8842008596246137</v>
       </c>
       <c r="EK6">
-        <v>0.8880160826161503</v>
+        <v>0.8880193620944693</v>
       </c>
       <c r="EL6">
-        <v>0.8890788728853963</v>
+        <v>0.8890820831191887</v>
       </c>
       <c r="EM6">
-        <v>0.8893058907001876</v>
+        <v>0.8893090174455035</v>
       </c>
       <c r="EN6">
-        <v>0.8920646448799341</v>
+        <v>0.8920677312847924</v>
       </c>
       <c r="EO6">
-        <v>0.9007202014438863</v>
+        <v>0.9007233480066424</v>
       </c>
       <c r="EP6">
-        <v>0.9009971454619305</v>
+        <v>0.9010002093870954</v>
       </c>
       <c r="EQ6">
-        <v>0.9010165546381952</v>
+        <v>0.9010195315366393</v>
       </c>
       <c r="ER6">
-        <v>0.9020339331044824</v>
+        <v>0.9020368399844529</v>
       </c>
       <c r="ES6">
-        <v>0.90250062880489</v>
+        <v>0.9025034562811797</v>
       </c>
       <c r="ET6">
-        <v>0.9025184134020487</v>
+        <v>0.9025211538239303</v>
       </c>
       <c r="EU6">
-        <v>0.9043737470229329</v>
+        <v>0.9043764317074902</v>
       </c>
       <c r="EV6">
-        <v>0.9065352073637627</v>
+        <v>0.9065378415282693</v>
       </c>
       <c r="EW6">
-        <v>0.9096135225643301</v>
+        <v>0.9096161218346117</v>
       </c>
       <c r="EX6">
-        <v>0.9128891965777565</v>
+        <v>0.9128917643173708</v>
       </c>
       <c r="EY6">
-        <v>0.912970886568079</v>
+        <v>0.9129733683424156</v>
       </c>
       <c r="EZ6">
-        <v>0.9131833291019207</v>
+        <v>0.9131857271393764</v>
       </c>
       <c r="FA6">
-        <v>0.9142728713729097</v>
+        <v>0.9142752006217693</v>
       </c>
       <c r="FB6">
-        <v>0.9146370960266407</v>
+        <v>0.9146393441254203</v>
       </c>
       <c r="FC6">
-        <v>0.917184628792625</v>
+        <v>0.9171868329511308</v>
       </c>
       <c r="FD6">
-        <v>0.9174615728106692</v>
+        <v>0.9174636943315837</v>
       </c>
       <c r="FE6">
-        <v>0.9267086774131637</v>
+        <v>0.9267108691736442</v>
       </c>
       <c r="FF6">
-        <v>0.9397774752646604</v>
+        <v>0.9397798023972755</v>
       </c>
       <c r="FG6">
-        <v>0.9400390709017046</v>
+        <v>0.9400413151351481</v>
       </c>
       <c r="FH6">
-        <v>0.9465739583274847</v>
+        <v>0.9465762265765668</v>
       </c>
       <c r="FI6">
-        <v>0.9496793342298153</v>
+        <v>0.949681568045864</v>
       </c>
       <c r="FJ6">
-        <v>0.9501211315586006</v>
+        <v>0.9501232855466292</v>
       </c>
       <c r="FK6">
-        <v>0.9512589292327337</v>
+        <v>0.9512610152545761</v>
       </c>
       <c r="FL6">
-        <v>0.9513483829285621</v>
+        <v>0.9513503831174425</v>
       </c>
       <c r="FM6">
-        <v>0.9517415411841783</v>
+        <v>0.9517434607160898</v>
       </c>
       <c r="FN6">
-        <v>0.9520605712549647</v>
+        <v>0.9520624088665514</v>
       </c>
       <c r="FO6">
-        <v>0.9522476981471569</v>
+        <v>0.9522494515904119</v>
       </c>
       <c r="FP6">
-        <v>0.952314525111511</v>
+        <v>0.9523161923361798</v>
       </c>
       <c r="FQ6">
-        <v>0.952665595834385</v>
+        <v>0.9526671816847931</v>
       </c>
       <c r="FR6">
-        <v>0.9534630138863408</v>
+        <v>0.9534645259695216</v>
       </c>
       <c r="FS6">
-        <v>0.9577140731633182</v>
+        <v>0.9577155703391828</v>
       </c>
       <c r="FT6">
-        <v>0.9588518708374514</v>
+        <v>0.9588533000471297</v>
       </c>
       <c r="FU6">
-        <v>0.960627201453123</v>
+        <v>0.9606285735619972</v>
       </c>
       <c r="FV6">
-        <v>0.9629518859045876</v>
+        <v>0.9629532102752163</v>
       </c>
       <c r="FW6">
-        <v>0.9630992870541915</v>
+        <v>0.9631005265794483</v>
       </c>
       <c r="FX6">
-        <v>0.96732335032941</v>
+        <v>0.9673245744872616</v>
       </c>
       <c r="FY6">
-        <v>0.97232711635543</v>
+        <v>0.9723283384342383</v>
       </c>
       <c r="FZ6">
-        <v>0.972432343542286</v>
+        <v>0.9724334800569576</v>
       </c>
       <c r="GA6">
-        <v>0.97678249612572</v>
+        <v>0.9767836194219082</v>
       </c>
       <c r="GB6">
-        <v>0.9816035174398333</v>
+        <v>0.9816046355424862</v>
       </c>
       <c r="GC6">
-        <v>0.9816585624854198</v>
+        <v>0.981659594168689</v>
       </c>
       <c r="GD6">
-        <v>0.9823429276300096</v>
+        <v>0.982343883619307</v>
       </c>
       <c r="GE6">
-        <v>0.9856530105456779</v>
+        <v>0.9856539355907341</v>
       </c>
       <c r="GF6">
-        <v>0.9882537341151278</v>
+        <v>0.9882546161264335</v>
       </c>
       <c r="GG6">
-        <v>0.9885406290738205</v>
+        <v>0.9885414286171271</v>
       </c>
       <c r="GH6">
-        <v>0.9885406629843677</v>
+        <v>0.9885414286171271</v>
       </c>
       <c r="GI6">
-        <v>0.988564764003938</v>
+        <v>0.9885654426899392</v>
       </c>
       <c r="GJ6">
-        <v>0.9886844829517383</v>
+        <v>0.9886850763205838</v>
       </c>
       <c r="GK6">
-        <v>0.9899691300354394</v>
+        <v>0.989969657940832</v>
       </c>
       <c r="GL6">
-        <v>0.9927531379168313</v>
+        <v>0.9927536259121615</v>
       </c>
       <c r="GM6">
-        <v>0.9928922971358982</v>
+        <v>0.9928927001453905</v>
       </c>
       <c r="GN6">
-        <v>0.9929630446165078</v>
+        <v>0.9929633614742307</v>
       </c>
       <c r="GO6">
-        <v>0.9931958815016783</v>
+        <v>0.9931961149700983</v>
       </c>
       <c r="GP6">
-        <v>0.9932114829076948</v>
+        <v>0.9932116292844988</v>
       </c>
       <c r="GQ6">
-        <v>0.9939491076057547</v>
+        <v>0.9939491791962819</v>
       </c>
       <c r="GR6">
-        <v>0.9972914080235221</v>
+        <v>0.9972914492188864</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.001510199559818469</v>
+        <v>0.05120463664061432</v>
       </c>
       <c r="F2">
-        <v>0.5042953932099538</v>
+        <v>0.5042938729268889</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3">
-        <v>0.001203480338736523</v>
+        <v>0.0008844071295545232</v>
       </c>
       <c r="F3">
-        <v>0.5089414762504474</v>
+        <v>0.5089836003732096</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.002441559040994274</v>
+        <v>0.04533531378325284</v>
       </c>
       <c r="F4">
-        <v>0.513309864817528</v>
+        <v>0.5133284534360825</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.001968006532582884</v>
+        <v>0.01229737715013785</v>
       </c>
       <c r="F5">
-        <v>0.5588002806500086</v>
+        <v>0.5588113603087177</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.002282691105768451</v>
+        <v>0.07954682562979787</v>
       </c>
       <c r="F6">
-        <v>0.5409319324520249</v>
+        <v>0.5409322667803538</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>119</v>
       </c>
       <c r="E2">
-        <v>0.001510199559818469</v>
+        <v>0.05120463664061432</v>
       </c>
       <c r="F2">
-        <v>0.7451460962004482</v>
+        <v>0.7451707889163476</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>0.001203480338736523</v>
+        <v>0.0008844071295545232</v>
       </c>
       <c r="F3">
-        <v>0.702142299609495</v>
+        <v>0.7022941338097509</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>119</v>
       </c>
       <c r="E4">
-        <v>0.002441559040994274</v>
+        <v>0.04533531378325284</v>
       </c>
       <c r="F4">
-        <v>0.7567385172814384</v>
+        <v>0.7569681576998688</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
       <c r="E5">
-        <v>0.001968006532582884</v>
+        <v>0.01229737715013785</v>
       </c>
       <c r="F5">
-        <v>0.715396063538689</v>
+        <v>0.7154292105878756</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0.002282691105768451</v>
+        <v>0.07954682562979787</v>
       </c>
       <c r="F6">
-        <v>0.7026034083191994</v>
+        <v>0.7026055370586584</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>127</v>
       </c>
       <c r="E2">
-        <v>0.001510199559818469</v>
+        <v>0.05120463664061432</v>
       </c>
       <c r="F2">
-        <v>0.8004104596831223</v>
+        <v>0.8004373379957201</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.001203480338736523</v>
+        <v>0.0008844071295545232</v>
       </c>
       <c r="F3">
-        <v>0.802718356785887</v>
+        <v>0.8029312798533611</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.002441559040994274</v>
+        <v>0.04533531378325284</v>
       </c>
       <c r="F4">
-        <v>0.8132543821923915</v>
+        <v>0.8135007503664797</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.001968006532582884</v>
+        <v>0.01229737715013785</v>
       </c>
       <c r="F5">
-        <v>0.8101323451279613</v>
+        <v>0.8101760717504239</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.002282691105768451</v>
+        <v>0.07954682562979787</v>
       </c>
       <c r="F6">
-        <v>0.8027247961126018</v>
+        <v>0.8027278449889045</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>148</v>
       </c>
       <c r="E2">
-        <v>0.001510199559818469</v>
+        <v>0.05120463664061432</v>
       </c>
       <c r="F2">
-        <v>0.9012152588862613</v>
+        <v>0.90124086843514</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>145</v>
       </c>
       <c r="E3">
-        <v>0.001203480338736523</v>
+        <v>0.0008844071295545232</v>
       </c>
       <c r="F3">
-        <v>0.9038604818625779</v>
+        <v>0.9040521215304608</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>144</v>
       </c>
       <c r="E4">
-        <v>0.002441559040994274</v>
+        <v>0.04533531378325284</v>
       </c>
       <c r="F4">
-        <v>0.9023811699284399</v>
+        <v>0.9026255206980327</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.001968006532582884</v>
+        <v>0.01229737715013785</v>
       </c>
       <c r="F5">
-        <v>0.9001763104443453</v>
+        <v>0.9002189338703422</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>144</v>
       </c>
       <c r="E6">
-        <v>0.002282691105768451</v>
+        <v>0.07954682562979787</v>
       </c>
       <c r="F6">
-        <v>0.9007202014438863</v>
+        <v>0.9007233480066424</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>55</v>

--- a/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
@@ -1994,19 +1994,19 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.16595830422834E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.475639030928303E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.234874098648529E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.090828795928542E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.61496337516274E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2018,109 +2018,109 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.148682346706268E-07</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.036497207477443E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.371484134130257E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.007146540174609E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.454418950837899E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.348026796430565E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.26475575847073E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.457320042644807E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.895184272850233E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.779014001236882E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>4.346412066992666E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>3.760955012280209E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4.021924185799121E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3.795255100422394E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>2.983508717774331E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.932225903468187E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.054237101163896E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2.325576560666253E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.833712462581161E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.807738648651453E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.697644421282883E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.368065527436935E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.884531946805201E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.855127456559371E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.391902147704044E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.630834845443843E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.241249417764608E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>5.714607016604724E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>5.991079435104177E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.846031338105075E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.047960423972837E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.409216751864187E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>8.629522679171801E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.909458477127392E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -2129,49 +2129,49 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>2.991135631401464E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>8.254539960260341E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.360705956846476E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>2.983508717774331E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>2.953021506357971E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>2.700040041039041E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>3.091414739358702E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>3.138231720773631E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>3.393719965261463E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>2.953021506357971E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>2.743882972606919E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>1.623138551718698E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>8.845137292477814E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>5.238133206414579E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>3.546955303240417E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
         <v>0</v>
@@ -2180,40 +2180,40 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>9.425213633317477E-07</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>2.496924678337188E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>8.210585311794455E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1.058609962591551E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.605752721983279E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.282893987210186E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>7.401306902445621E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>6.705559665526854E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>6.934043225356271E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>2.909458477127392E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.923881401300477E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>8.003148535446805E-07</v>
+        <v>0</v>
       </c>
       <c r="BX2">
         <v>0</v>
@@ -2222,376 +2222,376 @@
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.790575095136017E-07</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>6.486174081833661E-07</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>5.306107688058002E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.721962889234899E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>7.443242245476614E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.120236684089273E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>1.257841297805501E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.1782950658492E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>1.149094148994412E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>9.017310334924727E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>8.505364899388724E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>6.44555993864392E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>5.238133206414579E-06</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>8.602050763841291E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.04967263279973512</v>
+        <v>0.07170262507128081</v>
       </c>
       <c r="CO2">
-        <v>0.003836414532491112</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.128019277309556</v>
+        <v>0.357314205777262</v>
       </c>
       <c r="CQ2">
-        <v>0.02359911998795384</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.001238210534907326</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>2.444188341575954E-05</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.02470405011681336</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.004646699294058167</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.05619168085400041</v>
+        <v>0.09546772223818711</v>
       </c>
       <c r="CW2">
-        <v>0.02206784237088137</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.04123864109607048</v>
+        <v>0.0409566280063671</v>
       </c>
       <c r="CY2">
-        <v>0.07045285996288676</v>
+        <v>0.1474566482924429</v>
       </c>
       <c r="CZ2">
-        <v>0.005454704910887714</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01487198194373563</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>8.588418701891031E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.05665742730159757</v>
+        <v>0.09716559430327275</v>
       </c>
       <c r="DD2">
-        <v>0.01364078471604293</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01000740214003786</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.000663236465824029</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.004994736237221622</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.002020752000095479</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0007719641516912034</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.03496676542845798</v>
+        <v>0.01809259426726239</v>
       </c>
       <c r="DK2">
-        <v>0.03370795202361409</v>
+        <v>0.01350360786432495</v>
       </c>
       <c r="DL2">
-        <v>0.01552907533397401</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.02035665454105771</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.04176482468523259</v>
+        <v>0.0428748228133355</v>
       </c>
       <c r="DO2">
-        <v>0.0007754456682963564</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.06167732259791308</v>
+        <v>0.1154655513662644</v>
       </c>
       <c r="DQ2">
-        <v>0.004125636979526744</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.01422095247070961</v>
+        <v>0</v>
       </c>
       <c r="DS2">
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.005436362736498088</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0002049374247022158</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.004805286281513713</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.003012054041865863</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.02346131914455642</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>9.030988643870187E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.005231703280240656</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0005413225254382679</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.001845908953790722</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.002428785118124408</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.01783006737604988</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0001672346218742518</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.01728656016656198</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>1.402919341933389E-05</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.02769105192294315</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.00758261177254905</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.001557869285659153</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.002004642663439085</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.003507681509188404</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0007685365432400578</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.00213404403635443</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.007437743460144639</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0003044192420633505</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0002668311065796711</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0004954007794343207</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.001616776995886297</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>1.086720414505446E-05</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.002480057273417359</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.003303763465075047</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.005508953416375659</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.003818525326616327</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.002654971430478143</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>6.976638268171741E-07</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001766707774026119</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001590230680559636</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.001866138413646242</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.001934771194862348</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.006924202783316583</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.008944657392029414</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.001707387601410986</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.007634330195343263</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.002903904383429615</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001247950108089852</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.001193899432525147</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>1.93805008441866E-05</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0002650270937093731</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0003506926512589581</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>7.044398157356466E-05</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0003210428865126041</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0002029617358646571</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0003913984783165619</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.003142274938740272</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.000243625966630514</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.003926801704219786</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.004589513244244903</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>9.044964257785226E-05</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001356106467539677</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.003789566846431879</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0004116308586138205</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.002299165912260218</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.00357254081963913</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0001658058257582649</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001658132951280623</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.003371624729593543</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001302727793620195</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>5.434937514522716E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0001839053434442683</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.000354570747849769</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>2.458078142511143E-05</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001919009110730469</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.00371086974291254</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.000354050349135612</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>1.762591244970633E-05</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001372103704840214</v>
+        <v>0</v>
       </c>
       <c r="GP2">
         <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0006582644837749467</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.002414473453379196</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.001897291125724503</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.731021697718321E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>9.753765894969543E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2788,28 +2788,28 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.427703832416426E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.108445583204183E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.96854251592919E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.399330186448601E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.297738431360144E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.199263178839676E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.783241955744766E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.306196886760673E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2821,28 +2821,28 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2.339676194790496E-07</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.068331653204987E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>3.231464651447944E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1.948402346584549E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>8.670238823479872E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>3.581646476020693E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3.984181895259795E-07</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.110847269386976E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.093109785370345E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.632229617014896E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.0335399872602E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -2878,46 +2878,46 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.753765894969543E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.285185892881828E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.392513707086793E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.093545644440537E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>2.015618128989104E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>4.054061616752475E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>5.800751136170295E-08</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>1.852044361738042E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>8.038226656579524E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.361359047492425E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.078276964520301E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.452499429687941E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -2926,28 +2926,28 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>4.170967254918533E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>5.391675989192049E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>3.131049171581079E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.932126444457141E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.947458611621153E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.134172982610255E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.234556587850487E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.103327140324934E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -2971,28 +2971,28 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>9.074178668603666E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>2.277927397928152E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>2.643122928968832E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>8.692947615526283E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>1.839687547906549E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>2.224432318124225E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>8.978386962238656E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.263035768675854E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -3001,28 +3001,28 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>4.680179546921755E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>6.755177403666423E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>4.405673810963865E-08</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>6.254791753288234E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.221509807732015E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>2.9266816938307E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>2.012549018928635E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -3031,340 +3031,340 @@
         <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.44733391105199E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>6.755177403666423E-06</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.007098832005349418</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.09388791731952219</v>
+        <v>0.2050053648530414</v>
       </c>
       <c r="CP3">
-        <v>0.06778176066456905</v>
+        <v>0.1212059204877685</v>
       </c>
       <c r="CQ3">
-        <v>0.1333426318414101</v>
+        <v>0.3316530057993531</v>
       </c>
       <c r="CR3">
-        <v>0.0005052118626318609</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.002557602980769695</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.003832133033549519</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.01472117468081924</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01447621539743254</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.05191237674301802</v>
+        <v>0.07026599958628024</v>
       </c>
       <c r="CX3">
-        <v>0.006093945236492849</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.08341935235841792</v>
+        <v>0.1714018000450496</v>
       </c>
       <c r="CZ3">
-        <v>0.008812903099514576</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.01965713602015806</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.005183942442887622</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.03297801854770273</v>
+        <v>0.009487666063201885</v>
       </c>
       <c r="DD3">
-        <v>0.03169831385705262</v>
+        <v>0.005379878637979129</v>
       </c>
       <c r="DE3">
-        <v>0.001821995462529465</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.00411584650005537</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.002414582031566982</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.0003328565150136083</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.003399532046440109</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.01798459865404827</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.04081738222642201</v>
+        <v>0.03465162754312113</v>
       </c>
       <c r="DL3">
-        <v>0.0006866339016634271</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.03744340102759892</v>
+        <v>0.02382131829855417</v>
       </c>
       <c r="DN3">
-        <v>0.0144334302235602</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01812120573074423</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.03847335504789448</v>
+        <v>0.02712741868565084</v>
       </c>
       <c r="DQ3">
-        <v>0.02792084222458445</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.009459739339255343</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.002559198641748203</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.004102805059383267</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.000114489149041767</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.004544500373208723</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0003489301019022847</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.013056336363917</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004900496521344482</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002895139827669706</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>2.318388043475011E-05</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0008348676536800261</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.001381161137020225</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.01254797691277023</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.002108626700531017</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.005722665094415417</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.000945853271507681</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.01414477493234654</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.01832708523289592</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0007693440606348395</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.004045991240960322</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0001647581250426094</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.001154685777413538</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0001161630616670566</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.00881051691473678</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.004163295343958612</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>1.541269618074103E-05</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0006112656248793878</v>
+        <v>0</v>
       </c>
       <c r="ES3">
         <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0001641755316232454</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.001078731233846824</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.005945994974037748</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.000369419241647125</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.004833512591222617</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>9.753765894969543E-06</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0002580882375857142</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0007323113536899075</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.001513830708557884</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.0002288462637936566</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.003448644613639346</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.002781309805520936</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01698313572003625</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.001501967746894748</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.004592211657400865</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.004918312733771617</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0004375678681586668</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0008289852177537064</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0001015163362049368</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0001050203594695676</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0008240308315446574</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>5.974885412566031E-05</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0002597402701777644</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0002524447204121043</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>2.288150157831483E-05</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.003098069128633247</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.00304590736961057</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0001952496228920935</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.003945107472330815</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0002835149381343542</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.000594495770491979</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.004237858213315995</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001209855190227657</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001144115599416091</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.008932633724222937</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.001072047914636128</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0001312285855787575</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.00268423672593758</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.003345238335413781</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0001153916153349934</v>
+        <v>0</v>
       </c>
       <c r="GH3">
         <v>0</v>
       </c>
       <c r="GI3">
-        <v>4.4177732291253E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0001856527160163883</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0002903604858806145</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.002701080047591218</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0009918539895147338</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>3.075457271940321E-06</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0002779286233349268</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0003145333584311634</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>6.858232200077152E-05</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001914388356960767</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002242434714420298</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.299976486625167E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3552,34 +3552,34 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.338157902385659E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4.282789644714346E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.185058632540572E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.071839890560095E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.382941649342403E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.974530142925504E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.159450403046308E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.658829387283528E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.410186476232093E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3588,94 +3588,94 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.09460684681819E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5.214806197755175E-06</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.260729299711525E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.587435695742268E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.503340616811062E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2.262622967000924E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>4.339878406216774E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2.139396080935583E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3.360618959678366E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>9.804594603229038E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>3.526161449962564E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>7.130834975197238E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>2.782184702099154E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.361088582288955E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.239994319839891E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.086819452599089E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.300819987991333E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>3.456034653230365E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.471631775563182E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.796708737578344E-06</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>7.586211651819704E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001127955603942442</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>9.071839890560095E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>3.008773007750341E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>9.89166708920898E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.973616984008783E-07</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -3690,91 +3690,91 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>6.118953948489946E-07</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>5.302692669857454E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>3.811151768084485E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>1.260729299711525E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>2.166549576666924E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>6.291174188688949E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>2.517072726055173E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0001092252410481756</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1.953007976749589E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>6.118953948489946E-07</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>2.648295699165372E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>4.35402938975355E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>2.638071953371721E-07</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>7.495368037218649E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>2.977813401017669E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>7.591429412997337E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>6.902651937571064E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0001362625800587669</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>8.791290572590672E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>2.855289266316745E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>1.281406950130067E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>4.933429877895156E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>6.681379471917367E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>3.071088100813193E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>4.538208778139629E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1.924825734719717E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -3786,358 +3786,358 @@
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.60045450768354E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>1.491458521972052E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>1.710369226415426E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>5.647971926410268E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>3.215772281815486E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>1.660800975810115E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>8.158235643533858E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>4.953117168519387E-06</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.04337974045294626</v>
+        <v>0.05232271572046695</v>
       </c>
       <c r="CO4">
-        <v>0.01907326781367362</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.1233065626529895</v>
+        <v>0.3655842578380445</v>
       </c>
       <c r="CQ4">
-        <v>0.05623481402958375</v>
+        <v>0.1027063048812306</v>
       </c>
       <c r="CR4">
-        <v>0.002762821145269728</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.001171376652978027</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.007447029538024169</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.01113945921748451</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.04364111410010513</v>
+        <v>0.053347131674012</v>
       </c>
       <c r="CW4">
-        <v>0.02814916702198823</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.02479925168946691</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.07854274248621547</v>
+        <v>0.1901389823906995</v>
       </c>
       <c r="CZ4">
-        <v>0.005466742873876895</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01578756627443951</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.001391201965444475</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.04908002219128982</v>
+        <v>0.07466414002217278</v>
       </c>
       <c r="DD4">
-        <v>0.02621213936496711</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.007753548277250484</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0006520399905492966</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.004102628886390737</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001794627104173041</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.001780501090887055</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.03116601284974335</v>
+        <v>0.004452788721401302</v>
       </c>
       <c r="DK4">
-        <v>0.03647476425960171</v>
+        <v>0.02525966690816095</v>
       </c>
       <c r="DL4">
-        <v>0.01015211007049111</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.02703331019138499</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.03261837634914478</v>
+        <v>0.01014511599045076</v>
       </c>
       <c r="DO4">
-        <v>0.002900631098329358</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.06099901473087317</v>
+        <v>0.1213788958533606</v>
       </c>
       <c r="DQ4">
-        <v>0.009757817395497265</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.01378805792373484</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>4.005639324539531E-06</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.005068121955332147</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0001080801277741763</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.003748804237324233</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.003130695815559874</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.02092700957206374</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0006285535373415578</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.003843722127801168</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0003383012244541993</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0008328405255451735</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.002141810507548626</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.01474415721236351</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0004128465240840765</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.01115029634637532</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>2.166549576666924E-05</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0260752365108335</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.01377299667743916</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0003387777817906227</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.003570434547231719</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.001406435220123693</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0008290097847054546</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.001230202919421061</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.007787483388727297</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0009119156229034293</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>2.056591265123517E-05</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0005275486726587328</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.001121587634918871</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>2.106891041953217E-06</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.002169437677123116</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.004903181534438856</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.003576328387460979</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.00472125974106855</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0006272612017116254</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>2.125868792989277E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.001513499525656486</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.001386257174963514</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001754568574339226</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.001362577187293969</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.005561743965149361</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01312726138646419</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>8.086161327434211E-05</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.006258329259538766</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.004448650181903836</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0006860427840210308</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0007672828341614798</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>2.812299485350852E-05</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0002679264072518569</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0002653825654557919</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>2.499127225562942E-06</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0002151406186856582</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0002116561673663996</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0002459305999215932</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.004107827284110062</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.001515660844035698</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001680899626385886</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.003976978063791338</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0001344294993306605</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0009678157444003921</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.003042013379168219</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0005435791531556337</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002630780781913181</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0065292270449355</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0001136825589692128</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.000927404887732073</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.003419910391256477</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.002415153254951214</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.00018134131173238</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>1.216162908724905E-05</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>7.267184158573602E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0001142005424923495</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0008358160302893154</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.002326547611592256</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0001979209274919139</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>3.22917922396609E-05</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0002483164903638322</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>6.420197056430542E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0003739517641262335</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.002309232134356292</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.001814277810476348</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,37 +4313,37 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.293377102463667E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.820949281558067E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6.547458862540479E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.307066859871443E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.994691615126176E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.059327697607236E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.632219199848824E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.409780744748427E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.818393463874539E-07</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.694549899180533E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4352,565 +4352,565 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.180323130711951E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.479109088750844E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.676443547418024E-06</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.288833409667384E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.576893970636469E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.769808461729076E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2.092289603682605E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>3.900542616863149E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.187968035702825E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.933038567161912E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.721993810462459E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>4.149071131518782E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>3.137705612437686E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.050634276476872E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>7.339602425063063E-07</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>8.17597205430705E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>6.632219199848824E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>3.467710759588148E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>9.848873008978714E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>3.721063553800574E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.15341675821117E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>6.220661433199485E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>4.078731191145624E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>4.533006847022815E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.417221209744087E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.909563489762279E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1.626448159662457E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>5.261230005708866E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.325496911330596E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>6.27247602804949E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4.813436900469329E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0001159934572232913</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>8.968857082751731E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.523762751157796E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>2.898859164393804E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>3.337987830741998E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>2.769001935494559E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>4.062493787608413E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>3.318228239024474E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>4.285982568978863E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>6.27247602804949E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>8.471020308952552E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.969865283841686E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>1.112359989194746E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>6.220661433199485E-06</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>2.185865513702379E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>8.287326702777419E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>2.672768800852343E-06</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.010366265472367E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>6.878481707427018E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>5.592994446546599E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>4.910527156914622E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.417221209744087E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>4.792598637371303E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>4.405055214549846E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>1.523762751157796E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>6.357818195557328E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>4.071806641599332E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>3.084433221368234E-07</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>7.626534333467067E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>1.295874855372203E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>1.329583298504464E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01040768590245502</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.07171114012911678</v>
+        <v>0.1286004622875101</v>
       </c>
       <c r="CP5">
-        <v>0.03303051034204029</v>
+        <v>0.009327598497784135</v>
       </c>
       <c r="CQ5">
-        <v>0.1180753113064574</v>
+        <v>0.271565752770089</v>
       </c>
       <c r="CR5">
-        <v>0.006220629440740348</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.003838717426584609</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.0004319120261390952</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01512304558562114</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.0002769269142288961</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.07566714138627893</v>
+        <v>0.1407989089440103</v>
       </c>
       <c r="CX5">
-        <v>2.004235469302335E-05</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.08810568483071066</v>
+        <v>0.1791535248372079</v>
       </c>
       <c r="CZ5">
-        <v>0.02250241140876857</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.01696216663632004</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.01640201628825383</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.009771117453870779</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.06837520962875542</v>
+        <v>0.1183140221139189</v>
       </c>
       <c r="DE5">
-        <v>0.0005266232602168659</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.008555708974922593</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.00851355404167064</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0001607656301500238</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.005132639474965956</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.007646022909237796</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0614673838248311</v>
+        <v>0.0970135373304499</v>
       </c>
       <c r="DL5">
-        <v>0.003757496551322047</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.03273617947792939</v>
+        <v>0.008420020589734142</v>
       </c>
       <c r="DN5">
-        <v>0.00245057869479394</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.02567089743911747</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01696990636828439</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.04518495021098034</v>
+        <v>0.04680617262929571</v>
       </c>
       <c r="DR5">
-        <v>0.003123828351743217</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.004117194242944023</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.005271914941438411</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0005447657200594875</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.003389972308307637</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0002181702159044553</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01592615880288648</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.009990694589909848</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0009347676930448589</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0002627465710119078</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.001603591159520028</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>4.841846957951349E-05</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.009485462531225222</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.007929140264037194</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.003167753581144524</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.006855460400516718</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.006837367951865388</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.02709902601966668</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.002046617498072759</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.00260647788125186</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>2.948106414734357E-06</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.0018219375201414</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>1.613545942459082E-05</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.005328147724971918</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.004006168698119071</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>1.340907732638246E-05</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0004952742450673792</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0001305685627785192</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.001374025888378501</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0001379520950340132</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.007257190597994362</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>3.44994508406072E-05</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.006222972665097144</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>2.414261723236264E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0006776189093820329</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.000626488277586376</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.001221012747747661</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.000285090331003636</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.003583561828948489</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.0008987698375976319</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.009164187637693843</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.002363122424201089</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.004221472977996532</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.005886343435637671</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.003765441729260227</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.001826201474310957</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0003547155914487548</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0001043982264917973</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0004347851090653918</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>2.092289603682605E-06</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>7.307252655969108E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0001830294022423995</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>2.228839130155782E-05</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001143724352478773</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.002326233469347421</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0003635339247779402</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.006152865776875406</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.002634829525662451</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.001279859316182853</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.004680437883214028</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.003246224040930791</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>2.004740512318717E-06</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.004513981634341512</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0008795893854775061</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>7.221496965924951E-05</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.003631097766338696</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0044397177158772</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.001045073876894266</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>1.694549899180533E-06</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0003321104629690963</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0001496235968331228</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0002576369175953644</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.003091299672613535</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002078138651742672</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0001293303957067498</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>3.355472943486279E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>1.284726960743683E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0002199335304915057</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001649128449661442</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.004030651176704164</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,28 +5086,28 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.152649459241143E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.556917041619851E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.611040193541681E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.297433394726748E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.36770309688111E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.520135099764702E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5116,574 +5116,574 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.758814937069807E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.845219781541916E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.231528082676397E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.147204119766057E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.231453065953783E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.790418151730623E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>6.991482406920775E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.790042522145584E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6.978396370448532E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2.695915319563418E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.830963722214002E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.706616556317551E-07</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3.989209832283332E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.421230189446851E-07</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>8.152649459241143E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3.339404715599586E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>5.015305786445224E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>6.112097962658261E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>8.615542790890477E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.882521011961284E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>4.25320096116955E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>5.261898017675977E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3.915671386808226E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>5.472929527943887E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.618023187006653E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.093958821460422E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.220580679952051E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.220580679952051E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>6.449464195625185E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.945870388005023E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>2.254066160531889E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>5.361796714114867E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>7.669393604435473E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>5.371997501227073E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1.231453065953783E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>2.695915319563418E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>3.553165485158899E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>4.195305870716575E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.406143254504549E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>5.474353639707191E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1.592339739901817E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>1.841265898460744E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>5.667243553613757E-08</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>4.961267861979563E-06</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.212185236325156E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>3.693520586314617E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>3.477841596538931E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>8.727276202394354E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0001188475971973709</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001024525027146912</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001185861527246521</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0001086144821321074</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>5.41978311873002E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>6.609719475827587E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>5.981445127486188E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>5.31426731359521E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>1.421613419163789E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>2.405235434093437E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>2.256062982092952E-06</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>8.239745563256871E-08</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>5.58806058497373E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>2.796628142530156E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>2.677361789554828E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>2.520135099764702E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>7.36611770347639E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>6.477541801969002E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1.841265898460744E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>4.041224334732857E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>1.415179809099392E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>3.624378190845901E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>6.914782782165099E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>3.567494930303029E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>4.890633366184413E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>1.769754275059942E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>7.140328014729701E-07</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0001193713221571106</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.07715132252718043</v>
+        <v>0.1431242176927721</v>
       </c>
       <c r="CO6">
-        <v>0.005260269635204067</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.1547105893893722</v>
+        <v>0.3785515313667314</v>
       </c>
       <c r="CQ6">
-        <v>0.03633975733436569</v>
+        <v>0.01924273261832015</v>
       </c>
       <c r="CR6">
-        <v>0.003765330260200384</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>3.41145356079103E-05</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.00841848966514685</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.007625997107406369</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.05431162579205239</v>
+        <v>0.07379544931963654</v>
       </c>
       <c r="CW6">
-        <v>0.01693278132526137</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.0438241503752634</v>
+        <v>0.04196123705221869</v>
       </c>
       <c r="CY6">
-        <v>0.05796701432741457</v>
+        <v>0.08489120019675601</v>
       </c>
       <c r="CZ6">
-        <v>0.003839281325334472</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.01682461547479033</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0003701187058730478</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.05116130589726291</v>
+        <v>0.06423280928899096</v>
       </c>
       <c r="DD6">
-        <v>0.009291050592674554</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.009554822105203633</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>5.667243553613757E-08</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.002586022684937035</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.006494255745892468</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>3.227570214966304E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.03801848805362016</v>
+        <v>0.02433843658259645</v>
       </c>
       <c r="DK6">
-        <v>0.01589425855850506</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.02408161962558265</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.008713733716099296</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0470066868212046</v>
+        <v>0.05162166882845886</v>
       </c>
       <c r="DO6">
-        <v>0.0001520982760406618</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.06895369228442065</v>
+        <v>0.1182407170535191</v>
       </c>
       <c r="DQ6">
-        <v>0.0005539335205253596</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.01748338874489873</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0008020926059614155</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.003919956505502835</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.001405698392279971</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.002030431480038476</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.004821016120578094</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01544178581772827</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>1.63260831620533E-06</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.001403001846148216</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.001723398227399675</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>2.219966377162356E-05</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.005310332191660247</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.01099248870040066</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0001757349604104309</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.009674768157207062</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.001354022108216592</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.02451799709100598</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.009985603974899079</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0008700492885452876</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.003818502469855638</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001062721024719329</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0002269343263148277</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.002758713839288886</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.008655616721850052</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0002768613804528716</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>1.932214954391693E-05</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001017308447813696</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0004666162967267765</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>1.769754275059942E-05</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.001855277883559857</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.002161409820779207</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.003078280306342406</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.003275642482759184</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>8.160402504478068E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0002123587969607581</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001089473482392875</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0003641435036509634</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.002547488825710576</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.0002768613804528716</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.009247174842060514</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01306893322363138</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0002615127378725977</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.006534911441418709</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.003105341469297194</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.0004417175007651562</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001137729707946852</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>8.936786286634134E-05</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0003930775986473482</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0003189481504615328</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0001870427238604775</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>6.674074576796611E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0003509893486133672</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0007973442847284671</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.004251044369661186</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.001137729707946852</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.001775273514867549</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.002324636713219118</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0001473163042320289</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.004224047907813286</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.00500376394697667</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0001051416227194023</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.004350139364950582</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.004821016120578094</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>5.495862620276801E-05</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0006842894506180629</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.003310051971427069</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.002600680535699436</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0002868124906936755</v>
+        <v>0</v>
       </c>
       <c r="GH6">
         <v>0</v>
       </c>
       <c r="GI6">
-        <v>2.401407281202471E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001196336306446107</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001284581620248194</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.002783967971329496</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.000139074233228989</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>7.066132884020208E-05</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0002327534958675489</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>1.551431440054093E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0007375499117830995</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.003342270022604455</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.002708550781113351</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.16595830422834E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.264159733515664E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.587647143380517E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.696730022973371E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.858226360489645E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.858226360489645E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.858226360489645E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.858226360489645E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.869713183956708E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.373362904704452E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.010511318117478E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.811225972134939E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.756667867218729E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.104694663649293E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001036945042212002</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001482677046476483</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001972195473761506</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0002450096873885194</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002884738080584461</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0003260833581812482</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0003663026000392394</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0004042551510434633</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0004340902382212066</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0004534124972558885</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0004639548682675275</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0004662804448281937</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0004662804448281937</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0004681141572907749</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0004719218959394263</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0004888983401522551</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0005125789954266245</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0005414243148946765</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0005799755894602702</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0006238946109373107</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0006802029593917491</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0007326154535693952</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0007897615237354424</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0008496723180864842</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.000898132631467535</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0009386122357072634</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0009627044032259052</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.000971333925905077</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0009742433843822044</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0009742433843822044</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0009742433843822044</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.000977234520013606</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0009854890599738664</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0009990961195423312</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.001028931206720075</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.001058461421783654</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001085461822194045</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.001116375969587632</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.001147758286795368</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001181695486447983</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001211225701511562</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001238664531237632</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001254895916754819</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001263741054047296</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001268979187253711</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001272526142556951</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001272526142556951</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001272526142556951</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001273468663920283</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.00127596558859862</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001284176173910415</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.00129476227353633</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001310819800756163</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001323648740628265</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001331050047530711</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001337755607196238</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001344689650421594</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001347599108898721</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001349522990300022</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001350323305153567</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001350323305153567</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001350323305153567</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.00135060236266308</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001351250980071264</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001356557087759321</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.001362279050648556</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001369722292894033</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.001380924659734926</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001393503072712981</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001405286023371473</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001416776964861417</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001425794275196342</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.00143429964009573</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001440745200034374</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001445983333240789</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001532003840879202</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.05120463664061432</v>
+        <v>0.07170262507128081</v>
       </c>
       <c r="CO2">
-        <v>0.05504105117310543</v>
+        <v>0.07170262507128081</v>
       </c>
       <c r="CP2">
-        <v>0.1830603284826614</v>
+        <v>0.4290168308485428</v>
       </c>
       <c r="CQ2">
-        <v>0.2066594484706153</v>
+        <v>0.4290168308485428</v>
       </c>
       <c r="CR2">
-        <v>0.2078976590055226</v>
+        <v>0.4290168308485428</v>
       </c>
       <c r="CS2">
-        <v>0.2079221008889384</v>
+        <v>0.4290168308485428</v>
       </c>
       <c r="CT2">
-        <v>0.2326261510057517</v>
+        <v>0.4290168308485428</v>
       </c>
       <c r="CU2">
-        <v>0.2372728502998099</v>
+        <v>0.4290168308485428</v>
       </c>
       <c r="CV2">
-        <v>0.2934645311538103</v>
+        <v>0.5244845530867299</v>
       </c>
       <c r="CW2">
-        <v>0.3155323735246917</v>
+        <v>0.5244845530867299</v>
       </c>
       <c r="CX2">
-        <v>0.3567710146207622</v>
+        <v>0.565441181093097</v>
       </c>
       <c r="CY2">
-        <v>0.427223874583649</v>
+        <v>0.7128978293855399</v>
       </c>
       <c r="CZ2">
-        <v>0.4326785794945367</v>
+        <v>0.7128978293855399</v>
       </c>
       <c r="DA2">
-        <v>0.4475505614382723</v>
+        <v>0.7128978293855399</v>
       </c>
       <c r="DB2">
-        <v>0.4476364456252913</v>
+        <v>0.7128978293855399</v>
       </c>
       <c r="DC2">
-        <v>0.5042938729268889</v>
+        <v>0.8100634236888127</v>
       </c>
       <c r="DD2">
-        <v>0.5179346576429318</v>
+        <v>0.8100634236888127</v>
       </c>
       <c r="DE2">
-        <v>0.5279420597829696</v>
+        <v>0.8100634236888127</v>
       </c>
       <c r="DF2">
-        <v>0.5286052962487936</v>
+        <v>0.8100634236888127</v>
       </c>
       <c r="DG2">
-        <v>0.5336000324860152</v>
+        <v>0.8100634236888127</v>
       </c>
       <c r="DH2">
-        <v>0.5356207844861106</v>
+        <v>0.8100634236888127</v>
       </c>
       <c r="DI2">
-        <v>0.5363927486378018</v>
+        <v>0.8100634236888127</v>
       </c>
       <c r="DJ2">
-        <v>0.5713595140662598</v>
+        <v>0.8281560179560751</v>
       </c>
       <c r="DK2">
-        <v>0.6050674660898739</v>
+        <v>0.8416596258204</v>
       </c>
       <c r="DL2">
-        <v>0.6205965414238479</v>
+        <v>0.8416596258204</v>
       </c>
       <c r="DM2">
-        <v>0.6409531959649056</v>
+        <v>0.8416596258204</v>
       </c>
       <c r="DN2">
-        <v>0.6827180206501382</v>
+        <v>0.8845344486337355</v>
       </c>
       <c r="DO2">
-        <v>0.6834934663184346</v>
+        <v>0.8845344486337355</v>
       </c>
       <c r="DP2">
-        <v>0.7451707889163476</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.7492964258958743</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.763517378366584</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.763517378366584</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.768953741103082</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.7691586785277842</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7739639648092979</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.7769760188511637</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.8004373379957201</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.8005276478821588</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.8057593511623995</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.8063006736878378</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.8081465826416285</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.8105753677597529</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.8284054351358028</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.8285726697576771</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.845859229924239</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.8458732591176583</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.8735643110406015</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.8811469228131505</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.8827047920988097</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.8847094347622488</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.8882171162714373</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.8889856528146773</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.8911196968510318</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.8985574403111763</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8988618595532397</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.8991286906598194</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.8996240914392537</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.90124086843514</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.901251735639285</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.9037317929127023</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.9070355563777773</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.912544509794153</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.9163630351207693</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.9190180065512474</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.9190187042150743</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.9207854119891004</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.92237564266966</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.9242417810833062</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.9261765522781685</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.9331007550614852</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.9420454124535146</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.9437528000549256</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9513871302502688</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9542910346336984</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9555389847417882</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9567328841743133</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9567522646751575</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9570172917688669</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9573679844201258</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9574384284016993</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9577594712882119</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9579624330240766</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9583538315023932</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9614961064411335</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.961739732407764</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9656665341119838</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9702560473562287</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9703464969988066</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9717026034663463</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9754921703127781</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.975903801171392</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9782029670836522</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9817755079032913</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9819413137290496</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9835994466803302</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9869710714099237</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9882737992035439</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9883281485786891</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9885120539221334</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9888666246699831</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9888912054514082</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9908102145621387</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9945210843050513</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9948751346541869</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9948927605666366</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9950299709371205</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9950299709371205</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9956882354208955</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9981027088742747</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.731021697718321E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.731021697718321E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.731021697718321E-07</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.731021697718321E-07</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.022686806474138E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.022686806474138E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.022686806474138E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.450390638890564E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001255883622209475</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001652737873802394</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.000172673117566688</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0002056505018802894</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0002176431336686861</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0002554755532261338</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0002685375220937405</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002685375220937405</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002685375220937405</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002685375220937405</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002687714897132196</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002708398213664246</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.000303154467880904</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.000303154467880904</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0003051028702274886</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003137731090509684</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0003495895738111754</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003499879920007013</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0003499879920007013</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0003499879920007013</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0003540988392700883</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0003650299371237917</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0003650299371237917</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0003650299371237917</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0003746621667408066</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0003786957067280668</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0003786957067280668</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0003786957067280668</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0003786957067280668</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0003884494726230364</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0003884494726230364</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0003927346585159182</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0004266597955867861</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0004277533412312267</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0004479095225211177</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0004884501386886425</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0004885081462000042</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0004885081462000042</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0005070285898173846</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0005150668164739641</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0005174281755214565</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0005185064524859768</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0005530314467828562</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0005530314467828562</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0005530314467828562</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0005947411193320415</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0006001327953212335</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0006001327953212335</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0006032638444928146</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0006051959709372718</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0006051959709372718</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0006446705570534833</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0006560122868795858</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0006560122868795858</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0006560122868795858</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0006560122868795858</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0006783578527580907</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.00068939112416134</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.00068939112416134</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.00068939112416134</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0006984653028299436</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0007212445768092252</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.000723887699738194</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0007325806473537204</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0007509775228327859</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0007732218460140281</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0007822002329762668</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0007948305906630254</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0007948305906630254</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0007948305906630254</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0007995107702099472</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0007995107702099472</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0008062659476136136</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0008063100043517232</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0008125647961050114</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0008137863059127434</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0008430531228510505</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0008631786130403368</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0008631786130403368</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0008631786130403368</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0008776519521508568</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0008844071295545232</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.007983239134903942</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1018711564544261</v>
+        <v>0.2050053648530414</v>
       </c>
       <c r="CP3">
-        <v>0.1696529171189952</v>
+        <v>0.3262112853408099</v>
       </c>
       <c r="CQ3">
-        <v>0.3029955489604053</v>
+        <v>0.6578642911401631</v>
       </c>
       <c r="CR3">
-        <v>0.3035007608230371</v>
+        <v>0.6578642911401631</v>
       </c>
       <c r="CS3">
-        <v>0.3060583638038068</v>
+        <v>0.6578642911401631</v>
       </c>
       <c r="CT3">
-        <v>0.3098904968373563</v>
+        <v>0.6578642911401631</v>
       </c>
       <c r="CU3">
-        <v>0.3246116715181755</v>
+        <v>0.6578642911401631</v>
       </c>
       <c r="CV3">
-        <v>0.3390878869156081</v>
+        <v>0.6578642911401631</v>
       </c>
       <c r="CW3">
-        <v>0.3910002636586261</v>
+        <v>0.7281302907264433</v>
       </c>
       <c r="CX3">
-        <v>0.397094208895119</v>
+        <v>0.7281302907264433</v>
       </c>
       <c r="CY3">
-        <v>0.4805135612535369</v>
+        <v>0.899532090771493</v>
       </c>
       <c r="CZ3">
-        <v>0.4893264643530515</v>
+        <v>0.899532090771493</v>
       </c>
       <c r="DA3">
-        <v>0.5089836003732096</v>
+        <v>0.899532090771493</v>
       </c>
       <c r="DB3">
-        <v>0.5141675428160972</v>
+        <v>0.899532090771493</v>
       </c>
       <c r="DC3">
-        <v>0.5471455613638</v>
+        <v>0.9090197568346948</v>
       </c>
       <c r="DD3">
-        <v>0.5788438752208526</v>
+        <v>0.914399635472674</v>
       </c>
       <c r="DE3">
-        <v>0.580665870683382</v>
+        <v>0.914399635472674</v>
       </c>
       <c r="DF3">
-        <v>0.5847817171834374</v>
+        <v>0.914399635472674</v>
       </c>
       <c r="DG3">
-        <v>0.5871962992150044</v>
+        <v>0.914399635472674</v>
       </c>
       <c r="DH3">
-        <v>0.587529155730018</v>
+        <v>0.914399635472674</v>
       </c>
       <c r="DI3">
-        <v>0.590928687776458</v>
+        <v>0.914399635472674</v>
       </c>
       <c r="DJ3">
-        <v>0.6089132864305062</v>
+        <v>0.914399635472674</v>
       </c>
       <c r="DK3">
-        <v>0.6497306686569283</v>
+        <v>0.9490512630157951</v>
       </c>
       <c r="DL3">
-        <v>0.6504173025585918</v>
+        <v>0.9490512630157951</v>
       </c>
       <c r="DM3">
-        <v>0.6878607035861907</v>
+        <v>0.9728725813143493</v>
       </c>
       <c r="DN3">
-        <v>0.7022941338097509</v>
+        <v>0.9728725813143493</v>
       </c>
       <c r="DO3">
-        <v>0.7204153395404952</v>
+        <v>0.9728725813143493</v>
       </c>
       <c r="DP3">
-        <v>0.7588886945883897</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7868095368129742</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7962692761522295</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7988284747939778</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.8029312798533611</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.8030457690024029</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.8075902693756116</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.8079391994775139</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.8209955358414309</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.8258960323627754</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.8287911721904452</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8288143560708799</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.82964922372456</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.8310303848615802</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8435783617743504</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8456869884748814</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8514096535692969</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8523555068408045</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8665002817731511</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.884827367006047</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8855967110666819</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8896427023076422</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8898074604326848</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8909621462100983</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8910783092717653</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8998888261865021</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.9040521215304608</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.9040675342266415</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.9046787998515209</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.9046787998515209</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.9048429753831442</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.905921706616991</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.9118677015910287</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.9122371208326758</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.9170706334238985</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.9170803871897935</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.9173384754273791</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.918070786781069</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.9195846174896269</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9198134637534205</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9232621083670599</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9260434181725808</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9430265538926171</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9445285216395118</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9491207332969127</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9540390460306843</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.954476613898843</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9553055991165966</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9554071154528015</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9555121358122711</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9563361666438158</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9563959154979415</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9566556557681192</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9569081004885313</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9569309819901096</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9600290511187428</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9630749584883533</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9632702081112454</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9672153155835762</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9674988305217106</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9680933262922026</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9723311845055186</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9735410396957462</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9746851552951623</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9836177890193852</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9846898369340213</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9848210655196001</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9875053022455377</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9908505405809515</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9909659321962865</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9909659321962865</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9910101099285777</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9911957626445941</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9914861231304747</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9941872031780659</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9951790571675806</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9951821326248526</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9954600612481875</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9957745946066187</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9958431769286195</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9977575652855802</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.299976486625167E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.299976486625167E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.299976486625167E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.299976486625167E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.468155551048176E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.750945195762522E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.36945105901658E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.276635048072589E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001265957669741499</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.000186341068403405</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001979355724338681</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001979355724338681</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0002145238663067033</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002169340527829354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002169340527829354</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002169340527829354</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002278801212511173</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0002278801212511173</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002330949274488725</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002457022204459878</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002615765774034105</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002766099835715211</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002992362132415303</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.000342634997303698</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0003640289581130539</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0003976351477098375</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0004074397423130666</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0004109659037630292</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0004822742535150015</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0005100961005359931</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0005237069863588827</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0005237069863588827</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0005249469806787226</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0005260338001313216</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.000569042000011235</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0006036023465435386</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0006283186642991705</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0006311153730367489</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0007069774895549459</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0008197730499491901</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0008288448898397502</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0008288448898397502</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0008589326199172536</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0008688242870064626</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0008688242870064626</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0008690216487048635</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0008690216487048635</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0008690216487048635</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0008690216487048635</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0008690216487048635</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0008696335440997124</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0008696335440997124</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0008749362367695699</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0009130477544504147</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.00092565504744753</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0009473205432141993</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0009536117174028882</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0009787824446634398</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001088007685711616</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.001107537765479111</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.00110814966087396</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.001134632617865614</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.001138986647255367</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.001139250454450705</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001139250454450705</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.001146745822487923</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0011765239564981</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.001184115385911097</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.001184115385911097</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.001253141905286808</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001389404485345575</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001477317391071482</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001505870283734649</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.00151868435323595</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.001568018652014901</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001634832446734075</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001665543327742207</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001710925415523603</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0017301736728708</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0017301736728708</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0017301736728708</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0017301736728708</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.001731774127378484</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001746688712598204</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001763792404862358</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001820272124126461</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.001852429846944616</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001869037856702717</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001950620213138056</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001955573330306575</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.04533531378325284</v>
+        <v>0.05232271572046695</v>
       </c>
       <c r="CO4">
-        <v>0.06440858159692646</v>
+        <v>0.05232271572046695</v>
       </c>
       <c r="CP4">
-        <v>0.187715144249916</v>
+        <v>0.4179069735585115</v>
       </c>
       <c r="CQ4">
-        <v>0.2439499582794997</v>
+        <v>0.5206132784397421</v>
       </c>
       <c r="CR4">
-        <v>0.2467127794247695</v>
+        <v>0.5206132784397421</v>
       </c>
       <c r="CS4">
-        <v>0.2478841560777475</v>
+        <v>0.5206132784397421</v>
       </c>
       <c r="CT4">
-        <v>0.2553311856157717</v>
+        <v>0.5206132784397421</v>
       </c>
       <c r="CU4">
-        <v>0.2664706448332562</v>
+        <v>0.5206132784397421</v>
       </c>
       <c r="CV4">
-        <v>0.3101117589333613</v>
+        <v>0.5739604101137541</v>
       </c>
       <c r="CW4">
-        <v>0.3382609259553495</v>
+        <v>0.5739604101137541</v>
       </c>
       <c r="CX4">
-        <v>0.3630601776448164</v>
+        <v>0.5739604101137541</v>
       </c>
       <c r="CY4">
-        <v>0.4416029201310319</v>
+        <v>0.7640993925044537</v>
       </c>
       <c r="CZ4">
-        <v>0.4470696630049087</v>
+        <v>0.7640993925044537</v>
       </c>
       <c r="DA4">
-        <v>0.4628572292793482</v>
+        <v>0.7640993925044537</v>
       </c>
       <c r="DB4">
-        <v>0.4642484312447927</v>
+        <v>0.7640993925044537</v>
       </c>
       <c r="DC4">
-        <v>0.5133284534360825</v>
+        <v>0.8387635325266265</v>
       </c>
       <c r="DD4">
-        <v>0.5395405928010496</v>
+        <v>0.8387635325266265</v>
       </c>
       <c r="DE4">
-        <v>0.5472941410783001</v>
+        <v>0.8387635325266265</v>
       </c>
       <c r="DF4">
-        <v>0.5479461810688494</v>
+        <v>0.8387635325266265</v>
       </c>
       <c r="DG4">
-        <v>0.5520488099552402</v>
+        <v>0.8387635325266265</v>
       </c>
       <c r="DH4">
-        <v>0.5538434370594132</v>
+        <v>0.8387635325266265</v>
       </c>
       <c r="DI4">
-        <v>0.5556239381503002</v>
+        <v>0.8387635325266265</v>
       </c>
       <c r="DJ4">
-        <v>0.5867899510000436</v>
+        <v>0.8432163212480278</v>
       </c>
       <c r="DK4">
-        <v>0.6232647152596453</v>
+        <v>0.8684759881561888</v>
       </c>
       <c r="DL4">
-        <v>0.6334168253301364</v>
+        <v>0.8684759881561888</v>
       </c>
       <c r="DM4">
-        <v>0.6604501355215214</v>
+        <v>0.8684759881561888</v>
       </c>
       <c r="DN4">
-        <v>0.6930685118706662</v>
+        <v>0.8786211041466395</v>
       </c>
       <c r="DO4">
-        <v>0.6959691429689956</v>
+        <v>0.8786211041466395</v>
       </c>
       <c r="DP4">
-        <v>0.7569681576998688</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7667259750953661</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7805140330191009</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7805180386584255</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7855861606137576</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7856942407415318</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7894430449788561</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.792573740794416</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.8135007503664797</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.8141293039038213</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8179730260316225</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8183113272560767</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.8191441677816219</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8212859782891705</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.836030135501534</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8364429820256182</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8475932783719935</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8476149438677602</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8736901803785937</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8874631770560328</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8878019548378234</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8913723893850551</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8927788246051789</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8936078343898843</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8948380373093054</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.9026255206980327</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.9035374363209361</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.9035580022335873</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.904085550906246</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.9052071385411649</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.9052092454322068</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.9073786831093299</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.9122818646437687</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.9158581930312297</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.9205794527722982</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.9212067139740099</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.9212279726619398</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.9227414721875963</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.9241277293625598</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.925882297936899</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.927244875124193</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9328066190893424</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9459338804758065</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9460147420890809</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9522730713486196</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9567217215305235</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9574077643145446</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.958175047148706</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9582031701435596</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9584710965508114</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9587364791162672</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9587389782434929</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9589541188621785</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9591657750295449</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9594117056294665</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9635195329135766</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9650351937576123</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9667160933839981</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9706930714477895</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9708275009471201</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9717953166915205</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9748373300706887</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9753809092238444</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9780116900057575</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.984540917050693</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9846545996096623</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9855820044973943</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9890019148886507</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.991417068143602</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9915984094553344</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9916105710844216</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9916832429260074</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9917974434684997</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.992633259498789</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9949598071103812</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9951577280378732</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9951900198301128</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9954383363204766</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.995502538291041</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9958764900551672</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9981857221895235</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.293377102463667E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001411432638402173</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001476907227027578</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001607613913014723</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001647560829165984</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001853493598926708</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.000251671551891159</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002657693593386433</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002657693593386433</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002661511986850308</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002678457485842113</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002678457485842113</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002678457485842113</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002730260717149233</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0002745051808036741</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0002745051808036741</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002761816243510922</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0002774704577607596</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0002790473517313961</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0003167454363486868</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0003188377259523694</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0003188377259523694</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0003578431521210009</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0003997228324780291</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.000401655871045191</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0004188758091498156</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0004603665204650034</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0004603665204650034</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0004917435765893803</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.000502249919354149</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000502249919354149</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0005029838795966553</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0005847436001397258</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.000651065792138214</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.000651065792138214</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0006857428997340955</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0007842316298238826</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0008214422653618884</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0008245956821200996</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.000830816343553299</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0008716036554647553</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0009169337239349835</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0009169337239349835</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0009311059360324243</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0009311059360324243</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0009340154995221866</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0009356419476818491</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0009882542477389377</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001031509216852244</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.001037781692880293</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001085916061884987</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001201909519108278</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001291598089935795</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001306835717447373</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001335824309091311</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001369204187398731</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001371973189334226</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001376035683121834</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001379353911360859</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001422213737050647</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001428486213078697</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001436957233387649</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001439927098671491</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001451050698563439</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001451050698563439</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001457271359996638</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001479130015133662</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.00148741734183644</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001490090110637292</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.001490090110637292</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001500193773292016</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.001568978590366286</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.001568978590366286</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001624908534831752</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001624908534831752</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001629819061988666</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001643991274086107</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.00169191726045982</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001735967812605319</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001751205440116897</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001751205440116897</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.00181478362207247</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001855501688488464</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.001855501688488464</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0018558101318106</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.001863436666144068</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.001863436666144068</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.00187639541469779</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.00187639541469779</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001889691247682834</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01229737715013785</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.08400851727925462</v>
+        <v>0.1286004622875101</v>
       </c>
       <c r="CP5">
-        <v>0.1170390276212949</v>
+        <v>0.1379280607852942</v>
       </c>
       <c r="CQ5">
-        <v>0.2351143389277523</v>
+        <v>0.4094938135553833</v>
       </c>
       <c r="CR5">
-        <v>0.2413349683684926</v>
+        <v>0.4094938135553833</v>
       </c>
       <c r="CS5">
-        <v>0.2451736857950773</v>
+        <v>0.4094938135553833</v>
       </c>
       <c r="CT5">
-        <v>0.2456055978212164</v>
+        <v>0.4094938135553833</v>
       </c>
       <c r="CU5">
-        <v>0.2607286434068375</v>
+        <v>0.4094938135553833</v>
       </c>
       <c r="CV5">
-        <v>0.2610055703210664</v>
+        <v>0.4094938135553833</v>
       </c>
       <c r="CW5">
-        <v>0.3366727117073453</v>
+        <v>0.5502927224993936</v>
       </c>
       <c r="CX5">
-        <v>0.3366927540620384</v>
+        <v>0.5502927224993936</v>
       </c>
       <c r="CY5">
-        <v>0.424798438892749</v>
+        <v>0.7294462473366016</v>
       </c>
       <c r="CZ5">
-        <v>0.4473008503015176</v>
+        <v>0.7294462473366016</v>
       </c>
       <c r="DA5">
-        <v>0.4642630169378377</v>
+        <v>0.7294462473366016</v>
       </c>
       <c r="DB5">
-        <v>0.4806650332260915</v>
+        <v>0.7294462473366016</v>
       </c>
       <c r="DC5">
-        <v>0.4904361506799623</v>
+        <v>0.7294462473366016</v>
       </c>
       <c r="DD5">
-        <v>0.5588113603087177</v>
+        <v>0.8477602694505204</v>
       </c>
       <c r="DE5">
-        <v>0.5593379835689346</v>
+        <v>0.8477602694505204</v>
       </c>
       <c r="DF5">
-        <v>0.5678936925438572</v>
+        <v>0.8477602694505204</v>
       </c>
       <c r="DG5">
-        <v>0.5764072465855279</v>
+        <v>0.8477602694505204</v>
       </c>
       <c r="DH5">
-        <v>0.5765680122156779</v>
+        <v>0.8477602694505204</v>
       </c>
       <c r="DI5">
-        <v>0.5817006516906439</v>
+        <v>0.8477602694505204</v>
       </c>
       <c r="DJ5">
-        <v>0.5893466745998817</v>
+        <v>0.8477602694505204</v>
       </c>
       <c r="DK5">
-        <v>0.6508140584247127</v>
+        <v>0.9447738067809703</v>
       </c>
       <c r="DL5">
-        <v>0.6545715549760348</v>
+        <v>0.9447738067809703</v>
       </c>
       <c r="DM5">
-        <v>0.6873077344539642</v>
+        <v>0.9531938273707045</v>
       </c>
       <c r="DN5">
-        <v>0.6897583131487581</v>
+        <v>0.9531938273707045</v>
       </c>
       <c r="DO5">
-        <v>0.7154292105878756</v>
+        <v>0.9531938273707045</v>
       </c>
       <c r="DP5">
-        <v>0.73239911695616</v>
+        <v>0.9531938273707045</v>
       </c>
       <c r="DQ5">
-        <v>0.7775840671671403</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7807078955188835</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7848250897618275</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7900970047032659</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7906417704233254</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.794031742731633</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7942499129475374</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.8101760717504239</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.8201667663403338</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.8211015340333787</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.8213642806043906</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.8229678717639106</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.8230162902334901</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.8325017527647153</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.8404308930287525</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.843598646609897</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8504541070104138</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8572914749622792</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8843905009819458</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8864371184800186</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8890435963612705</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8890465444676853</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8908684819878266</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8908846174472512</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8962127651722231</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.9002189338703422</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.9002323429476686</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.900727617192736</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.9008581857555145</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.902232211643893</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.902370163738927</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.9096273543369213</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.9096618537877619</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.9158848264528591</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.9159089690700914</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.9165865879794735</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.9172130762570598</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.9184340890048075</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.9187191793358112</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.9223027411647596</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9232015110023573</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9323656986400511</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9347288210642523</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9389502940422488</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9448366374778865</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9486020792071467</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9504282806814577</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9507829962729064</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9508873944993982</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9513221796084635</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9513242718980672</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9513973444246269</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9515803738268692</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9516026622181708</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9527463865706496</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.955072620039997</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.955436153964775</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9615890197416505</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9642238492673129</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9655037085834958</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9701841464667098</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9734303705076406</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.973432375248153</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9779463568824944</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9788259462679719</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9788981612376312</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9825292590039699</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9869689767198471</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9880140505967413</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9880157451466405</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9883478556096096</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9884974792064427</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9887551161240381</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9918464157966517</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9939245544483943</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9940538848441011</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.994087439573536</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9941002868431434</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.994320220373635</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9959693488232965</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.152649459241143E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.372181987543965E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.133286006898133E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4.133286006898133E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.430719401624881E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>6.798422498505991E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.798422498505991E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>7.050436008482462E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.050436008482462E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>7.050436008482462E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.026317502189443E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001187153728373136</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001510306536640776</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001531778577838436</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001654923884433815</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0002133965699606877</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0002833113940298954</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0003012118192513512</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0003081902156217998</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.000335149368817434</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.000353459006039574</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003536296676952058</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0003576188775274891</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0003576188775274891</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0003579610005464337</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0003661136500056749</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0003694530547212744</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0003694530547212744</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0003744683605077197</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0004355893401343023</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.000521744768043207</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0005505699781628198</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0005931019877745154</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0006457209679512751</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0006848776818193575</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0007396069770987964</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0007657872089688629</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0007867267971834671</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0007989326039829876</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.000811138410782508</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0008117833572020706</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0008312420610821209</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0008537827226874397</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0008537827226874397</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0008591445194015546</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0009358384554459093</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0009895584304581801</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001001872961117718</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001028832114313352</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001064363769164941</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001106316827872107</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001120378260417152</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.00112585261405686</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001141776011455878</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001160188670440485</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001160245342876021</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.001165206610738001</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001165206610738001</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001177328463101252</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001214263668964399</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001249042084929788</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001336314846953731</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001455162444151102</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.001557614946865794</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.001676201099590446</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001784815581722553</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001839013412909853</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001905110607668129</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001964925058942991</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002018067732078943</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002032283866270581</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002034689101704674</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.002036945164686767</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0020370275621424</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.002042615622727373</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.002070581904152675</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.00207325926594223</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.002075779401041994</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.00208314551874547</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.00208962306054744</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002108035719532047</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.002148447962879376</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.002162599760970369</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.002166224139161216</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.002173138921943381</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.002208813871246411</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.002257720204908255</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.002275417747658855</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.002276131780460328</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.002395503102617438</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.07954682562979787</v>
+        <v>0.1431242176927721</v>
       </c>
       <c r="CO6">
-        <v>0.08480709526500194</v>
+        <v>0.1431242176927721</v>
       </c>
       <c r="CP6">
-        <v>0.2395176846543741</v>
+        <v>0.5216757490595034</v>
       </c>
       <c r="CQ6">
-        <v>0.2758574419887398</v>
+        <v>0.5409184816778235</v>
       </c>
       <c r="CR6">
-        <v>0.2796227722489402</v>
+        <v>0.5409184816778235</v>
       </c>
       <c r="CS6">
-        <v>0.2796568867845481</v>
+        <v>0.5409184816778235</v>
       </c>
       <c r="CT6">
-        <v>0.2880753764496949</v>
+        <v>0.5409184816778235</v>
       </c>
       <c r="CU6">
-        <v>0.2957013735571013</v>
+        <v>0.5409184816778235</v>
       </c>
       <c r="CV6">
-        <v>0.3500129993491537</v>
+        <v>0.6147139309974601</v>
       </c>
       <c r="CW6">
-        <v>0.3669457806744151</v>
+        <v>0.6147139309974601</v>
       </c>
       <c r="CX6">
-        <v>0.4107699310496785</v>
+        <v>0.6566751680496787</v>
       </c>
       <c r="CY6">
-        <v>0.468736945377093</v>
+        <v>0.7415663682464347</v>
       </c>
       <c r="CZ6">
-        <v>0.4725762267024275</v>
+        <v>0.7415663682464347</v>
       </c>
       <c r="DA6">
-        <v>0.4894008421772178</v>
+        <v>0.7415663682464347</v>
       </c>
       <c r="DB6">
-        <v>0.4897709608830909</v>
+        <v>0.7415663682464347</v>
       </c>
       <c r="DC6">
-        <v>0.5409322667803538</v>
+        <v>0.8057991775354257</v>
       </c>
       <c r="DD6">
-        <v>0.5502233173730283</v>
+        <v>0.8057991775354257</v>
       </c>
       <c r="DE6">
-        <v>0.559778139478232</v>
+        <v>0.8057991775354257</v>
       </c>
       <c r="DF6">
-        <v>0.5597781961506675</v>
+        <v>0.8057991775354257</v>
       </c>
       <c r="DG6">
-        <v>0.5623642188356045</v>
+        <v>0.8057991775354257</v>
       </c>
       <c r="DH6">
-        <v>0.568858474581497</v>
+        <v>0.8057991775354257</v>
       </c>
       <c r="DI6">
-        <v>0.5688907502836467</v>
+        <v>0.8057991775354257</v>
       </c>
       <c r="DJ6">
-        <v>0.6069092383372668</v>
+        <v>0.8301376141180222</v>
       </c>
       <c r="DK6">
-        <v>0.6228034968957719</v>
+        <v>0.8301376141180222</v>
       </c>
       <c r="DL6">
-        <v>0.6468851165213545</v>
+        <v>0.8301376141180222</v>
       </c>
       <c r="DM6">
-        <v>0.6555988502374538</v>
+        <v>0.8301376141180222</v>
       </c>
       <c r="DN6">
-        <v>0.7026055370586584</v>
+        <v>0.8817592829464811</v>
       </c>
       <c r="DO6">
-        <v>0.702757635334699</v>
+        <v>0.8817592829464811</v>
       </c>
       <c r="DP6">
-        <v>0.7717113276191196</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.772265261139645</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7897486498845437</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7905507424905052</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.794470698996008</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.795876397388288</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7979068288683264</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.8027278449889045</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.8181696308066327</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.8181712634149489</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.8195742652610971</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.8212976634884968</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.8213198631522683</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.8266301953439286</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8376226840443293</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8377984190047397</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8474731871619468</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8488272092701633</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8733452063611693</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8833308103360684</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8842008596246137</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8880193620944693</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8890820831191887</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8893090174455035</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8920677312847924</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.9007233480066424</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.9010002093870954</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.9010195315366393</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.9020368399844529</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.9025034562811797</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.9025211538239303</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.9043764317074902</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.9065378415282693</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.9096161218346117</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.9128917643173708</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.9129733683424156</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.9131857271393764</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.9142752006217693</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.9146393441254203</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9171868329511308</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9174636943315837</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9267108691736442</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9397798023972755</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9400413151351481</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9465762265765668</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.949681568045864</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9501232855466292</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9512610152545761</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9513503831174425</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9517434607160898</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9520624088665514</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9522494515904119</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9523161923361798</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9526671816847931</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9534645259695216</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9577155703391828</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9588533000471297</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9606285735619972</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9629532102752163</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9631005265794483</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9673245744872616</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9723283384342383</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9724334800569576</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9767836194219082</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9816046355424862</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.981659594168689</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.982343883619307</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9856539355907341</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9882546161264335</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9885414286171271</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9885414286171271</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9885654426899392</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9886850763205838</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.989969657940832</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9927536259121615</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9928927001453905</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9929633614742307</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9931961149700983</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9932116292844988</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9939491791962819</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9972914492188864</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>0.05120463664061432</v>
+        <v>0.07170262507128081</v>
       </c>
       <c r="F2">
-        <v>0.5042938729268889</v>
+        <v>0.5244845530867299</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.0008844071295545232</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5089836003732096</v>
+        <v>0.6578642911401631</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -10652,16 +10652,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.04533531378325284</v>
+        <v>0.05232271572046695</v>
       </c>
       <c r="F4">
-        <v>0.5133284534360825</v>
+        <v>0.5206132784397421</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.01229737715013785</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5588113603087177</v>
+        <v>0.5502927224993936</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.07954682562979787</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5409322667803538</v>
+        <v>0.5216757490595034</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -10829,16 +10829,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.05120463664061432</v>
+        <v>0.07170262507128081</v>
       </c>
       <c r="F2">
-        <v>0.7451707889163476</v>
+        <v>0.7128978293855399</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.0008844071295545232</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7022941338097509</v>
+        <v>0.7281302907264433</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -10911,16 +10911,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.04533531378325284</v>
+        <v>0.05232271572046695</v>
       </c>
       <c r="F4">
-        <v>0.7569681576998688</v>
+        <v>0.7640993925044537</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.01229737715013785</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7154292105878756</v>
+        <v>0.7294462473366016</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.07954682562979787</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7026055370586584</v>
+        <v>0.7415663682464347</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -11088,16 +11088,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.05120463664061432</v>
+        <v>0.07170262507128081</v>
       </c>
       <c r="F2">
-        <v>0.8004373379957201</v>
+        <v>0.8100634236888127</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.0008844071295545232</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8029312798533611</v>
+        <v>0.899532090771493</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -11170,16 +11170,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.04533531378325284</v>
+        <v>0.05232271572046695</v>
       </c>
       <c r="F4">
-        <v>0.8135007503664797</v>
+        <v>0.8387635325266265</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.01229737715013785</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8101760717504239</v>
+        <v>0.8477602694505204</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.07954682562979787</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8027278449889045</v>
+        <v>0.8057991775354257</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -11347,16 +11347,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>0.05120463664061432</v>
+        <v>0.07170262507128081</v>
       </c>
       <c r="F2">
-        <v>0.90124086843514</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.0008844071295545232</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9040521215304608</v>
+        <v>0.9090197568346948</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -11429,16 +11429,16 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E4">
-        <v>0.04533531378325284</v>
+        <v>0.05232271572046695</v>
       </c>
       <c r="F4">
-        <v>0.9026255206980327</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="E5">
-        <v>0.01229737715013785</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9002189338703422</v>
+        <v>0.9447738067809703</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E6">
-        <v>0.07954682562979787</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9007233480066424</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>55</v>

--- a/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/55_11R22.xlsx
@@ -180,7 +180,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ50</t>
+    <t>710R</t>
   </si>
   <si>
     <t>50%</t>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07697434141892635</v>
+        <v>0.07144874099046693</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.301889770356677</v>
+        <v>0.2045599853377429</v>
       </c>
       <c r="G2">
-        <v>0.002123205742775996</v>
+        <v>0.02714974444000464</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -686,40 +686,40 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005295209284644721</v>
+        <v>0.0290270248939346</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0956890483290237</v>
+        <v>0.08252462820800011</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02454809799649807</v>
       </c>
       <c r="N2">
-        <v>0.05276226605111171</v>
+        <v>0.05711935729428735</v>
       </c>
       <c r="O2">
-        <v>0.1366296557602863</v>
+        <v>0.1067544252710419</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.01232230400621911</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09702610063921444</v>
+        <v>0.08331593317808354</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0102304952754119</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.004057364582863604</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -734,31 +734,31 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.03475713494625016</v>
+        <v>0.04646341689338541</v>
       </c>
       <c r="AA2">
-        <v>0.0311433674559582</v>
+        <v>0.04432468817350008</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01343870815312597</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.02164078342336163</v>
       </c>
       <c r="AD2">
-        <v>0.05427281967337395</v>
+        <v>0.05801334519570546</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.1114370803417577</v>
+        <v>0.09184475420885321</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.01121620247751379</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1858606903292122</v>
+        <v>0.1418159399475818</v>
       </c>
       <c r="F3">
-        <v>0.1164951149719443</v>
+        <v>0.09872220257134746</v>
       </c>
       <c r="G3">
-        <v>0.2906941596728604</v>
+        <v>0.2069442975351374</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -796,34 +796,34 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01113447421919346</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01073011707211665</v>
       </c>
       <c r="M3">
-        <v>0.0743292396639483</v>
+        <v>0.07252642538067451</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1580451048606343</v>
+        <v>0.1245353576273848</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.001381621386913199</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.01928232319091698</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.02401954959360031</v>
+        <v>0.04127125939661323</v>
       </c>
       <c r="T3">
-        <v>0.02061929986218316</v>
+        <v>0.03915883593317909</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.01652144624684183</v>
       </c>
       <c r="AA3">
-        <v>0.0448491944622968</v>
+        <v>0.05421178848454478</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03588433034253125</v>
+        <v>0.04864231835471439</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01065949108642214</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.01674694514216672</v>
       </c>
       <c r="AF3">
-        <v>0.03862097802888372</v>
+        <v>0.05034247547270182</v>
       </c>
       <c r="AG3">
-        <v>0.01058233821190522</v>
+        <v>0.03292331943692482</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.002449361514624829</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05983403319777371</v>
+        <v>0.06077831184018054</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01927921735545669</v>
       </c>
       <c r="F4">
-        <v>0.2986750726718682</v>
+        <v>0.1972395250967732</v>
       </c>
       <c r="G4">
-        <v>0.09824816065896033</v>
+        <v>0.08272612470805868</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -903,34 +903,34 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.005733612551204085</v>
       </c>
       <c r="L4">
-        <v>0.06061508206047359</v>
+        <v>0.06122456209788915</v>
       </c>
       <c r="M4">
-        <v>0.01432132682578719</v>
+        <v>0.03477474417949812</v>
       </c>
       <c r="N4">
-        <v>0.004310954360745438</v>
+        <v>0.02905534363285065</v>
       </c>
       <c r="O4">
-        <v>0.1649097477762418</v>
+        <v>0.1208130509568491</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0136694507451848</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.07686787963637808</v>
+        <v>0.07051055616702104</v>
       </c>
       <c r="T4">
-        <v>0.008533010884299115</v>
+        <v>0.03146760476230591</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -948,31 +948,31 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02333640553904708</v>
+        <v>0.03992548620240981</v>
       </c>
       <c r="AA4">
-        <v>0.03920026287928612</v>
+        <v>0.04898926026881485</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.00404788479676687</v>
       </c>
       <c r="AC4">
-        <v>0.01098687165805248</v>
+        <v>0.03286961180048691</v>
       </c>
       <c r="AD4">
-        <v>0.0276764255516416</v>
+        <v>0.04240514546775469</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.1124847662994453</v>
+        <v>0.09086017270347009</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.003374698307841019</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.01025563635918384</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.004323856466696732</v>
       </c>
       <c r="E5">
-        <v>0.1252079551493881</v>
+        <v>0.1070975820873751</v>
       </c>
       <c r="F5">
-        <v>0.02477641910567619</v>
+        <v>0.04225046241490647</v>
       </c>
       <c r="G5">
-        <v>0.2455892662698618</v>
+        <v>0.1848259689673723</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0122290404142231</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1354794343118188</v>
+        <v>0.1137297204046612</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1677752379517093</v>
+        <v>0.1345826310147609</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.02460036480254645</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.01531228139357949</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.01437320318167921</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.003256665198294696</v>
       </c>
       <c r="T5">
-        <v>0.1165464461168156</v>
+        <v>0.1015049770660306</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.001219062927619696</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.001148391224071384</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.09861076202817898</v>
+        <v>0.08992417786370448</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02401220970809274</v>
+        <v>0.04175702399693434</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005667701574540941</v>
+        <v>0.02991225330905749</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.01532525686289548</v>
       </c>
       <c r="AG5">
-        <v>0.05633456778391783</v>
+        <v>0.06262708040359073</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.135998730224828</v>
+        <v>0.1141388265656695</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3331323219645559</v>
+        <v>0.2419365094557567</v>
       </c>
       <c r="G6">
-        <v>0.03226734187539099</v>
+        <v>0.0468918852552695</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1114,40 +1114,40 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0008848321223379341</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07794671872706622</v>
+        <v>0.07650489268839446</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01491419043933172</v>
       </c>
       <c r="N6">
-        <v>0.05129053977082162</v>
+        <v>0.05922423607757575</v>
       </c>
       <c r="O6">
-        <v>0.08723767647245777</v>
+        <v>0.08252803091264192</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.01473596099471104</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.06993950178041261</v>
+        <v>0.07131397741540728</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.00232258765085009</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.002757215123200046</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1162,31 +1162,31 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.03653419778621927</v>
+        <v>0.04965800083109521</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01320297257215049</v>
       </c>
       <c r="AB6">
-        <v>0.001110643103776123</v>
+        <v>0.02669363352973991</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001371318226775294</v>
       </c>
       <c r="AD6">
-        <v>0.05937964202530431</v>
+        <v>0.06446823592387661</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.1151626862691672</v>
+        <v>0.1006312446531708</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.01582144956204586</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1323,94 +1323,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07697434141892635</v>
+        <v>0.07144874099046693</v>
       </c>
       <c r="E2">
-        <v>0.07697434141892635</v>
+        <v>0.07144874099046693</v>
       </c>
       <c r="F2">
-        <v>0.3788641117756033</v>
+        <v>0.2760087263282099</v>
       </c>
       <c r="G2">
-        <v>0.3809873175183793</v>
+        <v>0.3031584707682145</v>
       </c>
       <c r="H2">
-        <v>0.3809873175183793</v>
+        <v>0.3031584707682145</v>
       </c>
       <c r="I2">
-        <v>0.3809873175183793</v>
+        <v>0.3031584707682145</v>
       </c>
       <c r="J2">
-        <v>0.386282526803024</v>
+        <v>0.3321854956621491</v>
       </c>
       <c r="K2">
-        <v>0.386282526803024</v>
+        <v>0.3321854956621491</v>
       </c>
       <c r="L2">
-        <v>0.4819715751320477</v>
+        <v>0.4147101238701492</v>
       </c>
       <c r="M2">
-        <v>0.4819715751320477</v>
+        <v>0.4392582218666473</v>
       </c>
       <c r="N2">
-        <v>0.5347338411831594</v>
+        <v>0.4963775791609347</v>
       </c>
       <c r="O2">
-        <v>0.6713634969434457</v>
+        <v>0.6031320044319766</v>
       </c>
       <c r="P2">
-        <v>0.6713634969434457</v>
+        <v>0.6031320044319766</v>
       </c>
       <c r="Q2">
-        <v>0.6713634969434457</v>
+        <v>0.6154543084381957</v>
       </c>
       <c r="R2">
-        <v>0.6713634969434457</v>
+        <v>0.6154543084381957</v>
       </c>
       <c r="S2">
-        <v>0.7683895975826601</v>
+        <v>0.6987702416162792</v>
       </c>
       <c r="T2">
-        <v>0.7683895975826601</v>
+        <v>0.7090007368916911</v>
       </c>
       <c r="U2">
-        <v>0.7683895975826601</v>
+        <v>0.7130581014745547</v>
       </c>
       <c r="V2">
-        <v>0.7683895975826601</v>
+        <v>0.7130581014745547</v>
       </c>
       <c r="W2">
-        <v>0.7683895975826601</v>
+        <v>0.7130581014745547</v>
       </c>
       <c r="X2">
-        <v>0.7683895975826601</v>
+        <v>0.7130581014745547</v>
       </c>
       <c r="Y2">
-        <v>0.7683895975826601</v>
+        <v>0.7130581014745547</v>
       </c>
       <c r="Z2">
-        <v>0.8031467325289103</v>
+        <v>0.7595215183679401</v>
       </c>
       <c r="AA2">
-        <v>0.8342900999848686</v>
+        <v>0.8038462065414402</v>
       </c>
       <c r="AB2">
-        <v>0.8342900999848686</v>
+        <v>0.8172849146945662</v>
       </c>
       <c r="AC2">
-        <v>0.8342900999848686</v>
+        <v>0.8389256981179278</v>
       </c>
       <c r="AD2">
-        <v>0.8885629196582425</v>
+        <v>0.8969390433136333</v>
       </c>
       <c r="AE2">
-        <v>0.8885629196582425</v>
+        <v>0.8969390433136333</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9887837975224865</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9887837975224865</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1433,97 +1433,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1858606903292122</v>
+        <v>0.1418159399475818</v>
       </c>
       <c r="F3">
-        <v>0.3023558053011566</v>
+        <v>0.2405381425189292</v>
       </c>
       <c r="G3">
-        <v>0.5930499649740171</v>
+        <v>0.4474824400540667</v>
       </c>
       <c r="H3">
-        <v>0.5930499649740171</v>
+        <v>0.4474824400540667</v>
       </c>
       <c r="I3">
-        <v>0.5930499649740171</v>
+        <v>0.4474824400540667</v>
       </c>
       <c r="J3">
-        <v>0.5930499649740171</v>
+        <v>0.4474824400540667</v>
       </c>
       <c r="K3">
-        <v>0.5930499649740171</v>
+        <v>0.4586169142732601</v>
       </c>
       <c r="L3">
-        <v>0.5930499649740171</v>
+        <v>0.4693470313453768</v>
       </c>
       <c r="M3">
-        <v>0.6673792046379654</v>
+        <v>0.5418734567260513</v>
       </c>
       <c r="N3">
-        <v>0.6673792046379654</v>
+        <v>0.5418734567260513</v>
       </c>
       <c r="O3">
-        <v>0.8254243094985997</v>
+        <v>0.666408814353436</v>
       </c>
       <c r="P3">
-        <v>0.8254243094985997</v>
+        <v>0.6677904357403492</v>
       </c>
       <c r="Q3">
-        <v>0.8254243094985997</v>
+        <v>0.6870727589312662</v>
       </c>
       <c r="R3">
-        <v>0.8254243094985997</v>
+        <v>0.6870727589312662</v>
       </c>
       <c r="S3">
-        <v>0.8494438590922</v>
+        <v>0.7283440183278794</v>
       </c>
       <c r="T3">
-        <v>0.8700631589543831</v>
+        <v>0.7675028542610585</v>
       </c>
       <c r="U3">
-        <v>0.8700631589543831</v>
+        <v>0.7675028542610585</v>
       </c>
       <c r="V3">
-        <v>0.8700631589543831</v>
+        <v>0.7675028542610585</v>
       </c>
       <c r="W3">
-        <v>0.8700631589543831</v>
+        <v>0.7675028542610585</v>
       </c>
       <c r="X3">
-        <v>0.8700631589543831</v>
+        <v>0.7675028542610585</v>
       </c>
       <c r="Y3">
-        <v>0.8700631589543831</v>
+        <v>0.7675028542610585</v>
       </c>
       <c r="Z3">
-        <v>0.8700631589543831</v>
+        <v>0.7840243005079003</v>
       </c>
       <c r="AA3">
-        <v>0.91491235341668</v>
+        <v>0.8382360889924451</v>
       </c>
       <c r="AB3">
-        <v>0.91491235341668</v>
+        <v>0.8382360889924451</v>
       </c>
       <c r="AC3">
-        <v>0.9507966837592112</v>
+        <v>0.8868784073471594</v>
       </c>
       <c r="AD3">
-        <v>0.9507966837592112</v>
+        <v>0.8975378984335816</v>
       </c>
       <c r="AE3">
-        <v>0.9507966837592112</v>
+        <v>0.9142848435757482</v>
       </c>
       <c r="AF3">
-        <v>0.989417661788095</v>
+        <v>0.96462731904845</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9975506384853748</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,94 +1537,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05983403319777371</v>
+        <v>0.06077831184018054</v>
       </c>
       <c r="E4">
-        <v>0.05983403319777371</v>
+        <v>0.08005752919563724</v>
       </c>
       <c r="F4">
-        <v>0.3585091058696419</v>
+        <v>0.2772970542924105</v>
       </c>
       <c r="G4">
-        <v>0.4567572665286022</v>
+        <v>0.3600231790004692</v>
       </c>
       <c r="H4">
-        <v>0.4567572665286022</v>
+        <v>0.3600231790004692</v>
       </c>
       <c r="I4">
-        <v>0.4567572665286022</v>
+        <v>0.3600231790004692</v>
       </c>
       <c r="J4">
-        <v>0.4567572665286022</v>
+        <v>0.3600231790004692</v>
       </c>
       <c r="K4">
-        <v>0.4567572665286022</v>
+        <v>0.3657567915516732</v>
       </c>
       <c r="L4">
-        <v>0.5173723485890758</v>
+        <v>0.4269813536495624</v>
       </c>
       <c r="M4">
-        <v>0.531693675414863</v>
+        <v>0.4617560978290605</v>
       </c>
       <c r="N4">
-        <v>0.5360046297756085</v>
+        <v>0.4908114414619111</v>
       </c>
       <c r="O4">
-        <v>0.7009143775518503</v>
+        <v>0.6116244924187603</v>
       </c>
       <c r="P4">
-        <v>0.7009143775518503</v>
+        <v>0.6116244924187603</v>
       </c>
       <c r="Q4">
-        <v>0.7009143775518503</v>
+        <v>0.625293943163945</v>
       </c>
       <c r="R4">
-        <v>0.7009143775518503</v>
+        <v>0.625293943163945</v>
       </c>
       <c r="S4">
-        <v>0.7777822571882284</v>
+        <v>0.6958044993309661</v>
       </c>
       <c r="T4">
-        <v>0.7863152680725275</v>
+        <v>0.727272104093272</v>
       </c>
       <c r="U4">
-        <v>0.7863152680725275</v>
+        <v>0.727272104093272</v>
       </c>
       <c r="V4">
-        <v>0.7863152680725275</v>
+        <v>0.727272104093272</v>
       </c>
       <c r="W4">
-        <v>0.7863152680725275</v>
+        <v>0.727272104093272</v>
       </c>
       <c r="X4">
-        <v>0.7863152680725275</v>
+        <v>0.727272104093272</v>
       </c>
       <c r="Y4">
-        <v>0.7863152680725275</v>
+        <v>0.727272104093272</v>
       </c>
       <c r="Z4">
-        <v>0.8096516736115745</v>
+        <v>0.7671975902956818</v>
       </c>
       <c r="AA4">
-        <v>0.8488519364908607</v>
+        <v>0.8161868505644967</v>
       </c>
       <c r="AB4">
-        <v>0.8488519364908607</v>
+        <v>0.8202347353612636</v>
       </c>
       <c r="AC4">
-        <v>0.8598388081489131</v>
+        <v>0.8531043471617504</v>
       </c>
       <c r="AD4">
-        <v>0.8875152337005547</v>
+        <v>0.8955094926295051</v>
       </c>
       <c r="AE4">
-        <v>0.8875152337005547</v>
+        <v>0.8955094926295051</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9863696653329752</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9897443636408162</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.004323856466696732</v>
       </c>
       <c r="E5">
-        <v>0.1252079551493881</v>
+        <v>0.1114214385540718</v>
       </c>
       <c r="F5">
-        <v>0.1499843742550643</v>
+        <v>0.1536719009689783</v>
       </c>
       <c r="G5">
-        <v>0.3955736405249261</v>
+        <v>0.3384978699363506</v>
       </c>
       <c r="H5">
-        <v>0.3955736405249261</v>
+        <v>0.3384978699363506</v>
       </c>
       <c r="I5">
-        <v>0.3955736405249261</v>
+        <v>0.3384978699363506</v>
       </c>
       <c r="J5">
-        <v>0.3955736405249261</v>
+        <v>0.3384978699363506</v>
       </c>
       <c r="K5">
-        <v>0.3955736405249261</v>
+        <v>0.3507269103505737</v>
       </c>
       <c r="L5">
-        <v>0.3955736405249261</v>
+        <v>0.3507269103505737</v>
       </c>
       <c r="M5">
-        <v>0.5310530748367448</v>
+        <v>0.4644566307552349</v>
       </c>
       <c r="N5">
-        <v>0.5310530748367448</v>
+        <v>0.4644566307552349</v>
       </c>
       <c r="O5">
-        <v>0.698828312788454</v>
+        <v>0.5990392617699958</v>
       </c>
       <c r="P5">
-        <v>0.698828312788454</v>
+        <v>0.6236396265725422</v>
       </c>
       <c r="Q5">
-        <v>0.698828312788454</v>
+        <v>0.6389519079661218</v>
       </c>
       <c r="R5">
-        <v>0.698828312788454</v>
+        <v>0.653325111147801</v>
       </c>
       <c r="S5">
-        <v>0.698828312788454</v>
+        <v>0.6565817763460957</v>
       </c>
       <c r="T5">
-        <v>0.8153747589052696</v>
+        <v>0.7580867534121263</v>
       </c>
       <c r="U5">
-        <v>0.8153747589052696</v>
+        <v>0.7580867534121263</v>
       </c>
       <c r="V5">
-        <v>0.8153747589052696</v>
+        <v>0.759305816339746</v>
       </c>
       <c r="W5">
-        <v>0.8153747589052696</v>
+        <v>0.7604542075638174</v>
       </c>
       <c r="X5">
-        <v>0.8153747589052696</v>
+        <v>0.7604542075638174</v>
       </c>
       <c r="Y5">
-        <v>0.8153747589052696</v>
+        <v>0.7604542075638174</v>
       </c>
       <c r="Z5">
-        <v>0.8153747589052696</v>
+        <v>0.7604542075638174</v>
       </c>
       <c r="AA5">
-        <v>0.9139855209334485</v>
+        <v>0.8503783854275219</v>
       </c>
       <c r="AB5">
-        <v>0.9139855209334485</v>
+        <v>0.8503783854275219</v>
       </c>
       <c r="AC5">
-        <v>0.9379977306415412</v>
+        <v>0.8921354094244562</v>
       </c>
       <c r="AD5">
-        <v>0.9379977306415412</v>
+        <v>0.8921354094244562</v>
       </c>
       <c r="AE5">
-        <v>0.9436654322160822</v>
+        <v>0.9220476627335137</v>
       </c>
       <c r="AF5">
-        <v>0.9436654322160822</v>
+        <v>0.9373729195964091</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,94 +1751,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.135998730224828</v>
+        <v>0.1141388265656695</v>
       </c>
       <c r="E6">
-        <v>0.135998730224828</v>
+        <v>0.1141388265656695</v>
       </c>
       <c r="F6">
-        <v>0.4691310521893839</v>
+        <v>0.3560753360214263</v>
       </c>
       <c r="G6">
-        <v>0.5013983940647748</v>
+        <v>0.4029672212766958</v>
       </c>
       <c r="H6">
-        <v>0.5013983940647748</v>
+        <v>0.4029672212766958</v>
       </c>
       <c r="I6">
-        <v>0.5013983940647748</v>
+        <v>0.4029672212766958</v>
       </c>
       <c r="J6">
-        <v>0.5013983940647748</v>
+        <v>0.4038520533990337</v>
       </c>
       <c r="K6">
-        <v>0.5013983940647748</v>
+        <v>0.4038520533990337</v>
       </c>
       <c r="L6">
-        <v>0.5793451127918411</v>
+        <v>0.4803569460874281</v>
       </c>
       <c r="M6">
-        <v>0.5793451127918411</v>
+        <v>0.4952711365267599</v>
       </c>
       <c r="N6">
-        <v>0.6306356525626627</v>
+        <v>0.5544953726043356</v>
       </c>
       <c r="O6">
-        <v>0.7178733290351205</v>
+        <v>0.6370234035169775</v>
       </c>
       <c r="P6">
-        <v>0.7178733290351205</v>
+        <v>0.6370234035169775</v>
       </c>
       <c r="Q6">
-        <v>0.7178733290351205</v>
+        <v>0.6517593645116886</v>
       </c>
       <c r="R6">
-        <v>0.7178733290351205</v>
+        <v>0.6517593645116886</v>
       </c>
       <c r="S6">
-        <v>0.7878128308155331</v>
+        <v>0.7230733419270958</v>
       </c>
       <c r="T6">
-        <v>0.7878128308155331</v>
+        <v>0.725395929577946</v>
       </c>
       <c r="U6">
-        <v>0.7878128308155331</v>
+        <v>0.728153144701146</v>
       </c>
       <c r="V6">
-        <v>0.7878128308155331</v>
+        <v>0.728153144701146</v>
       </c>
       <c r="W6">
-        <v>0.7878128308155331</v>
+        <v>0.728153144701146</v>
       </c>
       <c r="X6">
-        <v>0.7878128308155331</v>
+        <v>0.728153144701146</v>
       </c>
       <c r="Y6">
-        <v>0.7878128308155331</v>
+        <v>0.728153144701146</v>
       </c>
       <c r="Z6">
-        <v>0.8243470286017524</v>
+        <v>0.7778111455322412</v>
       </c>
       <c r="AA6">
-        <v>0.8243470286017524</v>
+        <v>0.7910141181043917</v>
       </c>
       <c r="AB6">
-        <v>0.8254576717055285</v>
+        <v>0.8177077516341316</v>
       </c>
       <c r="AC6">
-        <v>0.8254576717055285</v>
+        <v>0.8190790698609068</v>
       </c>
       <c r="AD6">
-        <v>0.8848373137308329</v>
+        <v>0.8835473057847835</v>
       </c>
       <c r="AE6">
-        <v>0.8848373137308329</v>
+        <v>0.8835473057847835</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9841785504379543</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9841785504379543</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -1912,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.6031320044319766</v>
+      </c>
+      <c r="G2">
         <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5347338411831594</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -1953,16 +1953,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5930499649740171</v>
+        <v>0.5418734567260513</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -1994,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5173723485890758</v>
+        <v>0.6116244924187603</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -2035,16 +2035,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5990392617699958</v>
+      </c>
+      <c r="G5">
         <v>12</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5310530748367448</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -2076,16 +2076,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5013983940647748</v>
+        <v>0.5544953726043356</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.7090007368916911</v>
+      </c>
+      <c r="G2">
         <v>18</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7683895975826601</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -2212,16 +2212,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8254243094985997</v>
+        <v>0.7283440183278794</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7009143775518503</v>
+        <v>0.727272104093272</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8153747589052696</v>
+        <v>0.7580867534121263</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7178733290351205</v>
+        <v>0.7230733419270958</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8038462065414402</v>
+      </c>
+      <c r="G2">
         <v>25</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8031467325289103</v>
-      </c>
-      <c r="G2">
-        <v>24</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -2471,16 +2471,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8254243094985997</v>
+        <v>0.8382360889924451</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8161868505644967</v>
+      </c>
+      <c r="G4">
         <v>25</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8096516736115745</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -2553,16 +2553,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8153747589052696</v>
+        <v>0.8503783854275219</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8243470286017524</v>
+        <v>0.8177077516341316</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>55</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9887837975224865</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -2730,16 +2730,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.91491235341668</v>
+        <v>0.9142848435757482</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>55</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9863696653329752</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -2812,16 +2812,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9139855209334485</v>
+        <v>0.9220476627335137</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>55</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9841785504379543</v>
       </c>
       <c r="G6">
         <v>30</v>
